--- a/Karabiner/新JIS配列.xlsx
+++ b/Karabiner/新JIS配列.xlsx
@@ -5,15 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1 - 新JIS配列のマップの作成と検査" sheetId="1" r:id="rId4"/>
+    <sheet name="JIS - 新JIS配列用Complex Modificati" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
-  <si>
-    <t>新JIS配列のマップの作成と検査</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+  <si>
+    <t>新JIS配列用Complex Modifications（for JIS keyboard）の仕様（と検査結果）</t>
   </si>
   <si>
     <t>Modifiers</t>
@@ -25,13 +25,16 @@
     <t>キーボード</t>
   </si>
   <si>
-    <t>備考</t>
+    <t>説明</t>
   </si>
   <si>
     <t>文字（プログラム用）</t>
   </si>
   <si>
     <t>文字（検査用）</t>
+  </si>
+  <si>
+    <t>検査</t>
   </si>
   <si>
     <t xml:space="preserve">一致? </t>
@@ -275,7 +278,7 @@
     <t>ぅぇぉねゃむろ・ー</t>
   </si>
   <si>
-    <t>数字キー</t>
+    <t>非かなキー</t>
   </si>
   <si>
     <t>1</t>
@@ -308,71 +311,112 @@
     <t>0</t>
   </si>
   <si>
-    <t>数字キー（１２３、、、０）を半角数字に変更</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1", "2", "3", "4", "5", "6", "7", "8", "9", "0", "", "", "", </t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>記号(JISキーボード)</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>¥</t>
+  </si>
+  <si>
+    <t>非かなキーは半角
+ただし、
+・spacebar(親指シフト)-0は打たない
+・spacebar(親指シフト)なしのinternational1で_(アンダーバー、バックスラッシュ、円記号)は打たない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1", "2", "3", "4", "5", "6", "7", "8", "9", "0", "-", "^", "¥", </t>
+  </si>
+  <si>
+    <t>1234567890-^¥</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"[", "", "", "", "", "", "", "", "", "", "", "", "", </t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"]", "", "", "", "", "", "", "", "", "", "", "", "", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"", "", "", "", "", "", "", "", "", "", "", "", "", </t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>“</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"!", "“", "#", "$", "%", "&amp;", "‘", "(", ")", "=", "~", "|", "", </t>
+  </si>
+  <si>
+    <t>!“#$%&amp;‘()=~|</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"{", "", "", "", "", "", "", "", "", "", "", "", "", </t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"}", "", "", "", "", "", "", "", "", "", "", "", "", </t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"_", "", "", "", "", "", "", "", "", "", "", "", "", </t>
+  </si>
+  <si>
+    <t>半角</t>
   </si>
   <si>
     <t>Sft-</t>
-  </si>
-  <si>
-    <t>１</t>
-  </si>
-  <si>
-    <t>２</t>
-  </si>
-  <si>
-    <t>３</t>
-  </si>
-  <si>
-    <t>４</t>
-  </si>
-  <si>
-    <t>５</t>
-  </si>
-  <si>
-    <t>６</t>
-  </si>
-  <si>
-    <t>７</t>
-  </si>
-  <si>
-    <t>８</t>
-  </si>
-  <si>
-    <t>９</t>
-  </si>
-  <si>
-    <t>０</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>¥</t>
   </si>
   <si>
     <t>JISキーボードのキートップに書かれている文字を半角で入力する
 ただし、
-・数字（１２３、、、０）は全角。
-・空白(spacebar)は半角。
-・シフトなしのinternational1で_(アンダーバー)は打たない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"１", "２", "３", "４", "５", "６", "７", "８", "９", "０", "-", "^", "¥", </t>
-  </si>
-  <si>
-    <t>１２３４５６７８９０-¥</t>
+・Sft-spacebar(親指シフト)-0は打たない
+・spacebar(親指シフト)なしのinternational1で_(アンダーバー、バックスラッシュ、円記号)は打たない</t>
   </si>
   <si>
     <t>q</t>
@@ -408,13 +452,10 @@
     <t>@</t>
   </si>
   <si>
-    <t>[</t>
-  </si>
-  <si>
     <t xml:space="preserve">"q", "w", "e", "r", "t", "y", "u", "I", "o", "p", "@", "[", "", </t>
   </si>
   <si>
-    <t>qwertyuIop@</t>
+    <t>qwertyuIop@[</t>
   </si>
   <si>
     <t>a</t>
@@ -450,13 +491,10 @@
     <t>:</t>
   </si>
   <si>
-    <t>]</t>
-  </si>
-  <si>
     <t xml:space="preserve">"a", "s", "d", "f", "g", "h", "j", "k", "l", ";", ":", "]", "", </t>
   </si>
   <si>
-    <t>asdfghjkl;:</t>
+    <t>asdfghjkl;:]</t>
   </si>
   <si>
     <t>z</t>
@@ -489,13 +527,10 @@
     <t>/</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"z", "x", "c", "v", "b", "n", "m", ",", ".", "/", "_", "", "", </t>
-  </si>
-  <si>
-    <t>zxcvbnm,./_</t>
+    <t xml:space="preserve">"z", "x", "c", "v", "b", "n", "m", ",", ".", "/", "", "", "", </t>
+  </si>
+  <si>
+    <t>zxcvbnm,./</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -507,48 +542,6 @@
     <t>Sft-Spc-</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>‘</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"!", "“", "#", "$", "%", "&amp;", "‘", "(", ")", "=", "~", "|", "", </t>
-  </si>
-  <si>
-    <t>!“#$%&amp;‘()=~</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -579,13 +572,10 @@
     <t>`</t>
   </si>
   <si>
-    <t>{</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Q", "W", "E", "R", "T", "Y", "U", "I", "O", "P", "`", "{", "", </t>
   </si>
   <si>
-    <t>QWERTYUIOP`</t>
+    <t>QWERTYUIOP`{</t>
   </si>
   <si>
     <t>A</t>
@@ -621,13 +611,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>}</t>
-  </si>
-  <si>
     <t xml:space="preserve">"A", "S", "D", "F", "G", "H", "J", "K", "L", "+", "*", "}", "", </t>
   </si>
   <si>
-    <t>ASDFGHJKL+*</t>
+    <t>ASDFGHJKL+*}</t>
   </si>
   <si>
     <t>Z</t>
@@ -666,40 +653,350 @@
     <t>ZXCVBNM&lt;&gt;?_</t>
   </si>
   <si>
+    <t>全角</t>
+  </si>
+  <si>
+    <t>Opt-</t>
+  </si>
+  <si>
+    <t>１</t>
+  </si>
+  <si>
+    <t>２</t>
+  </si>
+  <si>
+    <t>３</t>
+  </si>
+  <si>
+    <t>４</t>
+  </si>
+  <si>
+    <t>５</t>
+  </si>
+  <si>
+    <t>６</t>
+  </si>
+  <si>
+    <t>７</t>
+  </si>
+  <si>
+    <t>８</t>
+  </si>
+  <si>
+    <t>９</t>
+  </si>
+  <si>
+    <t>０</t>
+  </si>
+  <si>
+    <t>＾</t>
+  </si>
+  <si>
+    <t>￥</t>
+  </si>
+  <si>
+    <t>JISキーボードのキートップに書かれている文字を全角で入力する
+ただし、
+・Opt-Sft-0は打たない
+・Sft-なしのinternational1で_(アンダーバー、バックスラッシュ、円記号)は打たない
+・全角ACRSXZが打てない原因は不明。諦める。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"１", "２", "３", "４", "５", "６", "７", "８", "９", "０", "ー", "＾", "￥", </t>
+  </si>
+  <si>
+    <t>１２３４５６７８９０ー＾￥</t>
+  </si>
+  <si>
+    <t>ｑ</t>
+  </si>
+  <si>
+    <t>ｗ</t>
+  </si>
+  <si>
+    <t>ｅ</t>
+  </si>
+  <si>
+    <t>ｒ</t>
+  </si>
+  <si>
+    <t>ｔ</t>
+  </si>
+  <si>
+    <t>ｙ</t>
+  </si>
+  <si>
+    <t>ｕ</t>
+  </si>
+  <si>
+    <t>ｉ</t>
+  </si>
+  <si>
+    <t>ｏ</t>
+  </si>
+  <si>
+    <t>ｐ</t>
+  </si>
+  <si>
+    <t>＠</t>
+  </si>
+  <si>
+    <t>［</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ｑ", "ｗ", "ｅ", "ｒ", "ｔ", "ｙ", "ｕ", "ｉ", "ｏ", "ｐ", "＠", "［", "", </t>
+  </si>
+  <si>
+    <t>ｑｗｅｒｔｙｕｉｏｐ＠［</t>
+  </si>
+  <si>
+    <t>ａ</t>
+  </si>
+  <si>
+    <t>ｓ</t>
+  </si>
+  <si>
+    <t>ｄ</t>
+  </si>
+  <si>
+    <t>ｆ</t>
+  </si>
+  <si>
+    <t>ｇ</t>
+  </si>
+  <si>
+    <t>ｈ</t>
+  </si>
+  <si>
+    <t>ｊ</t>
+  </si>
+  <si>
+    <t>ｋ</t>
+  </si>
+  <si>
+    <t>ｌ</t>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t>：</t>
+  </si>
+  <si>
+    <t>］</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ａ", "ｓ", "ｄ", "ｆ", "ｇ", "ｈ", "ｊ", "ｋ", "ｌ", "；", "：", "］", "", </t>
+  </si>
+  <si>
+    <t>ａｓｄｆｇｈｊｋｌ；：］</t>
+  </si>
+  <si>
+    <t>ｚ</t>
+  </si>
+  <si>
+    <t>ｘ</t>
+  </si>
+  <si>
+    <t>ｃ</t>
+  </si>
+  <si>
+    <t>ｖ</t>
+  </si>
+  <si>
+    <t>ｂ</t>
+  </si>
+  <si>
+    <t>ｎ</t>
+  </si>
+  <si>
+    <t>ｍ</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>．</t>
+  </si>
+  <si>
+    <t>／</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ｚ", "ｘ", "ｃ", "ｖ", "ｂ", "ｎ", "ｍ", "，", "．", "／", "", "", "", </t>
+  </si>
+  <si>
+    <t>ｚｘｃｖｂｎｍ，．／</t>
+  </si>
+  <si>
+    <t>Opt-Sft-</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>＃</t>
+  </si>
+  <si>
+    <t>＄</t>
+  </si>
+  <si>
+    <t>％</t>
+  </si>
+  <si>
+    <t>＆</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>（</t>
+  </si>
+  <si>
+    <t>）</t>
+  </si>
+  <si>
+    <t>＝</t>
+  </si>
+  <si>
+    <t>〜</t>
+  </si>
+  <si>
+    <t>｜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"！", "”", "＃", "＄", "％", "＆", "’", "（", "）", "＝", "〜", "｜", "", </t>
+  </si>
+  <si>
+    <t>！”＃＄％＆’（）＝〜｜</t>
+  </si>
+  <si>
+    <t>Ｑ</t>
+  </si>
+  <si>
+    <t>Ｗ</t>
+  </si>
+  <si>
+    <t>Ｅ</t>
+  </si>
+  <si>
+    <t>Ｔ</t>
+  </si>
+  <si>
+    <t>Ｙ</t>
+  </si>
+  <si>
+    <t>Ｕ</t>
+  </si>
+  <si>
+    <t>Ｉ</t>
+  </si>
+  <si>
+    <t>Ｏ</t>
+  </si>
+  <si>
+    <t>Ｐ</t>
+  </si>
+  <si>
+    <t>｀</t>
+  </si>
+  <si>
+    <t>｛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ｑ", "Ｗ", "Ｅ", "", "Ｔ", "Ｙ", "Ｕ", "Ｉ", "Ｏ", "Ｐ", "｀", "｛", "", </t>
+  </si>
+  <si>
+    <t>ＱＷＥＴＹＵＩＯＰ｀｛</t>
+  </si>
+  <si>
+    <t>Ｄ</t>
+  </si>
+  <si>
+    <t>Ｆ</t>
+  </si>
+  <si>
+    <t>Ｇ</t>
+  </si>
+  <si>
+    <t>Ｈ</t>
+  </si>
+  <si>
+    <t>Ｊ</t>
+  </si>
+  <si>
+    <t>Ｋ</t>
+  </si>
+  <si>
+    <t>Ｌ</t>
+  </si>
+  <si>
+    <t>＋</t>
+  </si>
+  <si>
+    <t>＊</t>
+  </si>
+  <si>
+    <t>｝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"", "", "Ｄ", "Ｆ", "Ｇ", "Ｈ", "Ｊ", "Ｋ", "Ｌ", "＋", "＊", "｝", "", </t>
+  </si>
+  <si>
+    <t>ＤＦＧＨＪＫＬ＋＊｝</t>
+  </si>
+  <si>
+    <t>Ｖ</t>
+  </si>
+  <si>
+    <t>Ｂ</t>
+  </si>
+  <si>
+    <t>Ｎ</t>
+  </si>
+  <si>
+    <t>Ｍ</t>
+  </si>
+  <si>
+    <t>＜</t>
+  </si>
+  <si>
+    <t>＞</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>＿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"", "", "", "Ｖ", "Ｂ", "Ｎ", "Ｍ", "＜", "＞", "？", "＿", "", "", </t>
+  </si>
+  <si>
+    <t>ＶＢＮＭ＜＞？＿</t>
+  </si>
+  <si>
     <t>その他</t>
   </si>
   <si>
-    <t>（）</t>
-  </si>
-  <si>
-    <t>()</t>
-  </si>
-  <si>
-    <t>Shift-0, Shift-SPC-0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"（）", "()", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t>（）()</t>
-  </si>
-  <si>
-    <t>Shift-</t>
-  </si>
-  <si>
-    <t>Shift-Spc</t>
-  </si>
-  <si>
-    <t>International1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"", "", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t>"escape"</t>
-  </si>
-  <si>
-    <t>"grave_accent_and_tilde"</t>
+    <t>VirtualKeyboardの変更</t>
+  </si>
+  <si>
+    <t>Sft-"delete_or_backspace"</t>
+  </si>
+  <si>
+    <t>JISキーボードにおける、”゜むろ”の抑止</t>
+  </si>
+  <si>
+    <t>“grave_accent_and_tilde”（半/全キー）</t>
+  </si>
+  <si>
+    <t>Opt-Sft-0で”（）”</t>
+  </si>
+  <si>
+    <t>全角ACRSXZは辞書に登録して変換するしかない</t>
   </si>
 </sst>
 </file>
@@ -904,6 +1201,9 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -919,16 +1219,13 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,8 +1264,8 @@
       <xdr:rowOff>68083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>255240</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39340</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>23315</xdr:rowOff>
     </xdr:to>
@@ -1051,14 +1348,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>391909</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176009</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>68083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>143971</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105871</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>23315</xdr:rowOff>
     </xdr:to>
@@ -2195,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:U50"/>
+  <dimension ref="A2:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="D3" xSplit="3" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2203,16 +2500,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.5391" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.8125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.57031" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.25781" style="1" customWidth="1"/>
     <col min="5" max="16" width="3.8125" style="1" customWidth="1"/>
     <col min="17" max="17" width="52" style="1" customWidth="1"/>
-    <col min="18" max="18" width="60.1094" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.8125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="7.60156" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="18" max="18" width="61.4297" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.0781" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.4375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="7.60156" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -2239,6 +2537,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
       <c r="A2" s="3"/>
@@ -2275,1941 +2574,2067 @@
       <c r="T2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="U2" s="3"/>
+      <c r="U2" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" ht="18.5" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" t="s" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s" s="9">
         <f>CONCATENATE(""",D3,""",", ",""",E3,""",", ",""",F3,""",", ",""",G3,""",", ",""",H3,""",", ",""",I3,""",", ",""",J3,""",", ",""",K3,""",", ",""",L3,""",", ",""",M3,""",", ",""",N3,""",", ",""",O3,""",", ",""",P3,""",", ")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S3" t="s" s="9">
-        <f>CONCATENATE(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3)</f>
-        <v>23</v>
+        <f>CONCATENATE(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3)</f>
+        <v>24</v>
       </c>
       <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
+      <c r="U3" t="b" s="11">
+        <f>EXACT(S3,T3)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="11">
+      <c r="A4" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="B4" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="13">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s" s="14">
+      <c r="D4" t="s" s="14">
         <v>25</v>
       </c>
-      <c r="F4" t="s" s="14">
+      <c r="E4" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="F4" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="H4" t="s" s="14">
+      <c r="G4" t="s" s="15">
         <v>28</v>
       </c>
-      <c r="I4" t="s" s="14">
+      <c r="H4" t="s" s="15">
         <v>29</v>
       </c>
-      <c r="J4" t="s" s="14">
+      <c r="I4" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="K4" t="s" s="14">
+      <c r="J4" t="s" s="15">
         <v>31</v>
       </c>
-      <c r="L4" t="s" s="14">
+      <c r="K4" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="M4" t="s" s="14">
+      <c r="L4" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="N4" t="s" s="14">
+      <c r="M4" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" t="s" s="14">
+      <c r="N4" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" t="s" s="15">
         <f>CONCATENATE(""",D4,""",", ",""",E4,""",", ",""",F4,""",", ",""",G4,""",", ",""",H4,""",", ",""",I4,""",", ",""",J4,""",", ",""",K4,""",", ",""",L4,""",", ",""",M4,""",", ",""",N4,""",", ",""",O4,""",", ",""",P4,""",", ")</f>
-        <v>35</v>
-      </c>
-      <c r="S4" t="s" s="14">
-        <f>CONCATENATE(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4)</f>
         <v>36</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="S4" t="s" s="15">
+        <f>CONCATENATE(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4)</f>
+        <v>37</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" t="b" s="17">
+        <f>EXACT(S4,T4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="16"/>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="11">
+      <c r="A5" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="B5" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" t="s" s="13">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s" s="14">
+      <c r="D5" t="s" s="14">
         <v>38</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="E5" t="s" s="15">
         <v>39</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="F5" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="G5" t="s" s="15">
         <v>41</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="H5" t="s" s="15">
         <v>42</v>
       </c>
-      <c r="J5" t="s" s="14">
+      <c r="I5" t="s" s="15">
         <v>43</v>
       </c>
-      <c r="K5" t="s" s="14">
+      <c r="J5" t="s" s="15">
         <v>44</v>
       </c>
-      <c r="L5" t="s" s="14">
+      <c r="K5" t="s" s="15">
         <v>45</v>
       </c>
-      <c r="M5" t="s" s="14">
+      <c r="L5" t="s" s="15">
         <v>46</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" t="s" s="14">
+      <c r="M5" t="s" s="15">
+        <v>47</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" t="s" s="15">
         <f>CONCATENATE(""",D5,""",", ",""",E5,""",", ",""",F5,""",", ",""",G5,""",", ",""",H5,""",", ",""",I5,""",", ",""",J5,""",", ",""",K5,""",", ",""",L5,""",", ",""",M5,""",", ",""",N5,""",", ",""",O5,""",", ",""",P5,""",", ")</f>
-        <v>47</v>
-      </c>
-      <c r="S5" t="s" s="14">
-        <f>CONCATENATE(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5)</f>
         <v>48</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="S5" t="s" s="15">
+        <f>CONCATENATE(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5)</f>
+        <v>49</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" t="b" s="17">
+        <f>EXACT(S5,T5)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="16"/>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" t="s" s="13">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s" s="14">
+      <c r="D6" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="F6" t="s" s="14">
+      <c r="E6" t="s" s="15">
         <v>52</v>
       </c>
-      <c r="G6" t="s" s="14">
+      <c r="F6" t="s" s="15">
         <v>53</v>
       </c>
-      <c r="H6" t="s" s="14">
+      <c r="G6" t="s" s="15">
         <v>54</v>
       </c>
-      <c r="I6" t="s" s="14">
+      <c r="H6" t="s" s="15">
         <v>55</v>
       </c>
-      <c r="J6" t="s" s="14">
+      <c r="I6" t="s" s="15">
         <v>56</v>
       </c>
-      <c r="K6" t="s" s="14">
+      <c r="J6" t="s" s="15">
         <v>57</v>
       </c>
-      <c r="L6" t="s" s="14">
+      <c r="K6" t="s" s="15">
         <v>58</v>
       </c>
-      <c r="M6" t="s" s="14">
+      <c r="L6" t="s" s="15">
         <v>59</v>
       </c>
-      <c r="N6" t="s" s="14">
+      <c r="M6" t="s" s="15">
         <v>60</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" t="s" s="14">
+      <c r="N6" t="s" s="15">
+        <v>61</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" t="s" s="15">
         <f>CONCATENATE(""",D6,""",", ",""",E6,""",", ",""",F6,""",", ",""",G6,""",", ",""",H6,""",", ",""",I6,""",", ",""",J6,""",", ",""",K6,""",", ",""",L6,""",", ",""",M6,""",", ",""",N6,""",", ",""",O6,""",", ",""",P6,""",", ")</f>
-        <v>61</v>
-      </c>
-      <c r="S6" t="s" s="14">
-        <f>CONCATENATE(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6)</f>
         <v>62</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="S6" t="s" s="15">
+        <f>CONCATENATE(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
+        <v>63</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" t="b" s="17">
+        <f>EXACT(S6,T6)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="16"/>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s" s="14">
+      <c r="D7" t="s" s="14">
         <v>64</v>
       </c>
-      <c r="F7" t="s" s="14">
+      <c r="E7" t="s" s="15">
         <v>65</v>
       </c>
-      <c r="G7" t="s" s="14">
+      <c r="F7" t="s" s="15">
         <v>66</v>
       </c>
-      <c r="H7" t="s" s="14">
+      <c r="G7" t="s" s="15">
         <v>67</v>
       </c>
-      <c r="I7" t="s" s="14">
+      <c r="H7" t="s" s="15">
         <v>68</v>
       </c>
-      <c r="J7" t="s" s="14">
+      <c r="I7" t="s" s="15">
         <v>69</v>
       </c>
-      <c r="K7" t="s" s="14">
+      <c r="J7" t="s" s="15">
         <v>70</v>
       </c>
-      <c r="L7" t="s" s="14">
+      <c r="K7" t="s" s="15">
         <v>71</v>
       </c>
-      <c r="M7" t="s" s="14">
+      <c r="L7" t="s" s="15">
         <v>72</v>
       </c>
-      <c r="N7" t="s" s="14">
+      <c r="M7" t="s" s="15">
         <v>73</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" t="s" s="14">
+      <c r="N7" t="s" s="15">
+        <v>74</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" t="s" s="15">
         <f>CONCATENATE(""",D7,""",", ",""",E7,""",", ",""",F7,""",", ",""",G7,""",", ",""",H7,""",", ",""",I7,""",", ",""",J7,""",", ",""",K7,""",", ",""",L7,""",", ",""",M7,""",", ",""",N7,""",", ",""",O7,""",", ",""",P7,""",", ")</f>
-        <v>74</v>
-      </c>
-      <c r="S7" t="s" s="14">
-        <f>CONCATENATE(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7)</f>
         <v>75</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="S7" t="s" s="15">
+        <f>CONCATENATE(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
+        <v>76</v>
+      </c>
+      <c r="T7" s="16"/>
+      <c r="U7" t="b" s="17">
+        <f>EXACT(S7,T7)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="16"/>
     </row>
     <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="A8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="13">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s" s="14">
+      <c r="D8" t="s" s="14">
         <v>77</v>
       </c>
-      <c r="F8" t="s" s="14">
+      <c r="E8" t="s" s="15">
         <v>78</v>
       </c>
-      <c r="G8" t="s" s="14">
+      <c r="F8" t="s" s="15">
         <v>79</v>
       </c>
-      <c r="H8" t="s" s="14">
+      <c r="G8" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="I8" t="s" s="14">
+      <c r="H8" t="s" s="15">
         <v>81</v>
       </c>
-      <c r="J8" t="s" s="14">
+      <c r="I8" t="s" s="15">
         <v>82</v>
       </c>
-      <c r="K8" t="s" s="14">
+      <c r="J8" t="s" s="15">
         <v>83</v>
       </c>
-      <c r="L8" t="s" s="14">
+      <c r="K8" t="s" s="15">
         <v>84</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" t="s" s="14">
+      <c r="L8" t="s" s="15">
+        <v>85</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" t="s" s="15">
         <f>CONCATENATE(""",D8,""",", ",""",E8,""",", ",""",F8,""",", ",""",G8,""",", ",""",H8,""",", ",""",I8,""",", ",""",J8,""",", ",""",K8,""",", ",""",L8,""",", ",""",M8,""",", ",""",N8,""",", ",""",O8,""",", ",""",P8,""",", ")</f>
-        <v>85</v>
-      </c>
-      <c r="S8" t="s" s="14">
-        <f>CONCATENATE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8)</f>
         <v>86</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="S8" t="s" s="15">
+        <f>CONCATENATE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8)</f>
+        <v>87</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" t="b" s="17">
+        <f>EXACT(S8,T8)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="16"/>
     </row>
     <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" t="s" s="13">
+      <c r="A9" t="s" s="12">
         <v>88</v>
       </c>
-      <c r="E9" t="s" s="14">
+      <c r="B9" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="14">
         <v>89</v>
       </c>
-      <c r="F9" t="s" s="14">
+      <c r="E9" t="s" s="15">
         <v>90</v>
       </c>
-      <c r="G9" t="s" s="14">
+      <c r="F9" t="s" s="15">
         <v>91</v>
       </c>
-      <c r="H9" t="s" s="14">
+      <c r="G9" t="s" s="15">
         <v>92</v>
       </c>
-      <c r="I9" t="s" s="14">
+      <c r="H9" t="s" s="15">
         <v>93</v>
       </c>
-      <c r="J9" t="s" s="14">
+      <c r="I9" t="s" s="15">
         <v>94</v>
       </c>
-      <c r="K9" t="s" s="14">
+      <c r="J9" t="s" s="15">
         <v>95</v>
       </c>
-      <c r="L9" t="s" s="14">
+      <c r="K9" t="s" s="15">
         <v>96</v>
       </c>
-      <c r="M9" t="s" s="14">
+      <c r="L9" t="s" s="15">
         <v>97</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" t="s" s="14">
+      <c r="M9" t="s" s="15">
         <v>98</v>
       </c>
-      <c r="R9" t="s" s="14">
+      <c r="N9" t="s" s="15">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s" s="15">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s" s="15">
+        <v>101</v>
+      </c>
+      <c r="Q9" t="s" s="15">
+        <v>102</v>
+      </c>
+      <c r="R9" t="s" s="15">
         <f>CONCATENATE(""",D9,""",", ",""",E9,""",", ",""",F9,""",", ",""",G9,""",", ",""",H9,""",", ",""",I9,""",", ",""",J9,""",", ",""",K9,""",", ",""",L9,""",", ",""",M9,""",", ",""",N9,""",", ",""",O9,""",", ",""",P9,""",", ")</f>
-        <v>99</v>
-      </c>
-      <c r="S9" t="s" s="14">
-        <f>CONCATENATE(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9)</f>
-        <v>100</v>
-      </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="S9" t="s" s="15">
+        <f>CONCATENATE(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9)</f>
+        <v>104</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" t="b" s="17">
+        <f>EXACT(S9,T9)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="16"/>
     </row>
     <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="13">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>104</v>
-      </c>
-      <c r="F10" t="s" s="14">
+      <c r="A10" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="14">
         <v>105</v>
       </c>
-      <c r="G10" t="s" s="14">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" t="s" s="15">
+        <f>CONCATENATE(""",D10,""",", ",""",E10,""",", ",""",F10,""",", ",""",G10,""",", ",""",H10,""",", ",""",I10,""",", ",""",J10,""",", ",""",K10,""",", ",""",L10,""",", ",""",M10,""",", ",""",N10,""",", ",""",O10,""",", ",""",P10,""",", ")</f>
         <v>106</v>
       </c>
-      <c r="H10" t="s" s="14">
-        <v>107</v>
-      </c>
-      <c r="I10" t="s" s="14">
-        <v>108</v>
-      </c>
-      <c r="J10" t="s" s="14">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s" s="14">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s" s="14">
-        <v>111</v>
-      </c>
-      <c r="M10" t="s" s="14">
-        <v>112</v>
-      </c>
-      <c r="N10" t="s" s="14">
-        <v>113</v>
-      </c>
-      <c r="O10" t="s" s="14">
-        <v>114</v>
-      </c>
-      <c r="P10" t="s" s="14">
-        <v>115</v>
-      </c>
-      <c r="Q10" t="s" s="14">
-        <v>116</v>
-      </c>
-      <c r="R10" t="s" s="14">
-        <f>CONCATENATE(""",D10,""",", ",""",E10,""",", ",""",F10,""",", ",""",G10,""",", ",""",H10,""",", ",""",I10,""",", ",""",J10,""",", ",""",K10,""",", ",""",L10,""",", ",""",M10,""",", ",""",N10,""",", ",""",O10,""",", ",""",P10,""",", ")</f>
-        <v>117</v>
-      </c>
-      <c r="S10" t="s" s="14">
-        <f>CONCATENATE(D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,P10)</f>
-        <v>118</v>
-      </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="S10" t="s" s="15">
+        <f>CONCATENATE(D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10)</f>
+        <v>105</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" t="b" s="17">
+        <f>EXACT(S10,T10)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="16"/>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s" s="13">
-        <v>119</v>
-      </c>
-      <c r="E11" t="s" s="14">
-        <v>120</v>
-      </c>
-      <c r="F11" t="s" s="14">
-        <v>121</v>
-      </c>
-      <c r="G11" t="s" s="14">
-        <v>122</v>
-      </c>
-      <c r="H11" t="s" s="14">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s" s="14">
-        <v>124</v>
-      </c>
-      <c r="J11" t="s" s="14">
-        <v>125</v>
-      </c>
-      <c r="K11" t="s" s="14">
-        <v>126</v>
-      </c>
-      <c r="L11" t="s" s="14">
-        <v>127</v>
-      </c>
-      <c r="M11" t="s" s="14">
-        <v>128</v>
-      </c>
-      <c r="N11" t="s" s="14">
-        <v>129</v>
-      </c>
-      <c r="O11" t="s" s="14">
-        <v>130</v>
-      </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" t="s" s="14">
+      <c r="A11" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s" s="14">
+        <v>107</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" t="s" s="15">
         <f>CONCATENATE(""",D11,""",", ",""",E11,""",", ",""",F11,""",", ",""",G11,""",", ",""",H11,""",", ",""",I11,""",", ",""",J11,""",", ",""",K11,""",", ",""",L11,""",", ",""",M11,""",", ",""",N11,""",", ",""",O11,""",", ",""",P11,""",", ")</f>
-        <v>131</v>
-      </c>
-      <c r="S11" t="s" s="14">
-        <f>CONCATENATE(D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,P11)</f>
-        <v>132</v>
-      </c>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="S11" t="s" s="15">
+        <f>CONCATENATE(D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11)</f>
+        <v>107</v>
+      </c>
+      <c r="T11" s="16"/>
+      <c r="U11" t="b" s="17">
+        <f>EXACT(S11,T11)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="16"/>
     </row>
     <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s" s="13">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s" s="14">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s" s="14">
-        <v>135</v>
-      </c>
-      <c r="G12" t="s" s="14">
-        <v>136</v>
-      </c>
-      <c r="H12" t="s" s="14">
-        <v>137</v>
-      </c>
-      <c r="I12" t="s" s="14">
-        <v>138</v>
-      </c>
-      <c r="J12" t="s" s="14">
-        <v>139</v>
-      </c>
-      <c r="K12" t="s" s="14">
-        <v>140</v>
-      </c>
-      <c r="L12" t="s" s="14">
-        <v>141</v>
-      </c>
-      <c r="M12" t="s" s="14">
-        <v>142</v>
-      </c>
-      <c r="N12" t="s" s="14">
-        <v>143</v>
-      </c>
-      <c r="O12" t="s" s="14">
-        <v>144</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" t="s" s="14">
+      <c r="A12" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" t="s" s="15">
         <f>CONCATENATE(""",D12,""",", ",""",E12,""",", ",""",F12,""",", ",""",G12,""",", ",""",H12,""",", ",""",I12,""",", ",""",J12,""",", ",""",K12,""",", ",""",L12,""",", ",""",M12,""",", ",""",N12,""",", ",""",O12,""",", ",""",P12,""",", ")</f>
-        <v>145</v>
-      </c>
-      <c r="S12" t="s" s="14">
-        <f>CONCATENATE(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,P12)</f>
-        <v>146</v>
-      </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+        <v>109</v>
+      </c>
+      <c r="S12" t="s" s="15">
+        <f>CONCATENATE(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12)</f>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" t="b" s="17">
+        <f>EXACT(S12,T12)</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="16"/>
     </row>
     <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C13" s="12">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s" s="13">
-        <v>147</v>
-      </c>
-      <c r="E13" t="s" s="14">
-        <v>148</v>
-      </c>
-      <c r="F13" t="s" s="14">
-        <v>149</v>
-      </c>
-      <c r="G13" t="s" s="14">
-        <v>150</v>
-      </c>
-      <c r="H13" t="s" s="14">
-        <v>151</v>
-      </c>
-      <c r="I13" t="s" s="14">
-        <v>152</v>
-      </c>
-      <c r="J13" t="s" s="14">
-        <v>153</v>
-      </c>
-      <c r="K13" t="s" s="14">
-        <v>154</v>
-      </c>
-      <c r="L13" t="s" s="14">
-        <v>155</v>
-      </c>
-      <c r="M13" t="s" s="14">
-        <v>156</v>
-      </c>
-      <c r="N13" t="s" s="14">
-        <v>157</v>
-      </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" t="s" s="14">
+      <c r="A13" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="14">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s" s="15">
+        <v>111</v>
+      </c>
+      <c r="F13" t="s" s="15">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s" s="15">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s" s="15">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s" s="15">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s" s="15">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s" s="15">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s" s="15">
+        <v>118</v>
+      </c>
+      <c r="M13" t="s" s="15">
+        <v>119</v>
+      </c>
+      <c r="N13" t="s" s="15">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s" s="15">
+        <v>121</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" t="s" s="15">
         <f>CONCATENATE(""",D13,""",", ",""",E13,""",", ",""",F13,""",", ",""",G13,""",", ",""",H13,""",", ",""",I13,""",", ",""",J13,""",", ",""",K13,""",", ",""",L13,""",", ",""",M13,""",", ",""",N13,""",", ",""",O13,""",", ",""",P13,""",", ")</f>
-        <v>158</v>
-      </c>
-      <c r="S13" t="s" s="14">
-        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,P13)</f>
-        <v>159</v>
-      </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
+        <v>122</v>
+      </c>
+      <c r="S13" t="s" s="15">
+        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
+        <v>123</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" t="b" s="17">
+        <f>EXACT(S13,T13)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="16"/>
     </row>
     <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C14" s="12">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="13">
-        <v>160</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" t="s" s="14">
+      <c r="A14" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="14">
+        <v>124</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" t="s" s="15">
         <f>CONCATENATE(""",D14,""",", ",""",E14,""",", ",""",F14,""",", ",""",G14,""",", ",""",H14,""",", ",""",I14,""",", ",""",J14,""",", ",""",K14,""",", ",""",L14,""",", ",""",M14,""",", ",""",N14,""",", ",""",O14,""",", ",""",P14,""",", ")</f>
-        <v>161</v>
-      </c>
-      <c r="S14" t="s" s="14">
-        <f>CONCATENATE(D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,P14)</f>
-        <v>160</v>
-      </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
+        <v>125</v>
+      </c>
+      <c r="S14" t="s" s="15">
+        <f>CONCATENATE(D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14)</f>
+        <v>124</v>
+      </c>
+      <c r="T14" s="16"/>
+      <c r="U14" t="b" s="17">
+        <f>EXACT(S14,T14)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="16"/>
     </row>
     <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="13">
-        <v>163</v>
-      </c>
-      <c r="E15" t="s" s="14">
-        <v>164</v>
-      </c>
-      <c r="F15" t="s" s="14">
-        <v>165</v>
-      </c>
-      <c r="G15" t="s" s="14">
-        <v>166</v>
-      </c>
-      <c r="H15" t="s" s="14">
-        <v>167</v>
-      </c>
-      <c r="I15" t="s" s="14">
-        <v>168</v>
-      </c>
-      <c r="J15" t="s" s="14">
-        <v>169</v>
-      </c>
-      <c r="K15" t="s" s="14">
-        <v>170</v>
-      </c>
-      <c r="L15" t="s" s="14">
-        <v>171</v>
-      </c>
-      <c r="M15" t="s" s="14">
-        <v>172</v>
-      </c>
-      <c r="N15" t="s" s="14">
-        <v>173</v>
-      </c>
-      <c r="O15" t="s" s="14">
-        <v>174</v>
-      </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" t="s" s="14">
+      <c r="A15" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s" s="14">
+        <v>126</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" t="s" s="15">
         <f>CONCATENATE(""",D15,""",", ",""",E15,""",", ",""",F15,""",", ",""",G15,""",", ",""",H15,""",", ",""",I15,""",", ",""",J15,""",", ",""",K15,""",", ",""",L15,""",", ",""",M15,""",", ",""",N15,""",", ",""",O15,""",", ",""",P15,""",", ")</f>
-        <v>175</v>
-      </c>
-      <c r="S15" t="s" s="14">
-        <f>CONCATENATE(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,P15)</f>
-        <v>176</v>
-      </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="S15" t="s" s="15">
+        <f>CONCATENATE(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15)</f>
+        <v>126</v>
+      </c>
+      <c r="T15" s="16"/>
+      <c r="U15" t="b" s="17">
+        <f>EXACT(S15,T15)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="16"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B16" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s" s="13">
-        <v>177</v>
-      </c>
-      <c r="E16" t="s" s="14">
-        <v>178</v>
-      </c>
-      <c r="F16" t="s" s="14">
-        <v>179</v>
-      </c>
-      <c r="G16" t="s" s="14">
-        <v>180</v>
-      </c>
-      <c r="H16" t="s" s="14">
-        <v>181</v>
-      </c>
-      <c r="I16" t="s" s="14">
-        <v>182</v>
-      </c>
-      <c r="J16" t="s" s="14">
-        <v>183</v>
-      </c>
-      <c r="K16" t="s" s="14">
-        <v>126</v>
-      </c>
-      <c r="L16" t="s" s="14">
-        <v>184</v>
-      </c>
-      <c r="M16" t="s" s="14">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s" s="14">
-        <v>186</v>
-      </c>
-      <c r="O16" t="s" s="14">
-        <v>187</v>
-      </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" t="s" s="14">
+      <c r="A16" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s" s="14">
+        <v>128</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" t="s" s="15">
         <f>CONCATENATE(""",D16,""",", ",""",E16,""",", ",""",F16,""",", ",""",G16,""",", ",""",H16,""",", ",""",I16,""",", ",""",J16,""",", ",""",K16,""",", ",""",L16,""",", ",""",M16,""",", ",""",N16,""",", ",""",O16,""",", ",""",P16,""",", ")</f>
-        <v>188</v>
-      </c>
-      <c r="S16" t="s" s="14">
-        <f>CONCATENATE(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,P16)</f>
-        <v>189</v>
-      </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="S16" t="s" s="15">
+        <f>CONCATENATE(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16)</f>
+        <v>128</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" t="b" s="17">
+        <f>EXACT(S16,T16)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="16"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="A17" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>131</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="14">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s" s="15">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s" s="15">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="15">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s" s="15">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="J17" t="s" s="15">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s" s="15">
+        <v>96</v>
+      </c>
+      <c r="L17" t="s" s="15">
+        <v>97</v>
+      </c>
+      <c r="M17" t="s" s="15">
+        <v>98</v>
+      </c>
+      <c r="N17" t="s" s="15">
+        <v>99</v>
+      </c>
+      <c r="O17" t="s" s="15">
+        <v>100</v>
+      </c>
+      <c r="P17" t="s" s="15">
         <v>101</v>
       </c>
-      <c r="B17" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="C17" s="12">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s" s="13">
-        <v>190</v>
-      </c>
-      <c r="E17" t="s" s="14">
-        <v>191</v>
-      </c>
-      <c r="F17" t="s" s="14">
-        <v>192</v>
-      </c>
-      <c r="G17" t="s" s="14">
-        <v>193</v>
-      </c>
-      <c r="H17" t="s" s="14">
-        <v>194</v>
-      </c>
-      <c r="I17" t="s" s="14">
-        <v>195</v>
-      </c>
-      <c r="J17" t="s" s="14">
-        <v>196</v>
-      </c>
-      <c r="K17" t="s" s="14">
-        <v>197</v>
-      </c>
-      <c r="L17" t="s" s="14">
-        <v>198</v>
-      </c>
-      <c r="M17" t="s" s="14">
-        <v>199</v>
-      </c>
-      <c r="N17" t="s" s="14">
-        <v>200</v>
-      </c>
-      <c r="O17" t="s" s="14">
-        <v>201</v>
-      </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" t="s" s="14">
+      <c r="Q17" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="R17" t="s" s="15">
         <f>CONCATENATE(""",D17,""",", ",""",E17,""",", ",""",F17,""",", ",""",G17,""",", ",""",H17,""",", ",""",I17,""",", ",""",J17,""",", ",""",K17,""",", ",""",L17,""",", ",""",M17,""",", ",""",N17,""",", ",""",O17,""",", ",""",P17,""",", ")</f>
-        <v>202</v>
-      </c>
-      <c r="S17" t="s" s="14">
-        <f>CONCATENATE(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,P17)</f>
-        <v>203</v>
-      </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="S17" t="s" s="15">
+        <f>CONCATENATE(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17)</f>
+        <v>104</v>
+      </c>
+      <c r="T17" s="16"/>
+      <c r="U17" t="b" s="17">
+        <f>EXACT(S17,T17)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B18" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="C18" s="12">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s" s="13">
-        <v>204</v>
-      </c>
-      <c r="E18" t="s" s="14">
-        <v>205</v>
-      </c>
-      <c r="F18" t="s" s="14">
-        <v>206</v>
-      </c>
-      <c r="G18" t="s" s="14">
-        <v>207</v>
-      </c>
-      <c r="H18" t="s" s="14">
-        <v>208</v>
-      </c>
-      <c r="I18" t="s" s="14">
-        <v>209</v>
-      </c>
-      <c r="J18" t="s" s="14">
-        <v>210</v>
-      </c>
-      <c r="K18" t="s" s="14">
-        <v>211</v>
-      </c>
-      <c r="L18" t="s" s="14">
-        <v>212</v>
-      </c>
-      <c r="M18" t="s" s="14">
-        <v>213</v>
-      </c>
-      <c r="N18" t="s" s="14">
-        <v>157</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" t="s" s="14">
+      <c r="A18" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>131</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="14">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s" s="15">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s" s="15">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s" s="15">
+        <v>136</v>
+      </c>
+      <c r="H18" t="s" s="15">
+        <v>137</v>
+      </c>
+      <c r="I18" t="s" s="15">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s" s="15">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s" s="15">
+        <v>140</v>
+      </c>
+      <c r="L18" t="s" s="15">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="15">
+        <v>142</v>
+      </c>
+      <c r="N18" t="s" s="15">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s" s="15">
+        <v>105</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" t="s" s="15">
         <f>CONCATENATE(""",D18,""",", ",""",E18,""",", ",""",F18,""",", ",""",G18,""",", ",""",H18,""",", ",""",I18,""",", ",""",J18,""",", ",""",K18,""",", ",""",L18,""",", ",""",M18,""",", ",""",N18,""",", ",""",O18,""",", ",""",P18,""",", ")</f>
-        <v>214</v>
-      </c>
-      <c r="S18" t="s" s="14">
-        <f>CONCATENATE(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,P18)</f>
-        <v>215</v>
-      </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="S18" t="s" s="15">
+        <f>CONCATENATE(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18)</f>
+        <v>145</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" t="b" s="17">
+        <f>EXACT(S18,T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="16"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s" s="11">
-        <v>216</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" t="s" s="13">
-        <v>217</v>
-      </c>
-      <c r="E19" t="s" s="14">
-        <v>218</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" t="s" s="14">
-        <v>219</v>
-      </c>
-      <c r="R19" t="s" s="14">
+      <c r="A19" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s" s="12">
+        <v>131</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s" s="14">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s" s="15">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s" s="15">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s" s="15">
+        <v>149</v>
+      </c>
+      <c r="H19" t="s" s="15">
+        <v>150</v>
+      </c>
+      <c r="I19" t="s" s="15">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s" s="15">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s" s="15">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s" s="15">
+        <v>154</v>
+      </c>
+      <c r="M19" t="s" s="15">
+        <v>155</v>
+      </c>
+      <c r="N19" t="s" s="15">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s" s="15">
+        <v>107</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" t="s" s="15">
         <f>CONCATENATE(""",D19,""",", ",""",E19,""",", ",""",F19,""",", ",""",G19,""",", ",""",H19,""",", ",""",I19,""",", ",""",J19,""",", ",""",K19,""",", ",""",L19,""",", ",""",M19,""",", ",""",N19,""",", ",""",O19,""",", ",""",P19,""",", ")</f>
-        <v>220</v>
-      </c>
-      <c r="S19" t="s" s="14">
-        <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,P19)</f>
-        <v>221</v>
-      </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="S19" t="s" s="15">
+        <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19)</f>
+        <v>158</v>
+      </c>
+      <c r="T19" s="16"/>
+      <c r="U19" t="b" s="17">
+        <f>EXACT(S19,T19)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="16"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B20" t="s" s="17">
-        <v>222</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" t="s" s="13">
+      <c r="A20" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s" s="12">
+        <v>131</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s" s="14">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s" s="15">
         <v>160</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" t="s" s="14">
-        <v>223</v>
-      </c>
-      <c r="R20" t="s" s="14">
+      <c r="F20" t="s" s="15">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s" s="15">
+        <v>162</v>
+      </c>
+      <c r="H20" t="s" s="15">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s" s="15">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s" s="15">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s" s="15">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s" s="15">
+        <v>167</v>
+      </c>
+      <c r="M20" t="s" s="15">
+        <v>168</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" t="s" s="15">
         <f>CONCATENATE(""",D20,""",", ",""",E20,""",", ",""",F20,""",", ",""",G20,""",", ",""",H20,""",", ",""",I20,""",", ",""",J20,""",", ",""",K20,""",", ",""",L20,""",", ",""",M20,""",", ",""",N20,""",", ",""",O20,""",", ",""",P20,""",", ")</f>
-        <v>161</v>
-      </c>
-      <c r="S20" t="s" s="14">
-        <f>CONCATENATE(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,P20)</f>
-        <v>160</v>
-      </c>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+        <v>169</v>
+      </c>
+      <c r="S20" t="s" s="15">
+        <f>CONCATENATE(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20)</f>
+        <v>170</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" t="b" s="17">
+        <f>EXACT(S20,T20)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="16"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" t="s" s="14">
-        <v>224</v>
-      </c>
-      <c r="R21" t="s" s="14">
+      <c r="A21" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s" s="12">
+        <v>131</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" t="s" s="15">
         <f>CONCATENATE(""",D21,""",", ",""",E21,""",", ",""",F21,""",", ",""",G21,""",", ",""",H21,""",", ",""",I21,""",", ",""",J21,""",", ",""",K21,""",", ",""",L21,""",", ",""",M21,""",", ",""",N21,""",", ",""",O21,""",", ",""",P21,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S21" t="s" s="14">
-        <f>CONCATENATE(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,P21)</f>
-      </c>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+        <v>172</v>
+      </c>
+      <c r="S21" t="s" s="15">
+        <f>CONCATENATE(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21)</f>
+        <v>171</v>
+      </c>
+      <c r="T21" s="16"/>
+      <c r="U21" t="b" s="17">
+        <f>EXACT(S21,T21)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="16"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" t="s" s="14">
-        <v>226</v>
-      </c>
-      <c r="R22" t="s" s="14">
+      <c r="A22" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s" s="14">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s" s="15">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s" s="15">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s" s="15">
+        <v>113</v>
+      </c>
+      <c r="H22" t="s" s="15">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s" s="15">
+        <v>115</v>
+      </c>
+      <c r="J22" t="s" s="15">
+        <v>116</v>
+      </c>
+      <c r="K22" t="s" s="15">
+        <v>117</v>
+      </c>
+      <c r="L22" t="s" s="15">
+        <v>118</v>
+      </c>
+      <c r="M22" t="s" s="15">
+        <v>119</v>
+      </c>
+      <c r="N22" t="s" s="15">
+        <v>120</v>
+      </c>
+      <c r="O22" t="s" s="15">
+        <v>121</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" t="s" s="15">
         <f>CONCATENATE(""",D22,""",", ",""",E22,""",", ",""",F22,""",", ",""",G22,""",", ",""",H22,""",", ",""",I22,""",", ",""",J22,""",", ",""",K22,""",", ",""",L22,""",", ",""",M22,""",", ",""",N22,""",", ",""",O22,""",", ",""",P22,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S22" t="s" s="14">
-        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,P22)</f>
-      </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+        <v>122</v>
+      </c>
+      <c r="S22" t="s" s="15">
+        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22)</f>
+        <v>123</v>
+      </c>
+      <c r="T22" s="16"/>
+      <c r="U22" t="b" s="17">
+        <f>EXACT(S22,T22)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="16"/>
     </row>
     <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" t="s" s="14">
-        <v>227</v>
-      </c>
-      <c r="R23" t="s" s="14">
+      <c r="A23" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s" s="14">
+        <v>174</v>
+      </c>
+      <c r="E23" t="s" s="15">
+        <v>175</v>
+      </c>
+      <c r="F23" t="s" s="15">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s" s="15">
+        <v>177</v>
+      </c>
+      <c r="H23" t="s" s="15">
+        <v>178</v>
+      </c>
+      <c r="I23" t="s" s="15">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s" s="15">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s" s="15">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s" s="15">
+        <v>181</v>
+      </c>
+      <c r="M23" t="s" s="15">
+        <v>182</v>
+      </c>
+      <c r="N23" t="s" s="15">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s" s="15">
+        <v>124</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" t="s" s="15">
         <f>CONCATENATE(""",D23,""",", ",""",E23,""",", ",""",F23,""",", ",""",G23,""",", ",""",H23,""",", ",""",I23,""",", ",""",J23,""",", ",""",K23,""",", ",""",L23,""",", ",""",M23,""",", ",""",N23,""",", ",""",O23,""",", ",""",P23,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S23" t="s" s="14">
-        <f>CONCATENATE(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,P23)</f>
-      </c>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
+        <v>184</v>
+      </c>
+      <c r="S23" t="s" s="15">
+        <f>CONCATENATE(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23)</f>
+        <v>185</v>
+      </c>
+      <c r="T23" s="16"/>
+      <c r="U23" t="b" s="17">
+        <f>EXACT(S23,T23)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="16"/>
     </row>
     <row r="24" ht="18.3" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" t="s" s="14">
+      <c r="A24" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="C24" s="13">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s" s="14">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s" s="15">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s" s="15">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s" s="15">
+        <v>189</v>
+      </c>
+      <c r="H24" t="s" s="15">
+        <v>190</v>
+      </c>
+      <c r="I24" t="s" s="15">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s" s="15">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s" s="15">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s" s="15">
+        <v>194</v>
+      </c>
+      <c r="M24" t="s" s="15">
+        <v>195</v>
+      </c>
+      <c r="N24" t="s" s="15">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" t="s" s="15">
         <f>CONCATENATE(""",D24,""",", ",""",E24,""",", ",""",F24,""",", ",""",G24,""",", ",""",H24,""",", ",""",I24,""",", ",""",J24,""",", ",""",K24,""",", ",""",L24,""",", ",""",M24,""",", ",""",N24,""",", ",""",O24,""",", ",""",P24,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S24" t="s" s="14">
-        <f>CONCATENATE(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,P24)</f>
-      </c>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
+        <v>197</v>
+      </c>
+      <c r="S24" t="s" s="15">
+        <f>CONCATENATE(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24,P24)</f>
+        <v>198</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" t="b" s="17">
+        <f>EXACT(S24,T24)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="16"/>
     </row>
     <row r="25" ht="18.3" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" t="s" s="14">
+      <c r="A25" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="C25" s="13">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="E25" t="s" s="15">
+        <v>200</v>
+      </c>
+      <c r="F25" t="s" s="15">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="H25" t="s" s="15">
+        <v>203</v>
+      </c>
+      <c r="I25" t="s" s="15">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s" s="15">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s" s="15">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s" s="15">
+        <v>207</v>
+      </c>
+      <c r="M25" t="s" s="15">
+        <v>208</v>
+      </c>
+      <c r="N25" t="s" s="15">
+        <v>128</v>
+      </c>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" t="s" s="15">
         <f>CONCATENATE(""",D25,""",", ",""",E25,""",", ",""",F25,""",", ",""",G25,""",", ",""",H25,""",", ",""",I25,""",", ",""",J25,""",", ",""",K25,""",", ",""",L25,""",", ",""",M25,""",", ",""",N25,""",", ",""",O25,""",", ",""",P25,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S25" t="s" s="14">
-        <f>CONCATENATE(D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,P25)</f>
-      </c>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="S25" t="s" s="15">
+        <f>CONCATENATE(D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25)</f>
+        <v>210</v>
+      </c>
+      <c r="T25" s="16"/>
+      <c r="U25" t="b" s="17">
+        <f>EXACT(S25,T25)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="16"/>
     </row>
     <row r="26" ht="18.3" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" t="s" s="14">
+      <c r="A26" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="12">
+        <v>212</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s" s="14">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s" s="15">
+        <v>214</v>
+      </c>
+      <c r="F26" t="s" s="15">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s" s="15">
+        <v>216</v>
+      </c>
+      <c r="H26" t="s" s="15">
+        <v>217</v>
+      </c>
+      <c r="I26" t="s" s="15">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s" s="15">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s" s="15">
+        <v>221</v>
+      </c>
+      <c r="M26" t="s" s="15">
+        <v>222</v>
+      </c>
+      <c r="N26" t="s" s="15">
+        <v>85</v>
+      </c>
+      <c r="O26" t="s" s="15">
+        <v>223</v>
+      </c>
+      <c r="P26" t="s" s="15">
+        <v>224</v>
+      </c>
+      <c r="Q26" t="s" s="15">
+        <v>225</v>
+      </c>
+      <c r="R26" t="s" s="15">
         <f>CONCATENATE(""",D26,""",", ",""",E26,""",", ",""",F26,""",", ",""",G26,""",", ",""",H26,""",", ",""",I26,""",", ",""",J26,""",", ",""",K26,""",", ",""",L26,""",", ",""",M26,""",", ",""",N26,""",", ",""",O26,""",", ",""",P26,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S26" t="s" s="14">
-        <f>CONCATENATE(D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,P26)</f>
-      </c>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
+        <v>226</v>
+      </c>
+      <c r="S26" t="s" s="15">
+        <f>CONCATENATE(D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26,P26)</f>
+        <v>227</v>
+      </c>
+      <c r="T26" s="16"/>
+      <c r="U26" t="b" s="17">
+        <f>EXACT(S26,T26)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="16"/>
     </row>
     <row r="27" ht="18.3" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" t="s" s="14">
+      <c r="A27" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B27" t="s" s="12">
+        <v>212</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="14">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s" s="15">
+        <v>229</v>
+      </c>
+      <c r="F27" t="s" s="15">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s" s="15">
+        <v>231</v>
+      </c>
+      <c r="H27" t="s" s="15">
+        <v>232</v>
+      </c>
+      <c r="I27" t="s" s="15">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s" s="15">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s" s="15">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s" s="15">
+        <v>236</v>
+      </c>
+      <c r="M27" t="s" s="15">
+        <v>237</v>
+      </c>
+      <c r="N27" t="s" s="15">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s" s="15">
+        <v>239</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" t="s" s="15">
         <f>CONCATENATE(""",D27,""",", ",""",E27,""",", ",""",F27,""",", ",""",G27,""",", ",""",H27,""",", ",""",I27,""",", ",""",J27,""",", ",""",K27,""",", ",""",L27,""",", ",""",M27,""",", ",""",N27,""",", ",""",O27,""",", ",""",P27,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S27" t="s" s="14">
-        <f>CONCATENATE(D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,P27)</f>
-      </c>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="S27" t="s" s="15">
+        <f>CONCATENATE(D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27,P27)</f>
+        <v>241</v>
+      </c>
+      <c r="T27" s="16"/>
+      <c r="U27" t="b" s="17">
+        <f>EXACT(S27,T27)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="16"/>
     </row>
     <row r="28" ht="18.3" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" t="s" s="14">
+      <c r="A28" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s" s="12">
+        <v>212</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s" s="14">
+        <v>242</v>
+      </c>
+      <c r="E28" t="s" s="15">
+        <v>243</v>
+      </c>
+      <c r="F28" t="s" s="15">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s" s="15">
+        <v>245</v>
+      </c>
+      <c r="H28" t="s" s="15">
+        <v>246</v>
+      </c>
+      <c r="I28" t="s" s="15">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s" s="15">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s" s="15">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s" s="15">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s" s="15">
+        <v>251</v>
+      </c>
+      <c r="N28" t="s" s="15">
+        <v>252</v>
+      </c>
+      <c r="O28" t="s" s="15">
+        <v>253</v>
+      </c>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" t="s" s="15">
         <f>CONCATENATE(""",D28,""",", ",""",E28,""",", ",""",F28,""",", ",""",G28,""",", ",""",H28,""",", ",""",I28,""",", ",""",J28,""",", ",""",K28,""",", ",""",L28,""",", ",""",M28,""",", ",""",N28,""",", ",""",O28,""",", ",""",P28,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S28" t="s" s="14">
-        <f>CONCATENATE(D28,E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,P28)</f>
-      </c>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
+        <v>254</v>
+      </c>
+      <c r="S28" t="s" s="15">
+        <f>CONCATENATE(D28,E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28,P28)</f>
+        <v>255</v>
+      </c>
+      <c r="T28" s="16"/>
+      <c r="U28" t="b" s="17">
+        <f>EXACT(S28,T28)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="16"/>
     </row>
     <row r="29" ht="18.3" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" t="s" s="14">
+      <c r="A29" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B29" t="s" s="12">
+        <v>212</v>
+      </c>
+      <c r="C29" s="13">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s" s="14">
+        <v>256</v>
+      </c>
+      <c r="E29" t="s" s="15">
+        <v>257</v>
+      </c>
+      <c r="F29" t="s" s="15">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s" s="15">
+        <v>259</v>
+      </c>
+      <c r="H29" t="s" s="15">
+        <v>260</v>
+      </c>
+      <c r="I29" t="s" s="15">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s" s="15">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s" s="15">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s" s="15">
+        <v>264</v>
+      </c>
+      <c r="M29" t="s" s="15">
+        <v>265</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" t="s" s="15">
         <f>CONCATENATE(""",D29,""",", ",""",E29,""",", ",""",F29,""",", ",""",G29,""",", ",""",H29,""",", ",""",I29,""",", ",""",J29,""",", ",""",K29,""",", ",""",L29,""",", ",""",M29,""",", ",""",N29,""",", ",""",O29,""",", ",""",P29,""",", ")</f>
-        <v>225</v>
-      </c>
-      <c r="S29" t="s" s="14">
-        <f>CONCATENATE(D29,E29,F29,G29,H29,I29,J29,K29,L29,M29,N29,P29)</f>
-      </c>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="S29" t="s" s="15">
+        <f>CONCATENATE(D29,E29,F29,G29,H29,I29,J29,K29,L29,M29,N29,O29,P29)</f>
+        <v>267</v>
+      </c>
+      <c r="T29" s="16"/>
+      <c r="U29" t="b" s="17">
+        <f>EXACT(S29,T29)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="16"/>
     </row>
     <row r="30" ht="18.3" customHeight="1">
-      <c r="A30" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="A30" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B30" t="s" s="12">
+        <v>268</v>
+      </c>
+      <c r="C30" s="13">
         <v>1</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="T30" t="b" s="19">
-        <f>EXACT(S3,S30)</f>
-        <v>1</v>
-      </c>
-      <c r="U30" s="15"/>
+      <c r="D30" t="s" s="14">
+        <v>269</v>
+      </c>
+      <c r="E30" t="s" s="15">
+        <v>270</v>
+      </c>
+      <c r="F30" t="s" s="15">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s" s="15">
+        <v>272</v>
+      </c>
+      <c r="H30" t="s" s="15">
+        <v>273</v>
+      </c>
+      <c r="I30" t="s" s="15">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s" s="15">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s" s="15">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s" s="15">
+        <v>277</v>
+      </c>
+      <c r="M30" t="s" s="15">
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="15">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s" s="15">
+        <v>280</v>
+      </c>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" t="s" s="15">
+        <f>CONCATENATE(""",D30,""",", ",""",E30,""",", ",""",F30,""",", ",""",G30,""",", ",""",H30,""",", ",""",I30,""",", ",""",J30,""",", ",""",K30,""",", ",""",L30,""",", ",""",M30,""",", ",""",N30,""",", ",""",O30,""",", ",""",P30,""",", ")</f>
+        <v>281</v>
+      </c>
+      <c r="S30" t="s" s="15">
+        <f>CONCATENATE(D30,E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30,P30)</f>
+        <v>282</v>
+      </c>
+      <c r="T30" s="16"/>
+      <c r="U30" t="b" s="17">
+        <f>EXACT(S30,T30)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="16"/>
     </row>
     <row r="31" ht="18.3" customHeight="1">
-      <c r="A31" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="A31" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B31" t="s" s="12">
+        <v>268</v>
+      </c>
+      <c r="C31" s="13">
         <v>2</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="T31" t="b" s="19">
-        <f>EXACT(S4,S31)</f>
-        <v>1</v>
-      </c>
-      <c r="U31" s="15"/>
+      <c r="D31" t="s" s="14">
+        <v>283</v>
+      </c>
+      <c r="E31" t="s" s="15">
+        <v>284</v>
+      </c>
+      <c r="F31" t="s" s="15">
+        <v>285</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" t="s" s="15">
+        <v>286</v>
+      </c>
+      <c r="I31" t="s" s="15">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s" s="15">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s" s="15">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s" s="15">
+        <v>290</v>
+      </c>
+      <c r="M31" t="s" s="15">
+        <v>291</v>
+      </c>
+      <c r="N31" t="s" s="15">
+        <v>292</v>
+      </c>
+      <c r="O31" t="s" s="15">
+        <v>293</v>
+      </c>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" t="s" s="15">
+        <f>CONCATENATE(""",D31,""",", ",""",E31,""",", ",""",F31,""",", ",""",G31,""",", ",""",H31,""",", ",""",I31,""",", ",""",J31,""",", ",""",K31,""",", ",""",L31,""",", ",""",M31,""",", ",""",N31,""",", ",""",O31,""",", ",""",P31,""",", ")</f>
+        <v>294</v>
+      </c>
+      <c r="S31" t="s" s="15">
+        <f>CONCATENATE(D31,E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31,P31)</f>
+        <v>295</v>
+      </c>
+      <c r="T31" s="16"/>
+      <c r="U31" t="b" s="17">
+        <f>EXACT(S31,T31)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="16"/>
     </row>
     <row r="32" ht="18.3" customHeight="1">
-      <c r="A32" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C32" s="12">
+      <c r="A32" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B32" t="s" s="12">
+        <v>268</v>
+      </c>
+      <c r="C32" s="13">
         <v>3</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="T32" t="b" s="19">
-        <f>EXACT(S5,S32)</f>
-        <v>1</v>
-      </c>
-      <c r="U32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" t="s" s="15">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s" s="15">
+        <v>297</v>
+      </c>
+      <c r="H32" t="s" s="15">
+        <v>298</v>
+      </c>
+      <c r="I32" t="s" s="15">
+        <v>299</v>
+      </c>
+      <c r="J32" t="s" s="15">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s" s="15">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s" s="15">
+        <v>302</v>
+      </c>
+      <c r="M32" t="s" s="15">
+        <v>303</v>
+      </c>
+      <c r="N32" t="s" s="15">
+        <v>304</v>
+      </c>
+      <c r="O32" t="s" s="15">
+        <v>305</v>
+      </c>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" t="s" s="15">
+        <f>CONCATENATE(""",D32,""",", ",""",E32,""",", ",""",F32,""",", ",""",G32,""",", ",""",H32,""",", ",""",I32,""",", ",""",J32,""",", ",""",K32,""",", ",""",L32,""",", ",""",M32,""",", ",""",N32,""",", ",""",O32,""",", ",""",P32,""",", ")</f>
+        <v>306</v>
+      </c>
+      <c r="S32" t="s" s="15">
+        <f>CONCATENATE(D32,E32,F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32)</f>
+        <v>307</v>
+      </c>
+      <c r="T32" s="16"/>
+      <c r="U32" t="b" s="17">
+        <f>EXACT(S32,T32)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="16"/>
     </row>
     <row r="33" ht="18.3" customHeight="1">
-      <c r="A33" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" t="s" s="14">
-        <v>62</v>
-      </c>
-      <c r="T33" t="b" s="19">
-        <f>EXACT(S6,S33)</f>
-        <v>1</v>
-      </c>
-      <c r="U33" s="15"/>
+      <c r="A33" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s" s="12">
+        <v>268</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" t="s" s="15">
+        <v>308</v>
+      </c>
+      <c r="H33" t="s" s="15">
+        <v>309</v>
+      </c>
+      <c r="I33" t="s" s="15">
+        <v>310</v>
+      </c>
+      <c r="J33" t="s" s="15">
+        <v>311</v>
+      </c>
+      <c r="K33" t="s" s="15">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s" s="15">
+        <v>313</v>
+      </c>
+      <c r="M33" t="s" s="15">
+        <v>314</v>
+      </c>
+      <c r="N33" t="s" s="15">
+        <v>315</v>
+      </c>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" t="s" s="15">
+        <f>CONCATENATE(""",D33,""",", ",""",E33,""",", ",""",F33,""",", ",""",G33,""",", ",""",H33,""",", ",""",I33,""",", ",""",J33,""",", ",""",K33,""",", ",""",L33,""",", ",""",M33,""",", ",""",N33,""",", ",""",O33,""",", ",""",P33,""",", ")</f>
+        <v>316</v>
+      </c>
+      <c r="S33" t="s" s="15">
+        <f>CONCATENATE(D33,E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33)</f>
+        <v>317</v>
+      </c>
+      <c r="T33" s="16"/>
+      <c r="U33" t="b" s="17">
+        <f>EXACT(S33,T33)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="16"/>
     </row>
     <row r="34" ht="18.3" customHeight="1">
-      <c r="A34" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="C34" s="12">
-        <v>2</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" t="s" s="14">
-        <v>75</v>
-      </c>
-      <c r="T34" t="b" s="19">
-        <f>EXACT(S7,S34)</f>
+      <c r="A34" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" t="s" s="15">
+        <v>319</v>
+      </c>
+      <c r="R34" t="s" s="15">
+        <f>CONCATENATE(""",D34,""",", ",""",E34,""",", ",""",F34,""",", ",""",G34,""",", ",""",H34,""",", ",""",I34,""",", ",""",J34,""",", ",""",K34,""",", ",""",L34,""",", ",""",M34,""",", ",""",N34,""",", ",""",O34,""",", ",""",P34,""",", ")</f>
+        <v>109</v>
+      </c>
+      <c r="S34" t="s" s="15">
+        <f>CONCATENATE(D34,E34,F34,G34,H34,I34,J34,K34,L34,M34,N34,O34,P34)</f>
+      </c>
+      <c r="T34" s="16"/>
+      <c r="U34" t="b" s="17">
+        <f>EXACT(S34,T34)</f>
         <v>1</v>
       </c>
-      <c r="U34" s="15"/>
+      <c r="V34" s="16"/>
     </row>
     <row r="35" ht="18.3" customHeight="1">
-      <c r="A35" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="C35" s="12">
-        <v>3</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" t="s" s="14">
-        <v>86</v>
-      </c>
-      <c r="T35" t="b" s="19">
-        <f>EXACT(S8,S35)</f>
+      <c r="A35" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" t="s" s="15">
+        <v>320</v>
+      </c>
+      <c r="R35" t="s" s="15">
+        <f>CONCATENATE(""",D35,""",", ",""",E35,""",", ",""",F35,""",", ",""",G35,""",", ",""",H35,""",", ",""",I35,""",", ",""",J35,""",", ",""",K35,""",", ",""",L35,""",", ",""",M35,""",", ",""",N35,""",", ",""",O35,""",", ",""",P35,""",", ")</f>
+        <v>109</v>
+      </c>
+      <c r="S35" t="s" s="15">
+        <f>CONCATENATE(D35,E35,F35,G35,H35,I35,J35,K35,L35,M35,N35,O35,P35)</f>
+      </c>
+      <c r="T35" s="16"/>
+      <c r="U35" t="b" s="17">
+        <f>EXACT(S35,T35)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="15"/>
+      <c r="V35" s="16"/>
     </row>
     <row r="36" ht="18.3" customHeight="1">
-      <c r="A36" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="B36" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="19">
-        <v>1234567890</v>
-      </c>
-      <c r="T36" t="b" s="19">
-        <f>EXACT(S9,S36)</f>
+      <c r="A36" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" t="s" s="15">
+        <v>321</v>
+      </c>
+      <c r="R36" t="s" s="15">
+        <f>CONCATENATE(""",D36,""",", ",""",E36,""",", ",""",F36,""",", ",""",G36,""",", ",""",H36,""",", ",""",I36,""",", ",""",J36,""",", ",""",K36,""",", ",""",L36,""",", ",""",M36,""",", ",""",N36,""",", ",""",O36,""",", ",""",P36,""",", ")</f>
+        <v>109</v>
+      </c>
+      <c r="S36" t="s" s="15">
+        <f>CONCATENATE(D36,E36,F36,G36,H36,I36,J36,K36,L36,M36,N36,O36,P36)</f>
+      </c>
+      <c r="T36" s="16"/>
+      <c r="U36" t="b" s="17">
+        <f>EXACT(S36,T36)</f>
         <v>1</v>
       </c>
-      <c r="U36" s="15"/>
+      <c r="V36" s="16"/>
     </row>
     <row r="37" ht="18.3" customHeight="1">
-      <c r="A37" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="A37" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" t="s" s="15">
+        <v>322</v>
+      </c>
+      <c r="R37" t="s" s="15">
+        <f>CONCATENATE(""",D37,""",", ",""",E37,""",", ",""",F37,""",", ",""",G37,""",", ",""",H37,""",", ",""",I37,""",", ",""",J37,""",", ",""",K37,""",", ",""",L37,""",", ",""",M37,""",", ",""",N37,""",", ",""",O37,""",", ",""",P37,""",", ")</f>
+        <v>109</v>
+      </c>
+      <c r="S37" t="s" s="15">
+        <f>CONCATENATE(D37,E37,F37,G37,H37,I37,J37,K37,L37,M37,N37,O37,P37)</f>
+      </c>
+      <c r="T37" s="16"/>
+      <c r="U37" t="b" s="17">
+        <f>EXACT(S37,T37)</f>
         <v>1</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" t="b" s="19">
-        <f>EXACT(S10,S37)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="15"/>
+      <c r="V37" s="16"/>
     </row>
     <row r="38" ht="18.3" customHeight="1">
-      <c r="A38" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B38" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C38" s="12">
-        <v>2</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" t="b" s="19">
-        <f>EXACT(S11,S38)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="15"/>
+      <c r="A38" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" t="s" s="15">
+        <v>323</v>
+      </c>
+      <c r="R38" t="s" s="15">
+        <f>CONCATENATE(""",D38,""",", ",""",E38,""",", ",""",F38,""",", ",""",G38,""",", ",""",H38,""",", ",""",I38,""",", ",""",J38,""",", ",""",K38,""",", ",""",L38,""",", ",""",M38,""",", ",""",N38,""",", ",""",O38,""",", ",""",P38,""",", ")</f>
+        <v>109</v>
+      </c>
+      <c r="S38" t="s" s="15">
+        <f>CONCATENATE(D38,E38,F38,G38,H38,I38,J38,K38,L38,M38,N38,O38,P38)</f>
+      </c>
+      <c r="T38" s="16"/>
+      <c r="U38" t="b" s="17">
+        <f>EXACT(S38,T38)</f>
+        <v>1</v>
+      </c>
+      <c r="V38" s="16"/>
     </row>
     <row r="39" ht="18.3" customHeight="1">
-      <c r="A39" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B39" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C39" s="12">
-        <v>3</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" t="b" s="19">
-        <f>EXACT(S12,S39)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="15"/>
+      <c r="A39" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" t="s" s="15">
+        <v>324</v>
+      </c>
+      <c r="R39" t="s" s="15">
+        <f>CONCATENATE(""",D39,""",", ",""",E39,""",", ",""",F39,""",", ",""",G39,""",", ",""",H39,""",", ",""",I39,""",", ",""",J39,""",", ",""",K39,""",", ",""",L39,""",", ",""",M39,""",", ",""",N39,""",", ",""",O39,""",", ",""",P39,""",", ")</f>
+        <v>109</v>
+      </c>
+      <c r="S39" t="s" s="15">
+        <f>CONCATENATE(D39,E39,F39,G39,H39,I39,J39,K39,L39,M39,N39,O39,P39)</f>
+      </c>
+      <c r="T39" s="16"/>
+      <c r="U39" t="b" s="17">
+        <f>EXACT(S39,T39)</f>
+        <v>1</v>
+      </c>
+      <c r="V39" s="16"/>
     </row>
     <row r="40" ht="18.3" customHeight="1">
-      <c r="A40" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B40" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C40" s="12">
-        <v>4</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" t="b" s="19">
-        <f>EXACT(S13,S40)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="15"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" t="s" s="15">
+        <f>CONCATENATE(""",D40,""",", ",""",E40,""",", ",""",F40,""",", ",""",G40,""",", ",""",H40,""",", ",""",I40,""",", ",""",J40,""",", ",""",K40,""",", ",""",L40,""",", ",""",M40,""",", ",""",N40,""",", ",""",O40,""",", ",""",P40,""",", ")</f>
+        <v>109</v>
+      </c>
+      <c r="S40" t="s" s="15">
+        <f>CONCATENATE(D40,E40,F40,G40,H40,I40,J40,K40,L40,M40,N40,O40,P40)</f>
+      </c>
+      <c r="T40" s="16"/>
+      <c r="U40" t="b" s="17">
+        <f>EXACT(S40,T40)</f>
+        <v>1</v>
+      </c>
+      <c r="V40" s="16"/>
     </row>
     <row r="41" ht="18.3" customHeight="1">
-      <c r="A41" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B41" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="C41" s="12">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" t="s" s="15">
+        <f>CONCATENATE(""",D41,""",", ",""",E41,""",", ",""",F41,""",", ",""",G41,""",", ",""",H41,""",", ",""",I41,""",", ",""",J41,""",", ",""",K41,""",", ",""",L41,""",", ",""",M41,""",", ",""",N41,""",", ",""",O41,""",", ",""",P41,""",", ")</f>
+        <v>109</v>
+      </c>
+      <c r="S41" t="s" s="15">
+        <f>CONCATENATE(D41,E41,F41,G41,H41,I41,J41,K41,L41,M41,N41,O41,P41)</f>
+      </c>
+      <c r="T41" s="16"/>
+      <c r="U41" t="b" s="17">
+        <f>EXACT(S41,T41)</f>
         <v>1</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" t="b" s="19">
-        <f>EXACT(S14,S41)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="15"/>
-    </row>
-    <row r="42" ht="18.3" customHeight="1">
-      <c r="A42" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" t="b" s="19">
-        <f>EXACT(S15,S42)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="15"/>
-    </row>
-    <row r="43" ht="18.3" customHeight="1">
-      <c r="A43" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B43" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="C43" s="12">
-        <v>3</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" t="b" s="19">
-        <f>EXACT(S16,S43)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="15"/>
-    </row>
-    <row r="44" ht="18.3" customHeight="1">
-      <c r="A44" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B44" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="C44" s="12">
-        <v>4</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" t="b" s="19">
-        <f>EXACT(S17,S44)</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="15"/>
-    </row>
-    <row r="45" ht="18.3" customHeight="1">
-      <c r="A45" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B45" t="s" s="11">
-        <v>216</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" t="s" s="13">
-        <v>217</v>
-      </c>
-      <c r="E45" t="s" s="14">
-        <v>218</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" t="s" s="14">
-        <v>219</v>
-      </c>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" t="b" s="19">
-        <f>EXACT(S18,S45)</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="15"/>
-    </row>
-    <row r="46" ht="18.3" customHeight="1">
-      <c r="A46" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B46" t="s" s="17">
-        <v>222</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" t="s" s="13">
-        <v>160</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" t="s" s="14">
-        <v>223</v>
-      </c>
-      <c r="R46" s="15"/>
-      <c r="S46" t="s" s="14">
-        <f>CONCATENATE(D46,E46,F46,G46,H46,I46,J46,K46,L46,M46,N46,P46)</f>
-        <v>160</v>
-      </c>
-      <c r="T46" t="b" s="19">
-        <f>EXACT(S19,S46)</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="15"/>
-    </row>
-    <row r="47" ht="18.3" customHeight="1">
-      <c r="A47" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" t="s" s="14">
-        <v>224</v>
-      </c>
-      <c r="R47" s="15"/>
-      <c r="S47" t="s" s="14">
-        <f>CONCATENATE(D47,E47,F47,G47,H47,I47,J47,K47,L47,M47,N47,P47)</f>
-      </c>
-      <c r="T47" t="b" s="19">
-        <f>EXACT(S20,S47)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="15"/>
-    </row>
-    <row r="48" ht="18.3" customHeight="1">
-      <c r="A48" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" t="s" s="14">
-        <v>226</v>
-      </c>
-      <c r="R48" s="15"/>
-      <c r="S48" t="s" s="14">
-        <f>CONCATENATE(D48,E48,F48,G48,H48,I48,J48,K48,L48,M48,N48,P48)</f>
-      </c>
-      <c r="T48" t="b" s="19">
-        <f>EXACT(S21,S48)</f>
-        <v>1</v>
-      </c>
-      <c r="U48" s="15"/>
-    </row>
-    <row r="49" ht="18.3" customHeight="1">
-      <c r="A49" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" t="s" s="14">
-        <v>227</v>
-      </c>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" t="b" s="19">
-        <f>EXACT(S22,S49)</f>
-        <v>1</v>
-      </c>
-      <c r="U49" s="15"/>
-    </row>
-    <row r="50" ht="18.3" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" t="b" s="19">
-        <f>EXACT(S23,S50)</f>
-        <v>1</v>
-      </c>
-      <c r="U50" s="15"/>
+      <c r="V41" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:U1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:V1"/>
     <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q10:Q18"/>
+    <mergeCell ref="Q17:Q25"/>
     <mergeCell ref="Q3:Q8"/>
+    <mergeCell ref="Q9:Q16"/>
+    <mergeCell ref="Q26:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/Karabiner/新JIS配列.xlsx
+++ b/Karabiner/新JIS配列.xlsx
@@ -5,17 +5,37 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="JIS - 新JIS配列用Complex Modificati" sheetId="1" r:id="rId4"/>
+    <sheet name="書き出しの概要" sheetId="1" r:id="rId4"/>
+    <sheet name="JIS - 新JIS配列用Complex Modificati" sheetId="2" r:id="rId5"/>
+    <sheet name="ANSI - 新JIS配列用Complex Modificat" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
+  <si>
+    <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
+  </si>
+  <si>
+    <t>Numbersシート名</t>
+  </si>
+  <si>
+    <t>Numbers表名</t>
+  </si>
+  <si>
+    <t>Excelワークシート名</t>
+  </si>
+  <si>
+    <t>JIS</t>
+  </si>
   <si>
     <t>新JIS配列用Complex Modifications（for JIS keyboard）の仕様（と検査結果）</t>
   </si>
   <si>
+    <t>JIS - 新JIS配列用Complex Modificati</t>
+  </si>
+  <si>
     <t>Modifiers</t>
   </si>
   <si>
@@ -34,7 +54,7 @@
     <t>文字（検査用）</t>
   </si>
   <si>
-    <t>検査</t>
+    <t>実打（検査）</t>
   </si>
   <si>
     <t xml:space="preserve">一致? </t>
@@ -278,7 +298,7 @@
     <t>ぅぇぉねゃむろ・ー</t>
   </si>
   <si>
-    <t>非かなキー</t>
+    <t>数字キー</t>
   </si>
   <si>
     <t>1</t>
@@ -311,6 +331,21 @@
     <t>0</t>
   </si>
   <si>
+    <t>数字キーは半角で打つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1", "2", "3", "4", "5", "6", "7", "8", "9", "0", "", "", "", </t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>半角</t>
+  </si>
+  <si>
+    <t>Sft-</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -318,99 +353,6 @@
   </si>
   <si>
     <t>¥</t>
-  </si>
-  <si>
-    <t>非かなキーは半角
-ただし、
-・spacebar(親指シフト)-0は打たない
-・spacebar(親指シフト)なしのinternational1で_(アンダーバー、バックスラッシュ、円記号)は打たない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1", "2", "3", "4", "5", "6", "7", "8", "9", "0", "-", "^", "¥", </t>
-  </si>
-  <si>
-    <t>1234567890-^¥</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"[", "", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"]", "", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"", "", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>‘</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"!", "“", "#", "$", "%", "&amp;", "‘", "(", ")", "=", "~", "|", "", </t>
-  </si>
-  <si>
-    <t>!“#$%&amp;‘()=~|</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"{", "", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"}", "", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"_", "", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t>半角</t>
-  </si>
-  <si>
-    <t>Sft-</t>
   </si>
   <si>
     <t>JISキーボードのキートップに書かれている文字を半角で入力する
@@ -419,6 +361,12 @@
 ・spacebar(親指シフト)なしのinternational1で_(アンダーバー、バックスラッシュ、円記号)は打たない</t>
   </si>
   <si>
+    <t xml:space="preserve">"1", "2", "3", "4", "5", "6", "7", "8", "9", "0", "-", "^", "¥", </t>
+  </si>
+  <si>
+    <t>1234567890-^¥</t>
+  </si>
+  <si>
     <t>q</t>
   </si>
   <si>
@@ -452,6 +400,9 @@
     <t>@</t>
   </si>
   <si>
+    <t>[</t>
+  </si>
+  <si>
     <t xml:space="preserve">"q", "w", "e", "r", "t", "y", "u", "I", "o", "p", "@", "[", "", </t>
   </si>
   <si>
@@ -491,6 +442,9 @@
     <t>:</t>
   </si>
   <si>
+    <t>]</t>
+  </si>
+  <si>
     <t xml:space="preserve">"a", "s", "d", "f", "g", "h", "j", "k", "l", ";", ":", "]", "", </t>
   </si>
   <si>
@@ -542,6 +496,48 @@
     <t>Sft-Spc-</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>“</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"!", "“", "#", "$", "%", "&amp;", "‘", "(", ")", "=", "~", "|", "", </t>
+  </si>
+  <si>
+    <t>!“#$%&amp;‘()=~|</t>
+  </si>
+  <si>
     <t>Q</t>
   </si>
   <si>
@@ -572,6 +568,9 @@
     <t>`</t>
   </si>
   <si>
+    <t>{</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Q", "W", "E", "R", "T", "Y", "U", "I", "O", "P", "`", "{", "", </t>
   </si>
   <si>
@@ -611,6 +610,9 @@
     <t>*</t>
   </si>
   <si>
+    <t>}</t>
+  </si>
+  <si>
     <t xml:space="preserve">"A", "S", "D", "F", "G", "H", "J", "K", "L", "+", "*", "}", "", </t>
   </si>
   <si>
@@ -645,6 +647,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t xml:space="preserve">"Z", "X", "C", "V", "B", "N", "M", "&lt;", "&gt;", "?", "_", "", "", </t>
@@ -981,7 +986,10 @@
     <t>その他</t>
   </si>
   <si>
-    <t>VirtualKeyboardの変更</t>
+    <t>VirtualKeyboardの変更、設定(1,2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"", "", "", "", "", "", "", "", "", "", "", "", "", </t>
   </si>
   <si>
     <t>Sft-"delete_or_backspace"</t>
@@ -997,6 +1005,120 @@
   </si>
   <si>
     <t>全角ACRSXZは辞書に登録して変換するしかない</t>
+  </si>
+  <si>
+    <t>ANSI</t>
+  </si>
+  <si>
+    <t>ANSI - 新JIS配列用Complex Modificat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSIキーボードのキートップに書かれている文字を半角で入力する
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"`", "1", "2", "3", "4", "5", "6", "7", "8", "9", "0", "-", "=", </t>
+  </si>
+  <si>
+    <t>`1234567890-=</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"q", "w", "e", "r", "t", "y", "u", "i", "o", "p", "[", "]", "\", </t>
+  </si>
+  <si>
+    <t>qwertyuiop[]\</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"a", "s", "d", "f", "g", "h", "j", "k", "l", ";", "'", "", "", </t>
+  </si>
+  <si>
+    <t>asdfghjkl;'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"~", "!", "@", "#", "$", "%", "^", "&amp;", "*", "(", ")", "_", "+", </t>
+  </si>
+  <si>
+    <t>~!@#$%^&amp;*()_+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Q", "W", "E", "R", "T", "Y", "U", "I", "O", "P", "{", "}", "|", </t>
+  </si>
+  <si>
+    <t>QWERTYUIOP{}|</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"A", "S", "D", "F", "G", "H", "J", "K", "L", ":", """, "", "", </t>
+  </si>
+  <si>
+    <t>ASDFGHJKL:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Z", "X", "C", "V", "B", "N", "M", "&lt;", "&gt;", "?", "", "", "", </t>
+  </si>
+  <si>
+    <t>ZXCVBNM&lt;&gt;?</t>
+  </si>
+  <si>
+    <t>ANSIキーボードのキートップに書かれている文字を全角で入力する
+ただし、
+・全角ACRSXZ＝＋［｛が打てない原因は不明。諦める。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"｀", "１", "２", "３", "４", "５", "６", "７", "８", "９", "０", "ー", "", </t>
+  </si>
+  <si>
+    <t>｀１２３４５６７８９０ー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ｑ", "ｗ", "ｅ", "ｒ", "ｔ", "ｙ", "ｕ", "ｉ", "ｏ", "ｐ", "", "］", "￥", </t>
+  </si>
+  <si>
+    <t>ｑｗｅｒｔｙｕｉｏｐ］￥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ａ", "ｓ", "ｄ", "ｆ", "ｇ", "ｈ", "ｊ", "ｋ", "ｌ", "；", "’", "", "", </t>
+  </si>
+  <si>
+    <t>ａｓｄｆｇｈｊｋｌ；’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"〜", "！", "＠", "＃", "＄", "％", "＾", "＆", "＊", "（", "）", "＿", "", </t>
+  </si>
+  <si>
+    <t>〜！＠＃＄％＾＆＊（）＿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ｑ", "Ｗ", "Ｅ", "", "Ｔ", "Ｙ", "Ｕ", "Ｉ", "Ｏ", "Ｐ", "", "｝", "｜", </t>
+  </si>
+  <si>
+    <t>ＱＷＥＴＹＵＩＯＰ｝｜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"", "", "Ｄ", "Ｆ", "Ｇ", "Ｈ", "Ｊ", "Ｋ", "Ｌ", "：", "”", "", "", </t>
+  </si>
+  <si>
+    <t>ＤＦＧＨＪＫＬ：”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"", "", "", "Ｖ", "Ｂ", "Ｎ", "Ｍ", "＜", "＞", "？", "", "", "", </t>
+  </si>
+  <si>
+    <t>ＶＢＮＭ＜＞？</t>
+  </si>
+  <si>
+    <t>テストしない</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1015,6 +1137,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
@@ -1027,8 +1160,13 @@
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,7 +1181,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1058,106 +1214,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,9 +1323,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1177,19 +1348,19 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1204,10 +1375,10 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1222,10 +1393,19 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1425,15 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffed220b"/>
+      <rgbColor rgb="fffefffe"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1430,6 +1615,629 @@
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
             <a:t>キー配列イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>470053</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="wikipediaの「新JIS配列」">
+          <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="470053" y="68083"/>
+          <a:ext cx="2096588" cy="284798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>wikipediaの「新JIS配列」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176009</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105871</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="キー配列イメージ">
+          <a:hlinkClick r:id="rId2" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2703309" y="68083"/>
+          <a:ext cx="1618963" cy="284798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>キー配列イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3756974</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812653</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>284797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="JIS配列">
+          <a:hlinkClick r:id="rId3" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11707174" y="-55742"/>
+          <a:ext cx="954580" cy="284798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>JIS配列</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1118840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>709210</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>284797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="JIS配列shift面">
+          <a:hlinkClick r:id="rId4" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12967940" y="-55742"/>
+          <a:ext cx="1368371" cy="284798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>JIS配列shift面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1190868</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1171421</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="numbers上で…"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14817968" y="2254158"/>
+          <a:ext cx="2152254" cy="1192590"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="9273" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="8915" y="0"/>
+                <a:pt x="8625" y="592"/>
+                <a:pt x="8625" y="1323"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="8625" y="6671"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="9316"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="8625" y="11961"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="8625" y="20277"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="8625" y="21008"/>
+                <a:pt x="8915" y="21600"/>
+                <a:pt x="9273" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="20951" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21310" y="21600"/>
+                <a:pt x="21600" y="21008"/>
+                <a:pt x="21600" y="20277"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="1323"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="592"/>
+                <a:pt x="21310" y="0"/>
+                <a:pt x="20951" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="9273" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>numbers上で</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>入力すると</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「’」が化ける</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2492,7 +3300,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:V41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>328</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'JIS - 新JIS配列用Complex Modificati'!R2C1" tooltip="" display="JIS - 新JIS配列用Complex Modificati"/>
+    <hyperlink ref="D12" location="'ANSI - 新JIS配列用Complex Modificat'!R2C1" tooltip="" display="ANSI - 新JIS配列用Complex Modificat"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="D3" xSplit="3" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2500,2141 +3380,3642 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.8125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.25781" style="1" customWidth="1"/>
-    <col min="5" max="16" width="3.8125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="52" style="1" customWidth="1"/>
-    <col min="18" max="18" width="61.4297" style="1" customWidth="1"/>
-    <col min="19" max="19" width="28.0781" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.4375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="7.60156" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.8125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.25781" style="6" customWidth="1"/>
+    <col min="5" max="16" width="3.8125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="52" style="6" customWidth="1"/>
+    <col min="18" max="18" width="61.4297" style="6" customWidth="1"/>
+    <col min="19" max="19" width="28.0781" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.4375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="7.60156" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="19.6016" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="A1" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="18.5" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="T2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s" s="9">
+      <c r="D3" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="K3" t="s" s="9">
+      <c r="E3" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="L3" t="s" s="9">
+      <c r="F3" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="M3" t="s" s="9">
+      <c r="G3" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="N3" t="s" s="9">
+      <c r="H3" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" t="s" s="9">
+      <c r="I3" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="R3" t="s" s="9">
+      <c r="J3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s" s="14">
         <f>CONCATENATE(""",D3,""",", ",""",E3,""",", ",""",F3,""",", ",""",G3,""",", ",""",H3,""",", ",""",I3,""",", ",""",J3,""",", ",""",K3,""",", ",""",L3,""",", ",""",M3,""",", ",""",N3,""",", ",""",O3,""",", ",""",P3,""",", ")</f>
-        <v>23</v>
-      </c>
-      <c r="S3" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s" s="14">
         <f>CONCATENATE(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3)</f>
-        <v>24</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" t="b" s="11">
+        <v>30</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" t="b" s="16">
         <f>EXACT(S3,T3)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="10"/>
     </row>
     <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="A4" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="C4" s="18">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="15">
+      <c r="D4" t="s" s="19">
         <v>31</v>
       </c>
-      <c r="K4" t="s" s="15">
+      <c r="E4" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="L4" t="s" s="15">
+      <c r="F4" t="s" s="20">
         <v>33</v>
       </c>
-      <c r="M4" t="s" s="15">
+      <c r="G4" t="s" s="20">
         <v>34</v>
       </c>
-      <c r="N4" t="s" s="15">
+      <c r="H4" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" t="s" s="15">
+      <c r="I4" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s" s="20">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" t="s" s="20">
         <f>CONCATENATE(""",D4,""",", ",""",E4,""",", ",""",F4,""",", ",""",G4,""",", ",""",H4,""",", ",""",I4,""",", ",""",J4,""",", ",""",K4,""",", ",""",L4,""",", ",""",M4,""",", ",""",N4,""",", ",""",O4,""",", ",""",P4,""",", ")</f>
-        <v>36</v>
-      </c>
-      <c r="S4" t="s" s="15">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s" s="20">
         <f>CONCATENATE(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4)</f>
-        <v>37</v>
-      </c>
-      <c r="T4" s="16"/>
-      <c r="U4" t="b" s="17">
+        <v>43</v>
+      </c>
+      <c r="T4" s="21"/>
+      <c r="U4" t="b" s="22">
         <f>EXACT(S4,T4)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="16"/>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="A5" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18">
         <v>3</v>
       </c>
-      <c r="D5" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s" s="15">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s" s="15">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s" s="15">
+      <c r="D5" t="s" s="19">
         <v>44</v>
       </c>
-      <c r="K5" t="s" s="15">
+      <c r="E5" t="s" s="20">
         <v>45</v>
       </c>
-      <c r="L5" t="s" s="15">
+      <c r="F5" t="s" s="20">
         <v>46</v>
       </c>
-      <c r="M5" t="s" s="15">
+      <c r="G5" t="s" s="20">
         <v>47</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" t="s" s="15">
+      <c r="H5" t="s" s="20">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s" s="20">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" t="s" s="20">
         <f>CONCATENATE(""",D5,""",", ",""",E5,""",", ",""",F5,""",", ",""",G5,""",", ",""",H5,""",", ",""",I5,""",", ",""",J5,""",", ",""",K5,""",", ",""",L5,""",", ",""",M5,""",", ",""",N5,""",", ",""",O5,""",", ",""",P5,""",", ")</f>
-        <v>48</v>
-      </c>
-      <c r="S5" t="s" s="15">
+        <v>54</v>
+      </c>
+      <c r="S5" t="s" s="20">
         <f>CONCATENATE(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5)</f>
-        <v>49</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="U5" t="b" s="17">
+        <v>55</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" t="b" s="22">
         <f>EXACT(S5,T5)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="16"/>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="A6" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" t="s" s="14">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s" s="15">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s" s="15">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s" s="15">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="15">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s" s="15">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s" s="15">
+      <c r="D6" t="s" s="19">
         <v>57</v>
       </c>
-      <c r="K6" t="s" s="15">
+      <c r="E6" t="s" s="20">
         <v>58</v>
       </c>
-      <c r="L6" t="s" s="15">
+      <c r="F6" t="s" s="20">
         <v>59</v>
       </c>
-      <c r="M6" t="s" s="15">
+      <c r="G6" t="s" s="20">
         <v>60</v>
       </c>
-      <c r="N6" t="s" s="15">
+      <c r="H6" t="s" s="20">
         <v>61</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" t="s" s="15">
+      <c r="I6" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s" s="20">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s" s="20">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s" s="20">
+        <v>67</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" t="s" s="20">
         <f>CONCATENATE(""",D6,""",", ",""",E6,""",", ",""",F6,""",", ",""",G6,""",", ",""",H6,""",", ",""",I6,""",", ",""",J6,""",", ",""",K6,""",", ",""",L6,""",", ",""",M6,""",", ",""",N6,""",", ",""",O6,""",", ",""",P6,""",", ")</f>
-        <v>62</v>
-      </c>
-      <c r="S6" t="s" s="15">
+        <v>68</v>
+      </c>
+      <c r="S6" t="s" s="20">
         <f>CONCATENATE(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
-        <v>63</v>
-      </c>
-      <c r="T6" s="16"/>
-      <c r="U6" t="b" s="17">
+        <v>69</v>
+      </c>
+      <c r="T6" s="21"/>
+      <c r="U6" t="b" s="22">
         <f>EXACT(S6,T6)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="16"/>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="A7" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="14">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s" s="15">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s" s="15">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s" s="15">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s" s="15">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s" s="15">
-        <v>69</v>
-      </c>
-      <c r="J7" t="s" s="15">
+      <c r="D7" t="s" s="19">
         <v>70</v>
       </c>
-      <c r="K7" t="s" s="15">
+      <c r="E7" t="s" s="20">
         <v>71</v>
       </c>
-      <c r="L7" t="s" s="15">
+      <c r="F7" t="s" s="20">
         <v>72</v>
       </c>
-      <c r="M7" t="s" s="15">
+      <c r="G7" t="s" s="20">
         <v>73</v>
       </c>
-      <c r="N7" t="s" s="15">
+      <c r="H7" t="s" s="20">
         <v>74</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" t="s" s="15">
+      <c r="I7" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="20">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s" s="20">
+        <v>80</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" t="s" s="20">
         <f>CONCATENATE(""",D7,""",", ",""",E7,""",", ",""",F7,""",", ",""",G7,""",", ",""",H7,""",", ",""",I7,""",", ",""",J7,""",", ",""",K7,""",", ",""",L7,""",", ",""",M7,""",", ",""",N7,""",", ",""",O7,""",", ",""",P7,""",", ")</f>
-        <v>75</v>
-      </c>
-      <c r="S7" t="s" s="15">
+        <v>81</v>
+      </c>
+      <c r="S7" t="s" s="20">
         <f>CONCATENATE(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
-        <v>76</v>
-      </c>
-      <c r="T7" s="16"/>
-      <c r="U7" t="b" s="17">
+        <v>82</v>
+      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" t="b" s="22">
         <f>EXACT(S7,T7)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="16"/>
     </row>
     <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="A8" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="14">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s" s="15">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s" s="15">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s" s="15">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="15">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s" s="15">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s" s="15">
+      <c r="D8" t="s" s="19">
         <v>83</v>
       </c>
-      <c r="K8" t="s" s="15">
+      <c r="E8" t="s" s="20">
         <v>84</v>
       </c>
-      <c r="L8" t="s" s="15">
+      <c r="F8" t="s" s="20">
         <v>85</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" t="s" s="15">
+      <c r="G8" t="s" s="20">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" t="s" s="20">
         <f>CONCATENATE(""",D8,""",", ",""",E8,""",", ",""",F8,""",", ",""",G8,""",", ",""",H8,""",", ",""",I8,""",", ",""",J8,""",", ",""",K8,""",", ",""",L8,""",", ",""",M8,""",", ",""",N8,""",", ",""",O8,""",", ",""",P8,""",", ")</f>
-        <v>86</v>
-      </c>
-      <c r="S8" t="s" s="15">
+        <v>92</v>
+      </c>
+      <c r="S8" t="s" s="20">
         <f>CONCATENATE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8)</f>
-        <v>87</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" t="b" s="17">
+        <v>93</v>
+      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" t="b" s="22">
         <f>EXACT(S8,T8)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="16"/>
     </row>
     <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="A9" t="s" s="17">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" t="s" s="14">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s" s="15">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s" s="15">
-        <v>91</v>
-      </c>
-      <c r="G9" t="s" s="15">
-        <v>92</v>
-      </c>
-      <c r="H9" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="I9" t="s" s="15">
-        <v>94</v>
-      </c>
-      <c r="J9" t="s" s="15">
+      <c r="D9" t="s" s="19">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="15">
+      <c r="E9" t="s" s="20">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="15">
+      <c r="F9" t="s" s="20">
         <v>97</v>
       </c>
-      <c r="M9" t="s" s="15">
+      <c r="G9" t="s" s="20">
         <v>98</v>
       </c>
-      <c r="N9" t="s" s="15">
+      <c r="H9" t="s" s="20">
         <v>99</v>
       </c>
-      <c r="O9" t="s" s="15">
+      <c r="I9" t="s" s="20">
         <v>100</v>
       </c>
-      <c r="P9" t="s" s="15">
+      <c r="J9" t="s" s="20">
         <v>101</v>
       </c>
-      <c r="Q9" t="s" s="15">
+      <c r="K9" t="s" s="20">
         <v>102</v>
       </c>
-      <c r="R9" t="s" s="15">
+      <c r="L9" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="R9" t="s" s="20">
         <f>CONCATENATE(""",D9,""",", ",""",E9,""",", ",""",F9,""",", ",""",G9,""",", ",""",H9,""",", ",""",I9,""",", ",""",J9,""",", ",""",K9,""",", ",""",L9,""",", ",""",M9,""",", ",""",N9,""",", ",""",O9,""",", ",""",P9,""",", ")</f>
-        <v>103</v>
-      </c>
-      <c r="S9" t="s" s="15">
+        <v>106</v>
+      </c>
+      <c r="S9" t="s" s="20">
         <f>CONCATENATE(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9)</f>
-        <v>104</v>
-      </c>
-      <c r="T9" s="16"/>
-      <c r="U9" t="b" s="17">
+        <v>107</v>
+      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" t="b" s="22">
         <f>EXACT(S9,T9)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="16"/>
     </row>
     <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s" s="14">
-        <v>105</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" t="s" s="15">
+      <c r="A10" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="19">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s" s="20">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="H10" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="N10" t="s" s="20">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s" s="20">
+        <v>111</v>
+      </c>
+      <c r="P10" t="s" s="20">
+        <v>112</v>
+      </c>
+      <c r="Q10" t="s" s="20">
+        <v>113</v>
+      </c>
+      <c r="R10" t="s" s="20">
         <f>CONCATENATE(""",D10,""",", ",""",E10,""",", ",""",F10,""",", ",""",G10,""",", ",""",H10,""",", ",""",I10,""",", ",""",J10,""",", ",""",K10,""",", ",""",L10,""",", ",""",M10,""",", ",""",N10,""",", ",""",O10,""",", ",""",P10,""",", ")</f>
-        <v>106</v>
-      </c>
-      <c r="S10" t="s" s="15">
+        <v>114</v>
+      </c>
+      <c r="S10" t="s" s="20">
         <f>CONCATENATE(D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10)</f>
-        <v>105</v>
-      </c>
-      <c r="T10" s="16"/>
-      <c r="U10" t="b" s="17">
+        <v>115</v>
+      </c>
+      <c r="T10" s="21"/>
+      <c r="U10" t="b" s="22">
         <f>EXACT(S10,T10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="16"/>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s" s="14">
-        <v>107</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" t="s" s="15">
+      <c r="A11" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s" s="20">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s" s="20">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s" s="20">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s" s="20">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s" s="20">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s" s="20">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s" s="20">
+        <v>124</v>
+      </c>
+      <c r="M11" t="s" s="20">
+        <v>125</v>
+      </c>
+      <c r="N11" t="s" s="20">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s" s="20">
+        <v>127</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" t="s" s="20">
         <f>CONCATENATE(""",D11,""",", ",""",E11,""",", ",""",F11,""",", ",""",G11,""",", ",""",H11,""",", ",""",I11,""",", ",""",J11,""",", ",""",K11,""",", ",""",L11,""",", ",""",M11,""",", ",""",N11,""",", ",""",O11,""",", ",""",P11,""",", ")</f>
-        <v>108</v>
-      </c>
-      <c r="S11" t="s" s="15">
+        <v>128</v>
+      </c>
+      <c r="S11" t="s" s="20">
         <f>CONCATENATE(D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11)</f>
-        <v>107</v>
-      </c>
-      <c r="T11" s="16"/>
-      <c r="U11" t="b" s="17">
+        <v>129</v>
+      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" t="b" s="22">
         <f>EXACT(S11,T11)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="16"/>
     </row>
     <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C12" s="18">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s" s="19">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s" s="20">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s" s="20">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s" s="20">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s" s="20">
+        <v>134</v>
+      </c>
+      <c r="I12" t="s" s="20">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s" s="20">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s" s="20">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s" s="20">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s" s="20">
+        <v>139</v>
+      </c>
+      <c r="N12" t="s" s="20">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s" s="20">
+        <v>141</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" t="s" s="20">
+        <f>CONCATENATE(""",D12,""",", ",""",E12,""",", ",""",F12,""",", ",""",G12,""",", ",""",H12,""",", ",""",I12,""",", ",""",J12,""",", ",""",K12,""",", ",""",L12,""",", ",""",M12,""",", ",""",N12,""",", ",""",O12,""",", ",""",P12,""",", ")</f>
+        <v>142</v>
+      </c>
+      <c r="S12" t="s" s="20">
+        <f>CONCATENATE(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12)</f>
+        <v>143</v>
+      </c>
+      <c r="T12" s="21"/>
+      <c r="U12" t="b" s="22">
+        <f>EXACT(S12,T12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s" s="19">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s" s="20">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s" s="20">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s" s="20">
+        <v>147</v>
+      </c>
+      <c r="H13" t="s" s="20">
+        <v>148</v>
+      </c>
+      <c r="I13" t="s" s="20">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s" s="20">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s" s="20">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s" s="20">
+        <v>152</v>
+      </c>
+      <c r="M13" t="s" s="20">
+        <v>153</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" t="s" s="20">
+        <f>CONCATENATE(""",D13,""",", ",""",E13,""",", ",""",F13,""",", ",""",G13,""",", ",""",H13,""",", ",""",I13,""",", ",""",J13,""",", ",""",K13,""",", ",""",L13,""",", ",""",M13,""",", ",""",N13,""",", ",""",O13,""",", ",""",P13,""",", ")</f>
+        <v>154</v>
+      </c>
+      <c r="S13" t="s" s="20">
+        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
+        <v>155</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" t="b" s="22">
+        <f>EXACT(S13,T13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="19">
+        <v>156</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" t="s" s="20">
+        <f>CONCATENATE(""",D14,""",", ",""",E14,""",", ",""",F14,""",", ",""",G14,""",", ",""",H14,""",", ",""",I14,""",", ",""",J14,""",", ",""",K14,""",", ",""",L14,""",", ",""",M14,""",", ",""",N14,""",", ",""",O14,""",", ",""",P14,""",", ")</f>
+        <v>157</v>
+      </c>
+      <c r="S14" t="s" s="20">
+        <f>CONCATENATE(D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14)</f>
+        <v>156</v>
+      </c>
+      <c r="T14" s="21"/>
+      <c r="U14" t="b" s="22">
+        <f>EXACT(S14,T14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s" s="17">
+        <v>158</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="19">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s" s="20">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s" s="20">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s" s="20">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s" s="20">
+        <v>163</v>
+      </c>
+      <c r="I15" t="s" s="20">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s" s="20">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s" s="20">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="20">
+        <v>167</v>
+      </c>
+      <c r="M15" t="s" s="20">
+        <v>168</v>
+      </c>
+      <c r="N15" t="s" s="20">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s" s="20">
+        <v>170</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" t="s" s="20">
+        <f>CONCATENATE(""",D15,""",", ",""",E15,""",", ",""",F15,""",", ",""",G15,""",", ",""",H15,""",", ",""",I15,""",", ",""",J15,""",", ",""",K15,""",", ",""",L15,""",", ",""",M15,""",", ",""",N15,""",", ",""",O15,""",", ",""",P15,""",", ")</f>
+        <v>171</v>
+      </c>
+      <c r="S15" t="s" s="20">
+        <f>CONCATENATE(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15)</f>
+        <v>172</v>
+      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" t="b" s="22">
+        <f>EXACT(S15,T15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s" s="17">
+        <v>158</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="19">
+        <v>173</v>
+      </c>
+      <c r="E16" t="s" s="20">
+        <v>174</v>
+      </c>
+      <c r="F16" t="s" s="20">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s" s="20">
+        <v>176</v>
+      </c>
+      <c r="H16" t="s" s="20">
+        <v>177</v>
+      </c>
+      <c r="I16" t="s" s="20">
+        <v>178</v>
+      </c>
+      <c r="J16" t="s" s="20">
+        <v>179</v>
+      </c>
+      <c r="K16" t="s" s="20">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s" s="20">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="20">
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="20">
+        <v>182</v>
+      </c>
+      <c r="O16" t="s" s="20">
+        <v>183</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" t="s" s="20">
+        <f>CONCATENATE(""",D16,""",", ",""",E16,""",", ",""",F16,""",", ",""",G16,""",", ",""",H16,""",", ",""",I16,""",", ",""",J16,""",", ",""",K16,""",", ",""",L16,""",", ",""",M16,""",", ",""",N16,""",", ",""",O16,""",", ",""",P16,""",", ")</f>
+        <v>184</v>
+      </c>
+      <c r="S16" t="s" s="20">
+        <f>CONCATENATE(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16)</f>
+        <v>185</v>
+      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" t="b" s="22">
+        <f>EXACT(S16,T16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s" s="17">
+        <v>158</v>
+      </c>
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s" s="19">
+        <v>186</v>
+      </c>
+      <c r="E17" t="s" s="20">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s" s="20">
+        <v>188</v>
+      </c>
+      <c r="G17" t="s" s="20">
+        <v>189</v>
+      </c>
+      <c r="H17" t="s" s="20">
+        <v>190</v>
+      </c>
+      <c r="I17" t="s" s="20">
+        <v>191</v>
+      </c>
+      <c r="J17" t="s" s="20">
+        <v>192</v>
+      </c>
+      <c r="K17" t="s" s="20">
+        <v>193</v>
+      </c>
+      <c r="L17" t="s" s="20">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="20">
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="20">
+        <v>196</v>
+      </c>
+      <c r="O17" t="s" s="20">
+        <v>197</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" t="s" s="20">
+        <f>CONCATENATE(""",D17,""",", ",""",E17,""",", ",""",F17,""",", ",""",G17,""",", ",""",H17,""",", ",""",I17,""",", ",""",J17,""",", ",""",K17,""",", ",""",L17,""",", ",""",M17,""",", ",""",N17,""",", ",""",O17,""",", ",""",P17,""",", ")</f>
+        <v>198</v>
+      </c>
+      <c r="S17" t="s" s="20">
+        <f>CONCATENATE(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17)</f>
+        <v>199</v>
+      </c>
+      <c r="T17" s="21"/>
+      <c r="U17" t="b" s="22">
+        <f>EXACT(S17,T17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s" s="17">
+        <v>158</v>
+      </c>
+      <c r="C18" s="18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s" s="19">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s" s="20">
+        <v>201</v>
+      </c>
+      <c r="F18" t="s" s="20">
+        <v>202</v>
+      </c>
+      <c r="G18" t="s" s="20">
+        <v>203</v>
+      </c>
+      <c r="H18" t="s" s="20">
+        <v>204</v>
+      </c>
+      <c r="I18" t="s" s="20">
+        <v>205</v>
+      </c>
+      <c r="J18" t="s" s="20">
+        <v>206</v>
+      </c>
+      <c r="K18" t="s" s="20">
+        <v>207</v>
+      </c>
+      <c r="L18" t="s" s="20">
+        <v>208</v>
+      </c>
+      <c r="M18" t="s" s="20">
+        <v>209</v>
+      </c>
+      <c r="N18" t="s" s="20">
+        <v>210</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" t="s" s="20">
+        <f>CONCATENATE(""",D18,""",", ",""",E18,""",", ",""",F18,""",", ",""",G18,""",", ",""",H18,""",", ",""",I18,""",", ",""",J18,""",", ",""",K18,""",", ",""",L18,""",", ",""",M18,""",", ",""",N18,""",", ",""",O18,""",", ",""",P18,""",", ")</f>
+        <v>211</v>
+      </c>
+      <c r="S18" t="s" s="20">
+        <f>CONCATENATE(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18)</f>
+        <v>212</v>
+      </c>
+      <c r="T18" s="21"/>
+      <c r="U18" t="b" s="22">
+        <f>EXACT(S18,T18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s" s="17">
+        <v>214</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="19">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s" s="20">
+        <v>216</v>
+      </c>
+      <c r="F19" t="s" s="20">
+        <v>217</v>
+      </c>
+      <c r="G19" t="s" s="20">
+        <v>218</v>
+      </c>
+      <c r="H19" t="s" s="20">
+        <v>219</v>
+      </c>
+      <c r="I19" t="s" s="20">
+        <v>220</v>
+      </c>
+      <c r="J19" t="s" s="20">
+        <v>221</v>
+      </c>
+      <c r="K19" t="s" s="20">
+        <v>222</v>
+      </c>
+      <c r="L19" t="s" s="20">
+        <v>223</v>
+      </c>
+      <c r="M19" t="s" s="20">
+        <v>224</v>
+      </c>
+      <c r="N19" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="O19" t="s" s="20">
+        <v>225</v>
+      </c>
+      <c r="P19" t="s" s="20">
+        <v>226</v>
+      </c>
+      <c r="Q19" t="s" s="20">
+        <v>227</v>
+      </c>
+      <c r="R19" t="s" s="20">
+        <f>CONCATENATE(""",D19,""",", ",""",E19,""",", ",""",F19,""",", ",""",G19,""",", ",""",H19,""",", ",""",I19,""",", ",""",J19,""",", ",""",K19,""",", ",""",L19,""",", ",""",M19,""",", ",""",N19,""",", ",""",O19,""",", ",""",P19,""",", ")</f>
+        <v>228</v>
+      </c>
+      <c r="S19" t="s" s="20">
+        <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19)</f>
+        <v>229</v>
+      </c>
+      <c r="T19" s="21"/>
+      <c r="U19" t="b" s="22">
+        <f>EXACT(S19,T19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B20" t="s" s="17">
+        <v>214</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s" s="19">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s" s="20">
+        <v>231</v>
+      </c>
+      <c r="F20" t="s" s="20">
+        <v>232</v>
+      </c>
+      <c r="G20" t="s" s="20">
+        <v>233</v>
+      </c>
+      <c r="H20" t="s" s="20">
+        <v>234</v>
+      </c>
+      <c r="I20" t="s" s="20">
+        <v>235</v>
+      </c>
+      <c r="J20" t="s" s="20">
+        <v>236</v>
+      </c>
+      <c r="K20" t="s" s="20">
+        <v>237</v>
+      </c>
+      <c r="L20" t="s" s="20">
+        <v>238</v>
+      </c>
+      <c r="M20" t="s" s="20">
+        <v>239</v>
+      </c>
+      <c r="N20" t="s" s="20">
+        <v>240</v>
+      </c>
+      <c r="O20" t="s" s="20">
+        <v>241</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" t="s" s="20">
+        <f>CONCATENATE(""",D20,""",", ",""",E20,""",", ",""",F20,""",", ",""",G20,""",", ",""",H20,""",", ",""",I20,""",", ",""",J20,""",", ",""",K20,""",", ",""",L20,""",", ",""",M20,""",", ",""",N20,""",", ",""",O20,""",", ",""",P20,""",", ")</f>
+        <v>242</v>
+      </c>
+      <c r="S20" t="s" s="20">
+        <f>CONCATENATE(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20)</f>
+        <v>243</v>
+      </c>
+      <c r="T20" s="21"/>
+      <c r="U20" t="b" s="22">
+        <f>EXACT(S20,T20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s" s="17">
+        <v>214</v>
+      </c>
+      <c r="C21" s="18">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s" s="19">
+        <v>244</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>245</v>
+      </c>
+      <c r="F21" t="s" s="20">
+        <v>246</v>
+      </c>
+      <c r="G21" t="s" s="20">
+        <v>247</v>
+      </c>
+      <c r="H21" t="s" s="20">
+        <v>248</v>
+      </c>
+      <c r="I21" t="s" s="20">
+        <v>249</v>
+      </c>
+      <c r="J21" t="s" s="20">
+        <v>250</v>
+      </c>
+      <c r="K21" t="s" s="20">
+        <v>251</v>
+      </c>
+      <c r="L21" t="s" s="20">
+        <v>252</v>
+      </c>
+      <c r="M21" t="s" s="20">
+        <v>253</v>
+      </c>
+      <c r="N21" t="s" s="20">
+        <v>254</v>
+      </c>
+      <c r="O21" t="s" s="20">
+        <v>255</v>
+      </c>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" t="s" s="20">
+        <f>CONCATENATE(""",D21,""",", ",""",E21,""",", ",""",F21,""",", ",""",G21,""",", ",""",H21,""",", ",""",I21,""",", ",""",J21,""",", ",""",K21,""",", ",""",L21,""",", ",""",M21,""",", ",""",N21,""",", ",""",O21,""",", ",""",P21,""",", ")</f>
+        <v>256</v>
+      </c>
+      <c r="S21" t="s" s="20">
+        <f>CONCATENATE(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21)</f>
+        <v>257</v>
+      </c>
+      <c r="T21" s="21"/>
+      <c r="U21" t="b" s="22">
+        <f>EXACT(S21,T21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s" s="17">
+        <v>214</v>
+      </c>
+      <c r="C22" s="18">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s" s="19">
+        <v>258</v>
+      </c>
+      <c r="E22" t="s" s="20">
+        <v>259</v>
+      </c>
+      <c r="F22" t="s" s="20">
+        <v>260</v>
+      </c>
+      <c r="G22" t="s" s="20">
+        <v>261</v>
+      </c>
+      <c r="H22" t="s" s="20">
+        <v>262</v>
+      </c>
+      <c r="I22" t="s" s="20">
+        <v>263</v>
+      </c>
+      <c r="J22" t="s" s="20">
+        <v>264</v>
+      </c>
+      <c r="K22" t="s" s="20">
+        <v>265</v>
+      </c>
+      <c r="L22" t="s" s="20">
+        <v>266</v>
+      </c>
+      <c r="M22" t="s" s="20">
+        <v>267</v>
+      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" t="s" s="20">
+        <f>CONCATENATE(""",D22,""",", ",""",E22,""",", ",""",F22,""",", ",""",G22,""",", ",""",H22,""",", ",""",I22,""",", ",""",J22,""",", ",""",K22,""",", ",""",L22,""",", ",""",M22,""",", ",""",N22,""",", ",""",O22,""",", ",""",P22,""",", ")</f>
+        <v>268</v>
+      </c>
+      <c r="S22" t="s" s="20">
+        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22)</f>
+        <v>269</v>
+      </c>
+      <c r="T22" s="21"/>
+      <c r="U22" t="b" s="22">
+        <f>EXACT(S22,T22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B23" t="s" s="17">
+        <v>270</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s" s="19">
+        <v>271</v>
+      </c>
+      <c r="E23" t="s" s="20">
+        <v>272</v>
+      </c>
+      <c r="F23" t="s" s="20">
+        <v>273</v>
+      </c>
+      <c r="G23" t="s" s="20">
+        <v>274</v>
+      </c>
+      <c r="H23" t="s" s="20">
+        <v>275</v>
+      </c>
+      <c r="I23" t="s" s="20">
+        <v>276</v>
+      </c>
+      <c r="J23" t="s" s="20">
+        <v>277</v>
+      </c>
+      <c r="K23" t="s" s="20">
+        <v>278</v>
+      </c>
+      <c r="L23" t="s" s="20">
+        <v>279</v>
+      </c>
+      <c r="M23" t="s" s="20">
+        <v>280</v>
+      </c>
+      <c r="N23" t="s" s="20">
+        <v>281</v>
+      </c>
+      <c r="O23" t="s" s="20">
+        <v>282</v>
+      </c>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" t="s" s="20">
+        <f>CONCATENATE(""",D23,""",", ",""",E23,""",", ",""",F23,""",", ",""",G23,""",", ",""",H23,""",", ",""",I23,""",", ",""",J23,""",", ",""",K23,""",", ",""",L23,""",", ",""",M23,""",", ",""",N23,""",", ",""",O23,""",", ",""",P23,""",", ")</f>
+        <v>283</v>
+      </c>
+      <c r="S23" t="s" s="20">
+        <f>CONCATENATE(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23)</f>
+        <v>284</v>
+      </c>
+      <c r="T23" s="21"/>
+      <c r="U23" t="b" s="22">
+        <f>EXACT(S23,T23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B24" t="s" s="17">
+        <v>270</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="19">
+        <v>285</v>
+      </c>
+      <c r="E24" t="s" s="20">
+        <v>286</v>
+      </c>
+      <c r="F24" t="s" s="20">
+        <v>287</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" t="s" s="20">
+        <v>288</v>
+      </c>
+      <c r="I24" t="s" s="20">
+        <v>289</v>
+      </c>
+      <c r="J24" t="s" s="20">
+        <v>290</v>
+      </c>
+      <c r="K24" t="s" s="20">
+        <v>291</v>
+      </c>
+      <c r="L24" t="s" s="20">
+        <v>292</v>
+      </c>
+      <c r="M24" t="s" s="20">
+        <v>293</v>
+      </c>
+      <c r="N24" t="s" s="20">
+        <v>294</v>
+      </c>
+      <c r="O24" t="s" s="20">
+        <v>295</v>
+      </c>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" t="s" s="20">
+        <f>CONCATENATE(""",D24,""",", ",""",E24,""",", ",""",F24,""",", ",""",G24,""",", ",""",H24,""",", ",""",I24,""",", ",""",J24,""",", ",""",K24,""",", ",""",L24,""",", ",""",M24,""",", ",""",N24,""",", ",""",O24,""",", ",""",P24,""",", ")</f>
+        <v>296</v>
+      </c>
+      <c r="S24" t="s" s="20">
+        <f>CONCATENATE(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24,P24)</f>
+        <v>297</v>
+      </c>
+      <c r="T24" s="21"/>
+      <c r="U24" t="b" s="22">
+        <f>EXACT(S24,T24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s" s="17">
+        <v>270</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23"/>
+      <c r="F25" t="s" s="20">
+        <v>298</v>
+      </c>
+      <c r="G25" t="s" s="20">
+        <v>299</v>
+      </c>
+      <c r="H25" t="s" s="20">
+        <v>300</v>
+      </c>
+      <c r="I25" t="s" s="20">
+        <v>301</v>
+      </c>
+      <c r="J25" t="s" s="20">
+        <v>302</v>
+      </c>
+      <c r="K25" t="s" s="20">
+        <v>303</v>
+      </c>
+      <c r="L25" t="s" s="20">
+        <v>304</v>
+      </c>
+      <c r="M25" t="s" s="20">
+        <v>305</v>
+      </c>
+      <c r="N25" t="s" s="20">
+        <v>306</v>
+      </c>
+      <c r="O25" t="s" s="20">
+        <v>307</v>
+      </c>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" t="s" s="20">
+        <f>CONCATENATE(""",D25,""",", ",""",E25,""",", ",""",F25,""",", ",""",G25,""",", ",""",H25,""",", ",""",I25,""",", ",""",J25,""",", ",""",K25,""",", ",""",L25,""",", ",""",M25,""",", ",""",N25,""",", ",""",O25,""",", ",""",P25,""",", ")</f>
+        <v>308</v>
+      </c>
+      <c r="S25" t="s" s="20">
+        <f>CONCATENATE(D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25)</f>
+        <v>309</v>
+      </c>
+      <c r="T25" s="21"/>
+      <c r="U25" t="b" s="22">
+        <f>EXACT(S25,T25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B26" t="s" s="17">
+        <v>270</v>
+      </c>
+      <c r="C26" s="18">
+        <v>4</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" t="s" s="20">
+        <v>310</v>
+      </c>
+      <c r="H26" t="s" s="20">
+        <v>311</v>
+      </c>
+      <c r="I26" t="s" s="20">
+        <v>312</v>
+      </c>
+      <c r="J26" t="s" s="20">
+        <v>313</v>
+      </c>
+      <c r="K26" t="s" s="20">
+        <v>314</v>
+      </c>
+      <c r="L26" t="s" s="20">
+        <v>315</v>
+      </c>
+      <c r="M26" t="s" s="20">
+        <v>316</v>
+      </c>
+      <c r="N26" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" t="s" s="20">
+        <f>CONCATENATE(""",D26,""",", ",""",E26,""",", ",""",F26,""",", ",""",G26,""",", ",""",H26,""",", ",""",I26,""",", ",""",J26,""",", ",""",K26,""",", ",""",L26,""",", ",""",M26,""",", ",""",N26,""",", ",""",O26,""",", ",""",P26,""",", ")</f>
+        <v>318</v>
+      </c>
+      <c r="S26" t="s" s="20">
+        <f>CONCATENATE(D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26,P26)</f>
+        <v>319</v>
+      </c>
+      <c r="T26" s="21"/>
+      <c r="U26" t="b" s="22">
+        <f>EXACT(S26,T26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" t="s" s="20">
+        <v>321</v>
+      </c>
+      <c r="R27" t="s" s="20">
+        <f>CONCATENATE(""",D27,""",", ",""",E27,""",", ",""",F27,""",", ",""",G27,""",", ",""",H27,""",", ",""",I27,""",", ",""",J27,""",", ",""",K27,""",", ",""",L27,""",", ",""",M27,""",", ",""",N27,""",", ",""",O27,""",", ",""",P27,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S27" t="s" s="20">
+        <f>CONCATENATE(D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27,P27)</f>
+      </c>
+      <c r="T27" s="21"/>
+      <c r="U27" t="b" s="22">
+        <f>EXACT(S27,T27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="18.3" customHeight="1">
+      <c r="A28" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" t="s" s="20">
+        <v>323</v>
+      </c>
+      <c r="R28" t="s" s="20">
+        <f>CONCATENATE(""",D28,""",", ",""",E28,""",", ",""",F28,""",", ",""",G28,""",", ",""",H28,""",", ",""",I28,""",", ",""",J28,""",", ",""",K28,""",", ",""",L28,""",", ",""",M28,""",", ",""",N28,""",", ",""",O28,""",", ",""",P28,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S28" t="s" s="20">
+        <f>CONCATENATE(D28,E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28,P28)</f>
+      </c>
+      <c r="T28" s="21"/>
+      <c r="U28" t="b" s="22">
+        <f>EXACT(S28,T28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="18.3" customHeight="1">
+      <c r="A29" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" t="s" s="20">
+        <v>324</v>
+      </c>
+      <c r="R29" t="s" s="20">
+        <f>CONCATENATE(""",D29,""",", ",""",E29,""",", ",""",F29,""",", ",""",G29,""",", ",""",H29,""",", ",""",I29,""",", ",""",J29,""",", ",""",K29,""",", ",""",L29,""",", ",""",M29,""",", ",""",N29,""",", ",""",O29,""",", ",""",P29,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" t="b" s="22">
+        <f>EXACT(S29,T29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="18.3" customHeight="1">
+      <c r="A30" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" t="s" s="20">
+        <v>325</v>
+      </c>
+      <c r="R30" t="s" s="20">
+        <f>CONCATENATE(""",D30,""",", ",""",E30,""",", ",""",F30,""",", ",""",G30,""",", ",""",H30,""",", ",""",I30,""",", ",""",J30,""",", ",""",K30,""",", ",""",L30,""",", ",""",M30,""",", ",""",N30,""",", ",""",O30,""",", ",""",P30,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S30" t="s" s="20">
+        <f>CONCATENATE(D30,E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30,P30)</f>
+      </c>
+      <c r="T30" s="21"/>
+      <c r="U30" t="b" s="22">
+        <f>EXACT(S30,T30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
+      <c r="A31" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" t="s" s="20">
+        <v>326</v>
+      </c>
+      <c r="R31" t="s" s="20">
+        <f>CONCATENATE(""",D31,""",", ",""",E31,""",", ",""",F31,""",", ",""",G31,""",", ",""",H31,""",", ",""",I31,""",", ",""",J31,""",", ",""",K31,""",", ",""",L31,""",", ",""",M31,""",", ",""",N31,""",", ",""",O31,""",", ",""",P31,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S31" t="s" s="20">
+        <f>CONCATENATE(D31,E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31,P31)</f>
+      </c>
+      <c r="T31" s="21"/>
+      <c r="U31" t="b" s="22">
+        <f>EXACT(S31,T31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="18.3" customHeight="1">
+      <c r="A32" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" t="s" s="20">
+        <v>327</v>
+      </c>
+      <c r="R32" t="s" s="20">
+        <f>CONCATENATE(""",D32,""",", ",""",E32,""",", ",""",F32,""",", ",""",G32,""",", ",""",H32,""",", ",""",I32,""",", ",""",J32,""",", ",""",K32,""",", ",""",L32,""",", ",""",M32,""",", ",""",N32,""",", ",""",O32,""",", ",""",P32,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S32" t="s" s="20">
+        <f>CONCATENATE(D32,E32,F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32)</f>
+      </c>
+      <c r="T32" s="21"/>
+      <c r="U32" t="b" s="22">
+        <f>EXACT(S32,T32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="18.3" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" t="s" s="20">
+        <f>CONCATENATE(""",D33,""",", ",""",E33,""",", ",""",F33,""",", ",""",G33,""",", ",""",H33,""",", ",""",I33,""",", ",""",J33,""",", ",""",K33,""",", ",""",L33,""",", ",""",M33,""",", ",""",N33,""",", ",""",O33,""",", ",""",P33,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S33" t="s" s="20">
+        <f>CONCATENATE(D33,E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33)</f>
+      </c>
+      <c r="T33" s="21"/>
+      <c r="U33" t="b" s="22">
+        <f>EXACT(S33,T33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="18.3" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" t="s" s="20">
+        <f>CONCATENATE(""",D34,""",", ",""",E34,""",", ",""",F34,""",", ",""",G34,""",", ",""",H34,""",", ",""",I34,""",", ",""",J34,""",", ",""",K34,""",", ",""",L34,""",", ",""",M34,""",", ",""",N34,""",", ",""",O34,""",", ",""",P34,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S34" t="s" s="20">
+        <f>CONCATENATE(D34,E34,F34,G34,H34,I34,J34,K34,L34,M34,N34,O34,P34)</f>
+      </c>
+      <c r="T34" s="21"/>
+      <c r="U34" t="b" s="22">
+        <f>EXACT(S34,T34)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q10:Q18"/>
+    <mergeCell ref="Q3:Q8"/>
+    <mergeCell ref="Q19:Q26"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:U34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="D3" xSplit="3" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12" style="27" customWidth="1"/>
+    <col min="3" max="3" width="3.8125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="4.25781" style="27" customWidth="1"/>
+    <col min="5" max="16" width="3.8125" style="27" customWidth="1"/>
+    <col min="17" max="17" width="47.3906" style="27" customWidth="1"/>
+    <col min="18" max="18" width="61.4297" style="27" customWidth="1"/>
+    <col min="19" max="19" width="28.0781" style="27" customWidth="1"/>
+    <col min="20" max="20" width="26.5625" style="27" customWidth="1"/>
+    <col min="21" max="21" width="7.60156" style="27" customWidth="1"/>
+    <col min="22" max="16384" width="19.6016" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="18.5" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s" s="14">
+        <f>CONCATENATE(""",D3,""",", ",""",E3,""",", ",""",F3,""",", ",""",G3,""",", ",""",H3,""",", ",""",I3,""",", ",""",J3,""",", ",""",K3,""",", ",""",L3,""",", ",""",M3,""",", ",""",N3,""",", ",""",O3,""",", ",""",P3,""",", ")</f>
+        <v>29</v>
+      </c>
+      <c r="S3" t="s" s="14">
+        <f>CONCATENATE(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3)</f>
+        <v>30</v>
+      </c>
+      <c r="T3" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="U3" t="b" s="16">
+        <f>EXACT(S3,T3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.3" customHeight="1">
+      <c r="A4" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s" s="20">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s" s="20">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" t="s" s="20">
+        <f>CONCATENATE(""",D4,""",", ",""",E4,""",", ",""",F4,""",", ",""",G4,""",", ",""",H4,""",", ",""",I4,""",", ",""",J4,""",", ",""",K4,""",", ",""",L4,""",", ",""",M4,""",", ",""",N4,""",", ",""",O4,""",", ",""",P4,""",", ")</f>
+        <v>42</v>
+      </c>
+      <c r="S4" t="s" s="20">
+        <f>CONCATENATE(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4)</f>
+        <v>43</v>
+      </c>
+      <c r="T4" t="s" s="20">
+        <v>43</v>
+      </c>
+      <c r="U4" t="b" s="22">
+        <f>EXACT(S4,T4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s" s="19">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s" s="20">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s" s="20">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s" s="20">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" t="s" s="20">
+        <f>CONCATENATE(""",D5,""",", ",""",E5,""",", ",""",F5,""",", ",""",G5,""",", ",""",H5,""",", ",""",I5,""",", ",""",J5,""",", ",""",K5,""",", ",""",L5,""",", ",""",M5,""",", ",""",N5,""",", ",""",O5,""",", ",""",P5,""",", ")</f>
+        <v>54</v>
+      </c>
+      <c r="S5" t="s" s="20">
+        <f>CONCATENATE(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5)</f>
+        <v>55</v>
+      </c>
+      <c r="T5" t="s" s="20">
+        <v>55</v>
+      </c>
+      <c r="U5" t="b" s="22">
+        <f>EXACT(S5,T5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="19">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s" s="20">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s" s="20">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s" s="20">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s" s="20">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s" s="20">
+        <v>67</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" t="s" s="20">
+        <f>CONCATENATE(""",D6,""",", ",""",E6,""",", ",""",F6,""",", ",""",G6,""",", ",""",H6,""",", ",""",I6,""",", ",""",J6,""",", ",""",K6,""",", ",""",L6,""",", ",""",M6,""",", ",""",N6,""",", ",""",O6,""",", ",""",P6,""",", ")</f>
+        <v>68</v>
+      </c>
+      <c r="S6" t="s" s="20">
+        <f>CONCATENATE(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
+        <v>69</v>
+      </c>
+      <c r="T6" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="U6" t="b" s="22">
+        <f>EXACT(S6,T6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="19">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s" s="20">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s" s="20">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="20">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s" s="20">
+        <v>80</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" t="s" s="20">
+        <f>CONCATENATE(""",D7,""",", ",""",E7,""",", ",""",F7,""",", ",""",G7,""",", ",""",H7,""",", ",""",I7,""",", ",""",J7,""",", ",""",K7,""",", ",""",L7,""",", ",""",M7,""",", ",""",N7,""",", ",""",O7,""",", ",""",P7,""",", ")</f>
+        <v>81</v>
+      </c>
+      <c r="S7" t="s" s="20">
+        <f>CONCATENATE(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
+        <v>82</v>
+      </c>
+      <c r="T7" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="U7" t="b" s="22">
+        <f>EXACT(S7,T7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s" s="19">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s" s="20">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s" s="20">
         <v>88</v>
       </c>
-      <c r="B12" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13">
-        <v>4</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" t="s" s="15">
+      <c r="J8" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" t="s" s="20">
+        <f>CONCATENATE(""",D8,""",", ",""",E8,""",", ",""",F8,""",", ",""",G8,""",", ",""",H8,""",", ",""",I8,""",", ",""",J8,""",", ",""",K8,""",", ",""",L8,""",", ",""",M8,""",", ",""",N8,""",", ",""",O8,""",", ",""",P8,""",", ")</f>
+        <v>92</v>
+      </c>
+      <c r="S8" t="s" s="20">
+        <f>CONCATENATE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8)</f>
+        <v>93</v>
+      </c>
+      <c r="T8" t="s" s="20">
+        <v>93</v>
+      </c>
+      <c r="U8" t="b" s="22">
+        <f>EXACT(S8,T8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" t="s" s="17">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="19">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s" s="20">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="I9" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="R9" t="s" s="20">
+        <f>CONCATENATE(""",D9,""",", ",""",E9,""",", ",""",F9,""",", ",""",G9,""",", ",""",H9,""",", ",""",I9,""",", ",""",J9,""",", ",""",K9,""",", ",""",L9,""",", ",""",M9,""",", ",""",N9,""",", ",""",O9,""",", ",""",P9,""",", ")</f>
+        <v>106</v>
+      </c>
+      <c r="S9" t="s" s="20">
+        <f>CONCATENATE(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9)</f>
+        <v>107</v>
+      </c>
+      <c r="T9" s="22">
+        <v>1234567890</v>
+      </c>
+      <c r="U9" t="b" s="22">
+        <f>EXACT(S9,T9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="19">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s" s="20">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="M10" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s" s="20">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s" s="20">
+        <v>168</v>
+      </c>
+      <c r="Q10" t="s" s="20">
+        <v>330</v>
+      </c>
+      <c r="R10" t="s" s="20">
+        <f>CONCATENATE(""",D10,""",", ",""",E10,""",", ",""",F10,""",", ",""",G10,""",", ",""",H10,""",", ",""",I10,""",", ",""",J10,""",", ",""",K10,""",", ",""",L10,""",", ",""",M10,""",", ",""",N10,""",", ",""",O10,""",", ",""",P10,""",", ")</f>
+        <v>331</v>
+      </c>
+      <c r="S10" t="s" s="20">
+        <f>CONCATENATE(D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10)</f>
+        <v>332</v>
+      </c>
+      <c r="T10" t="s" s="20">
+        <v>332</v>
+      </c>
+      <c r="U10" t="b" s="22">
+        <f>EXACT(S10,T10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s" s="20">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s" s="20">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s" s="20">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s" s="20">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s" s="20">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s" s="20">
+        <v>333</v>
+      </c>
+      <c r="L11" t="s" s="20">
+        <v>124</v>
+      </c>
+      <c r="M11" t="s" s="20">
+        <v>125</v>
+      </c>
+      <c r="N11" t="s" s="20">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s" s="20">
+        <v>141</v>
+      </c>
+      <c r="P11" t="s" s="20">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="R11" t="s" s="20">
+        <f>CONCATENATE(""",D11,""",", ",""",E11,""",", ",""",F11,""",", ",""",G11,""",", ",""",H11,""",", ",""",I11,""",", ",""",J11,""",", ",""",K11,""",", ",""",L11,""",", ",""",M11,""",", ",""",N11,""",", ",""",O11,""",", ",""",P11,""",", ")</f>
+        <v>335</v>
+      </c>
+      <c r="S11" t="s" s="20">
+        <f>CONCATENATE(D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11)</f>
+        <v>336</v>
+      </c>
+      <c r="T11" t="s" s="20">
+        <v>336</v>
+      </c>
+      <c r="U11" t="b" s="22">
+        <f>EXACT(S11,T11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C12" s="18">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s" s="19">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s" s="20">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s" s="20">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s" s="20">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s" s="20">
+        <v>134</v>
+      </c>
+      <c r="I12" t="s" s="20">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s" s="20">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s" s="20">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s" s="20">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s" s="20">
+        <v>139</v>
+      </c>
+      <c r="N12" t="s" s="20">
+        <v>337</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" t="s" s="20">
         <f>CONCATENATE(""",D12,""",", ",""",E12,""",", ",""",F12,""",", ",""",G12,""",", ",""",H12,""",", ",""",I12,""",", ",""",J12,""",", ",""",K12,""",", ",""",L12,""",", ",""",M12,""",", ",""",N12,""",", ",""",O12,""",", ",""",P12,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S12" t="s" s="15">
+        <v>338</v>
+      </c>
+      <c r="S12" t="s" s="20">
         <f>CONCATENATE(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12)</f>
-      </c>
-      <c r="T12" s="16"/>
-      <c r="U12" t="b" s="17">
+        <v>339</v>
+      </c>
+      <c r="T12" t="s" s="20">
+        <v>339</v>
+      </c>
+      <c r="U12" t="b" s="22">
         <f>EXACT(S12,T12)</f>
         <v>1</v>
       </c>
-      <c r="V12" s="16"/>
     </row>
     <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="A13" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s" s="19">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s" s="20">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s" s="20">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s" s="20">
+        <v>147</v>
+      </c>
+      <c r="H13" t="s" s="20">
+        <v>148</v>
+      </c>
+      <c r="I13" t="s" s="20">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s" s="20">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s" s="20">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s" s="20">
+        <v>152</v>
+      </c>
+      <c r="M13" t="s" s="20">
+        <v>153</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" t="s" s="20">
+        <f>CONCATENATE(""",D13,""",", ",""",E13,""",", ",""",F13,""",", ",""",G13,""",", ",""",H13,""",", ",""",I13,""",", ",""",J13,""",", ",""",K13,""",", ",""",L13,""",", ",""",M13,""",", ",""",N13,""",", ",""",O13,""",", ",""",P13,""",", ")</f>
+        <v>154</v>
+      </c>
+      <c r="S13" t="s" s="20">
+        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
+        <v>155</v>
+      </c>
+      <c r="T13" t="s" s="20">
+        <v>155</v>
+      </c>
+      <c r="U13" t="b" s="22">
+        <f>EXACT(S13,T13)</f>
         <v>1</v>
       </c>
-      <c r="D13" t="s" s="14">
-        <v>110</v>
-      </c>
-      <c r="E13" t="s" s="15">
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="19">
+        <v>156</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" t="s" s="20">
+        <f>CONCATENATE(""",D14,""",", ",""",E14,""",", ",""",F14,""",", ",""",G14,""",", ",""",H14,""",", ",""",I14,""",", ",""",J14,""",", ",""",K14,""",", ",""",L14,""",", ",""",M14,""",", ",""",N14,""",", ",""",O14,""",", ",""",P14,""",", ")</f>
+        <v>157</v>
+      </c>
+      <c r="S14" t="s" s="20">
+        <f>CONCATENATE(D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14)</f>
+        <v>156</v>
+      </c>
+      <c r="T14" t="s" s="20">
+        <v>156</v>
+      </c>
+      <c r="U14" t="b" s="22">
+        <f>EXACT(S14,T14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s" s="17">
+        <v>158</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="19">
+        <v>169</v>
+      </c>
+      <c r="E15" t="s" s="20">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s" s="20">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s" s="20">
+        <v>161</v>
+      </c>
+      <c r="H15" t="s" s="20">
+        <v>162</v>
+      </c>
+      <c r="I15" t="s" s="20">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s" s="20">
         <v>111</v>
       </c>
-      <c r="F13" t="s" s="15">
-        <v>112</v>
-      </c>
-      <c r="G13" t="s" s="15">
-        <v>113</v>
-      </c>
-      <c r="H13" t="s" s="15">
-        <v>114</v>
-      </c>
-      <c r="I13" t="s" s="15">
-        <v>115</v>
-      </c>
-      <c r="J13" t="s" s="15">
-        <v>116</v>
-      </c>
-      <c r="K13" t="s" s="15">
-        <v>117</v>
-      </c>
-      <c r="L13" t="s" s="15">
-        <v>118</v>
-      </c>
-      <c r="M13" t="s" s="15">
-        <v>119</v>
-      </c>
-      <c r="N13" t="s" s="15">
-        <v>120</v>
-      </c>
-      <c r="O13" t="s" s="15">
-        <v>121</v>
-      </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" t="s" s="15">
-        <f>CONCATENATE(""",D13,""",", ",""",E13,""",", ",""",F13,""",", ",""",G13,""",", ",""",H13,""",", ",""",I13,""",", ",""",J13,""",", ",""",K13,""",", ",""",L13,""",", ",""",M13,""",", ",""",N13,""",", ",""",O13,""",", ",""",P13,""",", ")</f>
-        <v>122</v>
-      </c>
-      <c r="S13" t="s" s="15">
-        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
+      <c r="K15" t="s" s="20">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s" s="20">
+        <v>196</v>
+      </c>
+      <c r="M15" t="s" s="20">
+        <v>166</v>
+      </c>
+      <c r="N15" t="s" s="20">
+        <v>167</v>
+      </c>
+      <c r="O15" t="s" s="20">
+        <v>210</v>
+      </c>
+      <c r="P15" t="s" s="20">
+        <v>195</v>
+      </c>
+      <c r="Q15" s="21"/>
+      <c r="R15" t="s" s="20">
+        <f>CONCATENATE(""",D15,""",", ",""",E15,""",", ",""",F15,""",", ",""",G15,""",", ",""",H15,""",", ",""",I15,""",", ",""",J15,""",", ",""",K15,""",", ",""",L15,""",", ",""",M15,""",", ",""",N15,""",", ",""",O15,""",", ",""",P15,""",", ")</f>
+        <v>340</v>
+      </c>
+      <c r="S15" t="s" s="20">
+        <f>CONCATENATE(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15)</f>
+        <v>341</v>
+      </c>
+      <c r="T15" t="s" s="20">
+        <v>341</v>
+      </c>
+      <c r="U15" t="b" s="22">
+        <f>EXACT(S15,T15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s" s="17">
+        <v>158</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="19">
+        <v>173</v>
+      </c>
+      <c r="E16" t="s" s="20">
+        <v>174</v>
+      </c>
+      <c r="F16" t="s" s="20">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s" s="20">
+        <v>176</v>
+      </c>
+      <c r="H16" t="s" s="20">
+        <v>177</v>
+      </c>
+      <c r="I16" t="s" s="20">
+        <v>178</v>
+      </c>
+      <c r="J16" t="s" s="20">
+        <v>179</v>
+      </c>
+      <c r="K16" t="s" s="20">
         <v>123</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" t="b" s="17">
-        <f>EXACT(S13,T13)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="16"/>
-    </row>
-    <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="L16" t="s" s="20">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="20">
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="20">
+        <v>183</v>
+      </c>
+      <c r="O16" t="s" s="20">
+        <v>197</v>
+      </c>
+      <c r="P16" t="s" s="20">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="21"/>
+      <c r="R16" t="s" s="20">
+        <f>CONCATENATE(""",D16,""",", ",""",E16,""",", ",""",F16,""",", ",""",G16,""",", ",""",H16,""",", ",""",I16,""",", ",""",J16,""",", ",""",K16,""",", ",""",L16,""",", ",""",M16,""",", ",""",N16,""",", ",""",O16,""",", ",""",P16,""",", ")</f>
+        <v>342</v>
+      </c>
+      <c r="S16" t="s" s="20">
+        <f>CONCATENATE(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16)</f>
+        <v>343</v>
+      </c>
+      <c r="T16" t="s" s="20">
+        <v>343</v>
+      </c>
+      <c r="U16" t="b" s="22">
+        <f>EXACT(S16,T16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s" s="17">
+        <v>158</v>
+      </c>
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s" s="19">
+        <v>186</v>
+      </c>
+      <c r="E17" t="s" s="20">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s" s="20">
+        <v>188</v>
+      </c>
+      <c r="G17" t="s" s="20">
+        <v>189</v>
+      </c>
+      <c r="H17" t="s" s="20">
+        <v>190</v>
+      </c>
+      <c r="I17" t="s" s="20">
+        <v>191</v>
+      </c>
+      <c r="J17" t="s" s="20">
+        <v>192</v>
+      </c>
+      <c r="K17" t="s" s="20">
+        <v>193</v>
+      </c>
+      <c r="L17" t="s" s="20">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="20">
+        <v>140</v>
+      </c>
+      <c r="N17" t="s" s="20">
+        <v>344</v>
+      </c>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" t="s" s="20">
+        <f>CONCATENATE(""",D17,""",", ",""",E17,""",", ",""",F17,""",", ",""",G17,""",", ",""",H17,""",", ",""",I17,""",", ",""",J17,""",", ",""",K17,""",", ",""",L17,""",", ",""",M17,""",", ",""",N17,""",", ",""",O17,""",", ",""",P17,""",", ")</f>
+        <v>345</v>
+      </c>
+      <c r="S17" t="s" s="20">
+        <f>CONCATENATE(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17)</f>
+        <v>346</v>
+      </c>
+      <c r="T17" t="s" s="20">
+        <v>346</v>
+      </c>
+      <c r="U17" t="b" s="22">
+        <f>EXACT(S17,T17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s" s="17">
+        <v>158</v>
+      </c>
+      <c r="C18" s="18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s" s="19">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s" s="20">
+        <v>201</v>
+      </c>
+      <c r="F18" t="s" s="20">
+        <v>202</v>
+      </c>
+      <c r="G18" t="s" s="20">
+        <v>203</v>
+      </c>
+      <c r="H18" t="s" s="20">
+        <v>204</v>
+      </c>
+      <c r="I18" t="s" s="20">
+        <v>205</v>
+      </c>
+      <c r="J18" t="s" s="20">
+        <v>206</v>
+      </c>
+      <c r="K18" t="s" s="20">
+        <v>207</v>
+      </c>
+      <c r="L18" t="s" s="20">
+        <v>208</v>
+      </c>
+      <c r="M18" t="s" s="20">
+        <v>209</v>
+      </c>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" t="s" s="20">
+        <f>CONCATENATE(""",D18,""",", ",""",E18,""",", ",""",F18,""",", ",""",G18,""",", ",""",H18,""",", ",""",I18,""",", ",""",J18,""",", ",""",K18,""",", ",""",L18,""",", ",""",M18,""",", ",""",N18,""",", ",""",O18,""",", ",""",P18,""",", ")</f>
+        <v>347</v>
+      </c>
+      <c r="S18" t="s" s="20">
+        <f>CONCATENATE(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18)</f>
+        <v>348</v>
+      </c>
+      <c r="T18" t="s" s="20">
+        <v>348</v>
+      </c>
+      <c r="U18" t="b" s="22">
+        <f>EXACT(S18,T18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s" s="17">
+        <v>214</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="19">
+        <v>294</v>
+      </c>
+      <c r="E19" t="s" s="20">
+        <v>215</v>
+      </c>
+      <c r="F19" t="s" s="20">
+        <v>216</v>
+      </c>
+      <c r="G19" t="s" s="20">
+        <v>217</v>
+      </c>
+      <c r="H19" t="s" s="20">
+        <v>218</v>
+      </c>
+      <c r="I19" t="s" s="20">
+        <v>219</v>
+      </c>
+      <c r="J19" t="s" s="20">
+        <v>220</v>
+      </c>
+      <c r="K19" t="s" s="20">
+        <v>221</v>
+      </c>
+      <c r="L19" t="s" s="20">
+        <v>222</v>
+      </c>
+      <c r="M19" t="s" s="20">
+        <v>223</v>
+      </c>
+      <c r="N19" t="s" s="20">
+        <v>224</v>
+      </c>
+      <c r="O19" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="P19" s="23"/>
+      <c r="Q19" t="s" s="20">
+        <v>349</v>
+      </c>
+      <c r="R19" t="s" s="20">
+        <f>CONCATENATE(""",D19,""",", ",""",E19,""",", ",""",F19,""",", ",""",G19,""",", ",""",H19,""",", ",""",I19,""",", ",""",J19,""",", ",""",K19,""",", ",""",L19,""",", ",""",M19,""",", ",""",N19,""",", ",""",O19,""",", ",""",P19,""",", ")</f>
+        <v>350</v>
+      </c>
+      <c r="S19" t="s" s="20">
+        <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19)</f>
+        <v>351</v>
+      </c>
+      <c r="T19" t="s" s="20">
+        <v>351</v>
+      </c>
+      <c r="U19" t="b" s="22">
+        <f>EXACT(S19,T19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B20" t="s" s="17">
+        <v>214</v>
+      </c>
+      <c r="C20" s="18">
         <v>2</v>
       </c>
-      <c r="D14" t="s" s="14">
-        <v>124</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" t="s" s="15">
-        <f>CONCATENATE(""",D14,""",", ",""",E14,""",", ",""",F14,""",", ",""",G14,""",", ",""",H14,""",", ",""",I14,""",", ",""",J14,""",", ",""",K14,""",", ",""",L14,""",", ",""",M14,""",", ",""",N14,""",", ",""",O14,""",", ",""",P14,""",", ")</f>
-        <v>125</v>
-      </c>
-      <c r="S14" t="s" s="15">
-        <f>CONCATENATE(D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14)</f>
-        <v>124</v>
-      </c>
-      <c r="T14" s="16"/>
-      <c r="U14" t="b" s="17">
-        <f>EXACT(S14,T14)</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="16"/>
-    </row>
-    <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="D20" t="s" s="19">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s" s="20">
+        <v>231</v>
+      </c>
+      <c r="F20" t="s" s="20">
+        <v>232</v>
+      </c>
+      <c r="G20" t="s" s="20">
+        <v>233</v>
+      </c>
+      <c r="H20" t="s" s="20">
+        <v>234</v>
+      </c>
+      <c r="I20" t="s" s="20">
+        <v>235</v>
+      </c>
+      <c r="J20" t="s" s="20">
+        <v>236</v>
+      </c>
+      <c r="K20" t="s" s="20">
+        <v>237</v>
+      </c>
+      <c r="L20" t="s" s="20">
+        <v>238</v>
+      </c>
+      <c r="M20" t="s" s="20">
+        <v>239</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" t="s" s="20">
+        <v>255</v>
+      </c>
+      <c r="P20" t="s" s="20">
+        <v>226</v>
+      </c>
+      <c r="Q20" s="21"/>
+      <c r="R20" t="s" s="20">
+        <f>CONCATENATE(""",D20,""",", ",""",E20,""",", ",""",F20,""",", ",""",G20,""",", ",""",H20,""",", ",""",I20,""",", ",""",J20,""",", ",""",K20,""",", ",""",L20,""",", ",""",M20,""",", ",""",N20,""",", ",""",O20,""",", ",""",P20,""",", ")</f>
+        <v>352</v>
+      </c>
+      <c r="S20" t="s" s="20">
+        <f>CONCATENATE(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20)</f>
+        <v>353</v>
+      </c>
+      <c r="T20" t="s" s="20">
+        <v>353</v>
+      </c>
+      <c r="U20" t="b" s="22">
+        <f>EXACT(S20,T20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s" s="17">
+        <v>214</v>
+      </c>
+      <c r="C21" s="18">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="14">
-        <v>126</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" t="s" s="15">
-        <f>CONCATENATE(""",D15,""",", ",""",E15,""",", ",""",F15,""",", ",""",G15,""",", ",""",H15,""",", ",""",I15,""",", ",""",J15,""",", ",""",K15,""",", ",""",L15,""",", ",""",M15,""",", ",""",N15,""",", ",""",O15,""",", ",""",P15,""",", ")</f>
-        <v>127</v>
-      </c>
-      <c r="S15" t="s" s="15">
-        <f>CONCATENATE(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15)</f>
-        <v>126</v>
-      </c>
-      <c r="T15" s="16"/>
-      <c r="U15" t="b" s="17">
-        <f>EXACT(S15,T15)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="16"/>
-    </row>
-    <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="D21" t="s" s="19">
+        <v>244</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>245</v>
+      </c>
+      <c r="F21" t="s" s="20">
+        <v>246</v>
+      </c>
+      <c r="G21" t="s" s="20">
+        <v>247</v>
+      </c>
+      <c r="H21" t="s" s="20">
+        <v>248</v>
+      </c>
+      <c r="I21" t="s" s="20">
+        <v>249</v>
+      </c>
+      <c r="J21" t="s" s="20">
+        <v>250</v>
+      </c>
+      <c r="K21" t="s" s="20">
+        <v>251</v>
+      </c>
+      <c r="L21" t="s" s="20">
+        <v>252</v>
+      </c>
+      <c r="M21" t="s" s="20">
+        <v>253</v>
+      </c>
+      <c r="N21" t="s" s="20">
+        <v>277</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" t="s" s="20">
+        <f>CONCATENATE(""",D21,""",", ",""",E21,""",", ",""",F21,""",", ",""",G21,""",", ",""",H21,""",", ",""",I21,""",", ",""",J21,""",", ",""",K21,""",", ",""",L21,""",", ",""",M21,""",", ",""",N21,""",", ",""",O21,""",", ",""",P21,""",", ")</f>
+        <v>354</v>
+      </c>
+      <c r="S21" t="s" s="20">
+        <f>CONCATENATE(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21)</f>
+        <v>355</v>
+      </c>
+      <c r="T21" t="s" s="20">
+        <v>355</v>
+      </c>
+      <c r="U21" t="b" s="22">
+        <f>EXACT(S21,T21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s" s="17">
+        <v>214</v>
+      </c>
+      <c r="C22" s="18">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="14">
-        <v>128</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" t="s" s="15">
-        <f>CONCATENATE(""",D16,""",", ",""",E16,""",", ",""",F16,""",", ",""",G16,""",", ",""",H16,""",", ",""",I16,""",", ",""",J16,""",", ",""",K16,""",", ",""",L16,""",", ",""",M16,""",", ",""",N16,""",", ",""",O16,""",", ",""",P16,""",", ")</f>
-        <v>129</v>
-      </c>
-      <c r="S16" t="s" s="15">
-        <f>CONCATENATE(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16)</f>
-        <v>128</v>
-      </c>
-      <c r="T16" s="16"/>
-      <c r="U16" t="b" s="17">
-        <f>EXACT(S16,T16)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="16"/>
-    </row>
-    <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B17" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="D22" t="s" s="19">
+        <v>258</v>
+      </c>
+      <c r="E22" t="s" s="20">
+        <v>259</v>
+      </c>
+      <c r="F22" t="s" s="20">
+        <v>260</v>
+      </c>
+      <c r="G22" t="s" s="20">
+        <v>261</v>
+      </c>
+      <c r="H22" t="s" s="20">
+        <v>262</v>
+      </c>
+      <c r="I22" t="s" s="20">
+        <v>263</v>
+      </c>
+      <c r="J22" t="s" s="20">
+        <v>264</v>
+      </c>
+      <c r="K22" t="s" s="20">
+        <v>265</v>
+      </c>
+      <c r="L22" t="s" s="20">
+        <v>266</v>
+      </c>
+      <c r="M22" t="s" s="20">
+        <v>267</v>
+      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" t="s" s="20">
+        <f>CONCATENATE(""",D22,""",", ",""",E22,""",", ",""",F22,""",", ",""",G22,""",", ",""",H22,""",", ",""",I22,""",", ",""",J22,""",", ",""",K22,""",", ",""",L22,""",", ",""",M22,""",", ",""",N22,""",", ",""",O22,""",", ",""",P22,""",", ")</f>
+        <v>268</v>
+      </c>
+      <c r="S22" t="s" s="20">
+        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22)</f>
+        <v>269</v>
+      </c>
+      <c r="T22" t="s" s="20">
+        <v>269</v>
+      </c>
+      <c r="U22" t="b" s="22">
+        <f>EXACT(S22,T22)</f>
         <v>1</v>
       </c>
-      <c r="D17" t="s" s="14">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s" s="15">
-        <v>90</v>
-      </c>
-      <c r="F17" t="s" s="15">
-        <v>91</v>
-      </c>
-      <c r="G17" t="s" s="15">
-        <v>92</v>
-      </c>
-      <c r="H17" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="I17" t="s" s="15">
-        <v>94</v>
-      </c>
-      <c r="J17" t="s" s="15">
-        <v>95</v>
-      </c>
-      <c r="K17" t="s" s="15">
-        <v>96</v>
-      </c>
-      <c r="L17" t="s" s="15">
-        <v>97</v>
-      </c>
-      <c r="M17" t="s" s="15">
-        <v>98</v>
-      </c>
-      <c r="N17" t="s" s="15">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s" s="15">
-        <v>100</v>
-      </c>
-      <c r="P17" t="s" s="15">
-        <v>101</v>
-      </c>
-      <c r="Q17" t="s" s="15">
-        <v>132</v>
-      </c>
-      <c r="R17" t="s" s="15">
-        <f>CONCATENATE(""",D17,""",", ",""",E17,""",", ",""",F17,""",", ",""",G17,""",", ",""",H17,""",", ",""",I17,""",", ",""",J17,""",", ",""",K17,""",", ",""",L17,""",", ",""",M17,""",", ",""",N17,""",", ",""",O17,""",", ",""",P17,""",", ")</f>
-        <v>103</v>
-      </c>
-      <c r="S17" t="s" s="15">
-        <f>CONCATENATE(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17)</f>
-        <v>104</v>
-      </c>
-      <c r="T17" s="16"/>
-      <c r="U17" t="b" s="17">
-        <f>EXACT(S17,T17)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="16"/>
-    </row>
-    <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B18" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="C18" s="13">
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B23" t="s" s="17">
+        <v>270</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s" s="19">
+        <v>281</v>
+      </c>
+      <c r="E23" t="s" s="20">
+        <v>271</v>
+      </c>
+      <c r="F23" t="s" s="20">
+        <v>240</v>
+      </c>
+      <c r="G23" t="s" s="20">
+        <v>273</v>
+      </c>
+      <c r="H23" t="s" s="20">
+        <v>274</v>
+      </c>
+      <c r="I23" t="s" s="20">
+        <v>275</v>
+      </c>
+      <c r="J23" t="s" s="20">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s" s="20">
+        <v>276</v>
+      </c>
+      <c r="L23" t="s" s="20">
+        <v>306</v>
+      </c>
+      <c r="M23" t="s" s="20">
+        <v>278</v>
+      </c>
+      <c r="N23" t="s" s="20">
+        <v>279</v>
+      </c>
+      <c r="O23" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" t="s" s="20">
+        <f>CONCATENATE(""",D23,""",", ",""",E23,""",", ",""",F23,""",", ",""",G23,""",", ",""",H23,""",", ",""",I23,""",", ",""",J23,""",", ",""",K23,""",", ",""",L23,""",", ",""",M23,""",", ",""",N23,""",", ",""",O23,""",", ",""",P23,""",", ")</f>
+        <v>356</v>
+      </c>
+      <c r="S23" t="s" s="20">
+        <f>CONCATENATE(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23)</f>
+        <v>357</v>
+      </c>
+      <c r="T23" t="s" s="20">
+        <v>357</v>
+      </c>
+      <c r="U23" t="b" s="22">
+        <f>EXACT(S23,T23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B24" t="s" s="17">
+        <v>270</v>
+      </c>
+      <c r="C24" s="18">
         <v>2</v>
       </c>
-      <c r="D18" t="s" s="14">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s" s="15">
-        <v>134</v>
-      </c>
-      <c r="F18" t="s" s="15">
-        <v>135</v>
-      </c>
-      <c r="G18" t="s" s="15">
-        <v>136</v>
-      </c>
-      <c r="H18" t="s" s="15">
-        <v>137</v>
-      </c>
-      <c r="I18" t="s" s="15">
-        <v>138</v>
-      </c>
-      <c r="J18" t="s" s="15">
-        <v>139</v>
-      </c>
-      <c r="K18" t="s" s="15">
-        <v>140</v>
-      </c>
-      <c r="L18" t="s" s="15">
-        <v>141</v>
-      </c>
-      <c r="M18" t="s" s="15">
-        <v>142</v>
-      </c>
-      <c r="N18" t="s" s="15">
-        <v>143</v>
-      </c>
-      <c r="O18" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" t="s" s="15">
-        <f>CONCATENATE(""",D18,""",", ",""",E18,""",", ",""",F18,""",", ",""",G18,""",", ",""",H18,""",", ",""",I18,""",", ",""",J18,""",", ",""",K18,""",", ",""",L18,""",", ",""",M18,""",", ",""",N18,""",", ",""",O18,""",", ",""",P18,""",", ")</f>
-        <v>144</v>
-      </c>
-      <c r="S18" t="s" s="15">
-        <f>CONCATENATE(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18)</f>
-        <v>145</v>
-      </c>
-      <c r="T18" s="16"/>
-      <c r="U18" t="b" s="17">
-        <f>EXACT(S18,T18)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="16"/>
-    </row>
-    <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B19" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="D24" t="s" s="19">
+        <v>285</v>
+      </c>
+      <c r="E24" t="s" s="20">
+        <v>286</v>
+      </c>
+      <c r="F24" t="s" s="20">
+        <v>287</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" t="s" s="20">
+        <v>288</v>
+      </c>
+      <c r="I24" t="s" s="20">
+        <v>289</v>
+      </c>
+      <c r="J24" t="s" s="20">
+        <v>290</v>
+      </c>
+      <c r="K24" t="s" s="20">
+        <v>291</v>
+      </c>
+      <c r="L24" t="s" s="20">
+        <v>292</v>
+      </c>
+      <c r="M24" t="s" s="20">
+        <v>293</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" t="s" s="20">
+        <v>307</v>
+      </c>
+      <c r="P24" t="s" s="20">
+        <v>282</v>
+      </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" t="s" s="20">
+        <f>CONCATENATE(""",D24,""",", ",""",E24,""",", ",""",F24,""",", ",""",G24,""",", ",""",H24,""",", ",""",I24,""",", ",""",J24,""",", ",""",K24,""",", ",""",L24,""",", ",""",M24,""",", ",""",N24,""",", ",""",O24,""",", ",""",P24,""",", ")</f>
+        <v>358</v>
+      </c>
+      <c r="S24" t="s" s="20">
+        <f>CONCATENATE(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24,P24)</f>
+        <v>359</v>
+      </c>
+      <c r="T24" t="s" s="20">
+        <v>359</v>
+      </c>
+      <c r="U24" t="b" s="22">
+        <f>EXACT(S24,T24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s" s="17">
+        <v>270</v>
+      </c>
+      <c r="C25" s="18">
         <v>3</v>
       </c>
-      <c r="D19" t="s" s="14">
-        <v>146</v>
-      </c>
-      <c r="E19" t="s" s="15">
-        <v>147</v>
-      </c>
-      <c r="F19" t="s" s="15">
-        <v>148</v>
-      </c>
-      <c r="G19" t="s" s="15">
-        <v>149</v>
-      </c>
-      <c r="H19" t="s" s="15">
-        <v>150</v>
-      </c>
-      <c r="I19" t="s" s="15">
-        <v>151</v>
-      </c>
-      <c r="J19" t="s" s="15">
-        <v>152</v>
-      </c>
-      <c r="K19" t="s" s="15">
-        <v>153</v>
-      </c>
-      <c r="L19" t="s" s="15">
-        <v>154</v>
-      </c>
-      <c r="M19" t="s" s="15">
-        <v>155</v>
-      </c>
-      <c r="N19" t="s" s="15">
-        <v>156</v>
-      </c>
-      <c r="O19" t="s" s="15">
-        <v>107</v>
-      </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" t="s" s="15">
-        <f>CONCATENATE(""",D19,""",", ",""",E19,""",", ",""",F19,""",", ",""",G19,""",", ",""",H19,""",", ",""",I19,""",", ",""",J19,""",", ",""",K19,""",", ",""",L19,""",", ",""",M19,""",", ",""",N19,""",", ",""",O19,""",", ",""",P19,""",", ")</f>
-        <v>157</v>
-      </c>
-      <c r="S19" t="s" s="15">
-        <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19)</f>
-        <v>158</v>
-      </c>
-      <c r="T19" s="16"/>
-      <c r="U19" t="b" s="17">
-        <f>EXACT(S19,T19)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="16"/>
-    </row>
-    <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B20" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="D25" s="24"/>
+      <c r="E25" s="23"/>
+      <c r="F25" t="s" s="20">
+        <v>298</v>
+      </c>
+      <c r="G25" t="s" s="20">
+        <v>299</v>
+      </c>
+      <c r="H25" t="s" s="20">
+        <v>300</v>
+      </c>
+      <c r="I25" t="s" s="20">
+        <v>301</v>
+      </c>
+      <c r="J25" t="s" s="20">
+        <v>302</v>
+      </c>
+      <c r="K25" t="s" s="20">
+        <v>303</v>
+      </c>
+      <c r="L25" t="s" s="20">
+        <v>304</v>
+      </c>
+      <c r="M25" t="s" s="20">
+        <v>254</v>
+      </c>
+      <c r="N25" t="s" s="20">
+        <v>272</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" t="s" s="20">
+        <f>CONCATENATE(""",D25,""",", ",""",E25,""",", ",""",F25,""",", ",""",G25,""",", ",""",H25,""",", ",""",I25,""",", ",""",J25,""",", ",""",K25,""",", ",""",L25,""",", ",""",M25,""",", ",""",N25,""",", ",""",O25,""",", ",""",P25,""",", ")</f>
+        <v>360</v>
+      </c>
+      <c r="S25" t="s" s="20">
+        <f>CONCATENATE(D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25)</f>
+        <v>361</v>
+      </c>
+      <c r="T25" t="s" s="20">
+        <v>361</v>
+      </c>
+      <c r="U25" t="b" s="22">
+        <f>EXACT(S25,T25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" t="s" s="17">
+        <v>213</v>
+      </c>
+      <c r="B26" t="s" s="17">
+        <v>270</v>
+      </c>
+      <c r="C26" s="18">
         <v>4</v>
       </c>
-      <c r="D20" t="s" s="14">
-        <v>159</v>
-      </c>
-      <c r="E20" t="s" s="15">
-        <v>160</v>
-      </c>
-      <c r="F20" t="s" s="15">
-        <v>161</v>
-      </c>
-      <c r="G20" t="s" s="15">
-        <v>162</v>
-      </c>
-      <c r="H20" t="s" s="15">
-        <v>163</v>
-      </c>
-      <c r="I20" t="s" s="15">
-        <v>164</v>
-      </c>
-      <c r="J20" t="s" s="15">
-        <v>165</v>
-      </c>
-      <c r="K20" t="s" s="15">
-        <v>166</v>
-      </c>
-      <c r="L20" t="s" s="15">
-        <v>167</v>
-      </c>
-      <c r="M20" t="s" s="15">
-        <v>168</v>
-      </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" t="s" s="15">
-        <f>CONCATENATE(""",D20,""",", ",""",E20,""",", ",""",F20,""",", ",""",G20,""",", ",""",H20,""",", ",""",I20,""",", ",""",J20,""",", ",""",K20,""",", ",""",L20,""",", ",""",M20,""",", ",""",N20,""",", ",""",O20,""",", ",""",P20,""",", ")</f>
-        <v>169</v>
-      </c>
-      <c r="S20" t="s" s="15">
-        <f>CONCATENATE(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20)</f>
-        <v>170</v>
-      </c>
-      <c r="T20" s="16"/>
-      <c r="U20" t="b" s="17">
-        <f>EXACT(S20,T20)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="16"/>
-    </row>
-    <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B21" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="C21" s="13">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s" s="14">
-        <v>171</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" t="s" s="15">
-        <f>CONCATENATE(""",D21,""",", ",""",E21,""",", ",""",F21,""",", ",""",G21,""",", ",""",H21,""",", ",""",I21,""",", ",""",J21,""",", ",""",K21,""",", ",""",L21,""",", ",""",M21,""",", ",""",N21,""",", ",""",O21,""",", ",""",P21,""",", ")</f>
-        <v>172</v>
-      </c>
-      <c r="S21" t="s" s="15">
-        <f>CONCATENATE(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21)</f>
-        <v>171</v>
-      </c>
-      <c r="T21" s="16"/>
-      <c r="U21" t="b" s="17">
-        <f>EXACT(S21,T21)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="16"/>
-    </row>
-    <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B22" t="s" s="12">
-        <v>173</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="D26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" t="s" s="20">
+        <v>310</v>
+      </c>
+      <c r="H26" t="s" s="20">
+        <v>311</v>
+      </c>
+      <c r="I26" t="s" s="20">
+        <v>312</v>
+      </c>
+      <c r="J26" t="s" s="20">
+        <v>313</v>
+      </c>
+      <c r="K26" t="s" s="20">
+        <v>314</v>
+      </c>
+      <c r="L26" t="s" s="20">
+        <v>315</v>
+      </c>
+      <c r="M26" t="s" s="20">
+        <v>316</v>
+      </c>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" t="s" s="20">
+        <f>CONCATENATE(""",D26,""",", ",""",E26,""",", ",""",F26,""",", ",""",G26,""",", ",""",H26,""",", ",""",I26,""",", ",""",J26,""",", ",""",K26,""",", ",""",L26,""",", ",""",M26,""",", ",""",N26,""",", ",""",O26,""",", ",""",P26,""",", ")</f>
+        <v>362</v>
+      </c>
+      <c r="S26" t="s" s="20">
+        <f>CONCATENATE(D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26,P26)</f>
+        <v>363</v>
+      </c>
+      <c r="T26" t="s" s="20">
+        <v>363</v>
+      </c>
+      <c r="U26" t="b" s="22">
+        <f>EXACT(S26,T26)</f>
         <v>1</v>
       </c>
-      <c r="D22" t="s" s="14">
-        <v>110</v>
-      </c>
-      <c r="E22" t="s" s="15">
-        <v>111</v>
-      </c>
-      <c r="F22" t="s" s="15">
-        <v>112</v>
-      </c>
-      <c r="G22" t="s" s="15">
-        <v>113</v>
-      </c>
-      <c r="H22" t="s" s="15">
-        <v>114</v>
-      </c>
-      <c r="I22" t="s" s="15">
-        <v>115</v>
-      </c>
-      <c r="J22" t="s" s="15">
-        <v>116</v>
-      </c>
-      <c r="K22" t="s" s="15">
-        <v>117</v>
-      </c>
-      <c r="L22" t="s" s="15">
-        <v>118</v>
-      </c>
-      <c r="M22" t="s" s="15">
-        <v>119</v>
-      </c>
-      <c r="N22" t="s" s="15">
-        <v>120</v>
-      </c>
-      <c r="O22" t="s" s="15">
-        <v>121</v>
-      </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" t="s" s="15">
-        <f>CONCATENATE(""",D22,""",", ",""",E22,""",", ",""",F22,""",", ",""",G22,""",", ",""",H22,""",", ",""",I22,""",", ",""",J22,""",", ",""",K22,""",", ",""",L22,""",", ",""",M22,""",", ",""",N22,""",", ",""",O22,""",", ",""",P22,""",", ")</f>
-        <v>122</v>
-      </c>
-      <c r="S22" t="s" s="15">
-        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22)</f>
-        <v>123</v>
-      </c>
-      <c r="T22" s="16"/>
-      <c r="U22" t="b" s="17">
-        <f>EXACT(S22,T22)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="16"/>
-    </row>
-    <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B23" t="s" s="12">
-        <v>173</v>
-      </c>
-      <c r="C23" s="13">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s" s="14">
-        <v>174</v>
-      </c>
-      <c r="E23" t="s" s="15">
-        <v>175</v>
-      </c>
-      <c r="F23" t="s" s="15">
-        <v>176</v>
-      </c>
-      <c r="G23" t="s" s="15">
-        <v>177</v>
-      </c>
-      <c r="H23" t="s" s="15">
-        <v>178</v>
-      </c>
-      <c r="I23" t="s" s="15">
-        <v>179</v>
-      </c>
-      <c r="J23" t="s" s="15">
-        <v>180</v>
-      </c>
-      <c r="K23" t="s" s="15">
-        <v>140</v>
-      </c>
-      <c r="L23" t="s" s="15">
-        <v>181</v>
-      </c>
-      <c r="M23" t="s" s="15">
-        <v>182</v>
-      </c>
-      <c r="N23" t="s" s="15">
-        <v>183</v>
-      </c>
-      <c r="O23" t="s" s="15">
-        <v>124</v>
-      </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" t="s" s="15">
-        <f>CONCATENATE(""",D23,""",", ",""",E23,""",", ",""",F23,""",", ",""",G23,""",", ",""",H23,""",", ",""",I23,""",", ",""",J23,""",", ",""",K23,""",", ",""",L23,""",", ",""",M23,""",", ",""",N23,""",", ",""",O23,""",", ",""",P23,""",", ")</f>
-        <v>184</v>
-      </c>
-      <c r="S23" t="s" s="15">
-        <f>CONCATENATE(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23)</f>
-        <v>185</v>
-      </c>
-      <c r="T23" s="16"/>
-      <c r="U23" t="b" s="17">
-        <f>EXACT(S23,T23)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="16"/>
-    </row>
-    <row r="24" ht="18.3" customHeight="1">
-      <c r="A24" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B24" t="s" s="12">
-        <v>173</v>
-      </c>
-      <c r="C24" s="13">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s" s="14">
-        <v>186</v>
-      </c>
-      <c r="E24" t="s" s="15">
-        <v>187</v>
-      </c>
-      <c r="F24" t="s" s="15">
-        <v>188</v>
-      </c>
-      <c r="G24" t="s" s="15">
-        <v>189</v>
-      </c>
-      <c r="H24" t="s" s="15">
-        <v>190</v>
-      </c>
-      <c r="I24" t="s" s="15">
-        <v>191</v>
-      </c>
-      <c r="J24" t="s" s="15">
-        <v>192</v>
-      </c>
-      <c r="K24" t="s" s="15">
-        <v>193</v>
-      </c>
-      <c r="L24" t="s" s="15">
-        <v>194</v>
-      </c>
-      <c r="M24" t="s" s="15">
-        <v>195</v>
-      </c>
-      <c r="N24" t="s" s="15">
-        <v>196</v>
-      </c>
-      <c r="O24" t="s" s="15">
-        <v>126</v>
-      </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" t="s" s="15">
-        <f>CONCATENATE(""",D24,""",", ",""",E24,""",", ",""",F24,""",", ",""",G24,""",", ",""",H24,""",", ",""",I24,""",", ",""",J24,""",", ",""",K24,""",", ",""",L24,""",", ",""",M24,""",", ",""",N24,""",", ",""",O24,""",", ",""",P24,""",", ")</f>
-        <v>197</v>
-      </c>
-      <c r="S24" t="s" s="15">
-        <f>CONCATENATE(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24,P24)</f>
-        <v>198</v>
-      </c>
-      <c r="T24" s="16"/>
-      <c r="U24" t="b" s="17">
-        <f>EXACT(S24,T24)</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="16"/>
-    </row>
-    <row r="25" ht="18.3" customHeight="1">
-      <c r="A25" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="B25" t="s" s="12">
-        <v>173</v>
-      </c>
-      <c r="C25" s="13">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s" s="14">
-        <v>199</v>
-      </c>
-      <c r="E25" t="s" s="15">
-        <v>200</v>
-      </c>
-      <c r="F25" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="G25" t="s" s="15">
-        <v>202</v>
-      </c>
-      <c r="H25" t="s" s="15">
-        <v>203</v>
-      </c>
-      <c r="I25" t="s" s="15">
-        <v>204</v>
-      </c>
-      <c r="J25" t="s" s="15">
-        <v>205</v>
-      </c>
-      <c r="K25" t="s" s="15">
-        <v>206</v>
-      </c>
-      <c r="L25" t="s" s="15">
-        <v>207</v>
-      </c>
-      <c r="M25" t="s" s="15">
-        <v>208</v>
-      </c>
-      <c r="N25" t="s" s="15">
-        <v>128</v>
-      </c>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" t="s" s="15">
-        <f>CONCATENATE(""",D25,""",", ",""",E25,""",", ",""",F25,""",", ",""",G25,""",", ",""",H25,""",", ",""",I25,""",", ",""",J25,""",", ",""",K25,""",", ",""",L25,""",", ",""",M25,""",", ",""",N25,""",", ",""",O25,""",", ",""",P25,""",", ")</f>
-        <v>209</v>
-      </c>
-      <c r="S25" t="s" s="15">
-        <f>CONCATENATE(D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25)</f>
-        <v>210</v>
-      </c>
-      <c r="T25" s="16"/>
-      <c r="U25" t="b" s="17">
-        <f>EXACT(S25,T25)</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="16"/>
-    </row>
-    <row r="26" ht="18.3" customHeight="1">
-      <c r="A26" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="12">
-        <v>212</v>
-      </c>
-      <c r="C26" s="13">
+    </row>
+    <row r="27" ht="18.3" customHeight="1">
+      <c r="A27" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" t="s" s="20">
+        <v>321</v>
+      </c>
+      <c r="R27" t="s" s="20">
+        <f>CONCATENATE(""",D27,""",", ",""",E27,""",", ",""",F27,""",", ",""",G27,""",", ",""",H27,""",", ",""",I27,""",", ",""",J27,""",", ",""",K27,""",", ",""",L27,""",", ",""",M27,""",", ",""",N27,""",", ",""",O27,""",", ",""",P27,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S27" t="s" s="20">
+        <f>CONCATENATE(D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27,P27)</f>
+      </c>
+      <c r="T27" s="21"/>
+      <c r="U27" t="b" s="22">
+        <f>EXACT(S27,T27)</f>
         <v>1</v>
       </c>
-      <c r="D26" t="s" s="14">
-        <v>213</v>
-      </c>
-      <c r="E26" t="s" s="15">
-        <v>214</v>
-      </c>
-      <c r="F26" t="s" s="15">
-        <v>215</v>
-      </c>
-      <c r="G26" t="s" s="15">
-        <v>216</v>
-      </c>
-      <c r="H26" t="s" s="15">
-        <v>217</v>
-      </c>
-      <c r="I26" t="s" s="15">
-        <v>218</v>
-      </c>
-      <c r="J26" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="K26" t="s" s="15">
-        <v>220</v>
-      </c>
-      <c r="L26" t="s" s="15">
-        <v>221</v>
-      </c>
-      <c r="M26" t="s" s="15">
-        <v>222</v>
-      </c>
-      <c r="N26" t="s" s="15">
-        <v>85</v>
-      </c>
-      <c r="O26" t="s" s="15">
-        <v>223</v>
-      </c>
-      <c r="P26" t="s" s="15">
-        <v>224</v>
-      </c>
-      <c r="Q26" t="s" s="15">
-        <v>225</v>
-      </c>
-      <c r="R26" t="s" s="15">
-        <f>CONCATENATE(""",D26,""",", ",""",E26,""",", ",""",F26,""",", ",""",G26,""",", ",""",H26,""",", ",""",I26,""",", ",""",J26,""",", ",""",K26,""",", ",""",L26,""",", ",""",M26,""",", ",""",N26,""",", ",""",O26,""",", ",""",P26,""",", ")</f>
-        <v>226</v>
-      </c>
-      <c r="S26" t="s" s="15">
-        <f>CONCATENATE(D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26,P26)</f>
-        <v>227</v>
-      </c>
-      <c r="T26" s="16"/>
-      <c r="U26" t="b" s="17">
-        <f>EXACT(S26,T26)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="16"/>
-    </row>
-    <row r="27" ht="18.3" customHeight="1">
-      <c r="A27" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="B27" t="s" s="12">
-        <v>212</v>
-      </c>
-      <c r="C27" s="13">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s" s="14">
-        <v>228</v>
-      </c>
-      <c r="E27" t="s" s="15">
-        <v>229</v>
-      </c>
-      <c r="F27" t="s" s="15">
-        <v>230</v>
-      </c>
-      <c r="G27" t="s" s="15">
-        <v>231</v>
-      </c>
-      <c r="H27" t="s" s="15">
-        <v>232</v>
-      </c>
-      <c r="I27" t="s" s="15">
-        <v>233</v>
-      </c>
-      <c r="J27" t="s" s="15">
-        <v>234</v>
-      </c>
-      <c r="K27" t="s" s="15">
-        <v>235</v>
-      </c>
-      <c r="L27" t="s" s="15">
-        <v>236</v>
-      </c>
-      <c r="M27" t="s" s="15">
-        <v>237</v>
-      </c>
-      <c r="N27" t="s" s="15">
-        <v>238</v>
-      </c>
-      <c r="O27" t="s" s="15">
-        <v>239</v>
-      </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" t="s" s="15">
-        <f>CONCATENATE(""",D27,""",", ",""",E27,""",", ",""",F27,""",", ",""",G27,""",", ",""",H27,""",", ",""",I27,""",", ",""",J27,""",", ",""",K27,""",", ",""",L27,""",", ",""",M27,""",", ",""",N27,""",", ",""",O27,""",", ",""",P27,""",", ")</f>
-        <v>240</v>
-      </c>
-      <c r="S27" t="s" s="15">
-        <f>CONCATENATE(D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27,P27)</f>
-        <v>241</v>
-      </c>
-      <c r="T27" s="16"/>
-      <c r="U27" t="b" s="17">
-        <f>EXACT(S27,T27)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="16"/>
     </row>
     <row r="28" ht="18.3" customHeight="1">
-      <c r="A28" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="B28" t="s" s="12">
-        <v>212</v>
-      </c>
-      <c r="C28" s="13">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s" s="14">
-        <v>242</v>
-      </c>
-      <c r="E28" t="s" s="15">
-        <v>243</v>
-      </c>
-      <c r="F28" t="s" s="15">
-        <v>244</v>
-      </c>
-      <c r="G28" t="s" s="15">
-        <v>245</v>
-      </c>
-      <c r="H28" t="s" s="15">
-        <v>246</v>
-      </c>
-      <c r="I28" t="s" s="15">
-        <v>247</v>
-      </c>
-      <c r="J28" t="s" s="15">
-        <v>248</v>
-      </c>
-      <c r="K28" t="s" s="15">
-        <v>249</v>
-      </c>
-      <c r="L28" t="s" s="15">
-        <v>250</v>
-      </c>
-      <c r="M28" t="s" s="15">
-        <v>251</v>
-      </c>
-      <c r="N28" t="s" s="15">
-        <v>252</v>
-      </c>
-      <c r="O28" t="s" s="15">
-        <v>253</v>
-      </c>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" t="s" s="15">
+      <c r="A28" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" t="s" s="20">
+        <v>323</v>
+      </c>
+      <c r="R28" t="s" s="20">
         <f>CONCATENATE(""",D28,""",", ",""",E28,""",", ",""",F28,""",", ",""",G28,""",", ",""",H28,""",", ",""",I28,""",", ",""",J28,""",", ",""",K28,""",", ",""",L28,""",", ",""",M28,""",", ",""",N28,""",", ",""",O28,""",", ",""",P28,""",", ")</f>
-        <v>254</v>
-      </c>
-      <c r="S28" t="s" s="15">
+        <v>322</v>
+      </c>
+      <c r="S28" t="s" s="20">
         <f>CONCATENATE(D28,E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28,P28)</f>
-        <v>255</v>
-      </c>
-      <c r="T28" s="16"/>
-      <c r="U28" t="b" s="17">
+      </c>
+      <c r="T28" s="21"/>
+      <c r="U28" t="b" s="22">
         <f>EXACT(S28,T28)</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" ht="18.3" customHeight="1">
-      <c r="A29" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="B29" t="s" s="12">
-        <v>212</v>
-      </c>
-      <c r="C29" s="13">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s" s="14">
-        <v>256</v>
-      </c>
-      <c r="E29" t="s" s="15">
-        <v>257</v>
-      </c>
-      <c r="F29" t="s" s="15">
-        <v>258</v>
-      </c>
-      <c r="G29" t="s" s="15">
-        <v>259</v>
-      </c>
-      <c r="H29" t="s" s="15">
-        <v>260</v>
-      </c>
-      <c r="I29" t="s" s="15">
-        <v>261</v>
-      </c>
-      <c r="J29" t="s" s="15">
-        <v>262</v>
-      </c>
-      <c r="K29" t="s" s="15">
-        <v>263</v>
-      </c>
-      <c r="L29" t="s" s="15">
-        <v>264</v>
-      </c>
-      <c r="M29" t="s" s="15">
-        <v>265</v>
-      </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" t="s" s="15">
+      <c r="A29" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" t="s" s="20">
+        <v>324</v>
+      </c>
+      <c r="R29" t="s" s="20">
         <f>CONCATENATE(""",D29,""",", ",""",E29,""",", ",""",F29,""",", ",""",G29,""",", ",""",H29,""",", ",""",I29,""",", ",""",J29,""",", ",""",K29,""",", ",""",L29,""",", ",""",M29,""",", ",""",N29,""",", ",""",O29,""",", ",""",P29,""",", ")</f>
-        <v>266</v>
-      </c>
-      <c r="S29" t="s" s="15">
-        <f>CONCATENATE(D29,E29,F29,G29,H29,I29,J29,K29,L29,M29,N29,O29,P29)</f>
-        <v>267</v>
-      </c>
-      <c r="T29" s="16"/>
-      <c r="U29" t="b" s="17">
+        <v>322</v>
+      </c>
+      <c r="S29" t="s" s="20">
+        <v>364</v>
+      </c>
+      <c r="T29" t="s" s="20">
+        <v>364</v>
+      </c>
+      <c r="U29" t="b" s="22">
         <f>EXACT(S29,T29)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" ht="18.3" customHeight="1">
-      <c r="A30" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="B30" t="s" s="12">
-        <v>268</v>
-      </c>
-      <c r="C30" s="13">
+      <c r="A30" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" t="s" s="20">
+        <v>325</v>
+      </c>
+      <c r="R30" t="s" s="20">
+        <f>CONCATENATE(""",D30,""",", ",""",E30,""",", ",""",F30,""",", ",""",G30,""",", ",""",H30,""",", ",""",I30,""",", ",""",J30,""",", ",""",K30,""",", ",""",L30,""",", ",""",M30,""",", ",""",N30,""",", ",""",O30,""",", ",""",P30,""",", ")</f>
+        <v>322</v>
+      </c>
+      <c r="S30" t="s" s="20">
+        <f>CONCATENATE(D30,E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30,P30)</f>
+      </c>
+      <c r="T30" s="21"/>
+      <c r="U30" t="b" s="22">
+        <f>EXACT(S30,T30)</f>
         <v>1</v>
       </c>
-      <c r="D30" t="s" s="14">
-        <v>269</v>
-      </c>
-      <c r="E30" t="s" s="15">
-        <v>270</v>
-      </c>
-      <c r="F30" t="s" s="15">
-        <v>271</v>
-      </c>
-      <c r="G30" t="s" s="15">
-        <v>272</v>
-      </c>
-      <c r="H30" t="s" s="15">
-        <v>273</v>
-      </c>
-      <c r="I30" t="s" s="15">
-        <v>274</v>
-      </c>
-      <c r="J30" t="s" s="15">
-        <v>275</v>
-      </c>
-      <c r="K30" t="s" s="15">
-        <v>276</v>
-      </c>
-      <c r="L30" t="s" s="15">
-        <v>277</v>
-      </c>
-      <c r="M30" t="s" s="15">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s" s="15">
-        <v>279</v>
-      </c>
-      <c r="O30" t="s" s="15">
-        <v>280</v>
-      </c>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" t="s" s="15">
-        <f>CONCATENATE(""",D30,""",", ",""",E30,""",", ",""",F30,""",", ",""",G30,""",", ",""",H30,""",", ",""",I30,""",", ",""",J30,""",", ",""",K30,""",", ",""",L30,""",", ",""",M30,""",", ",""",N30,""",", ",""",O30,""",", ",""",P30,""",", ")</f>
-        <v>281</v>
-      </c>
-      <c r="S30" t="s" s="15">
-        <f>CONCATENATE(D30,E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30,P30)</f>
-        <v>282</v>
-      </c>
-      <c r="T30" s="16"/>
-      <c r="U30" t="b" s="17">
-        <f>EXACT(S30,T30)</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="16"/>
     </row>
     <row r="31" ht="18.3" customHeight="1">
-      <c r="A31" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="B31" t="s" s="12">
-        <v>268</v>
-      </c>
-      <c r="C31" s="13">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="14">
-        <v>283</v>
-      </c>
-      <c r="E31" t="s" s="15">
-        <v>284</v>
-      </c>
-      <c r="F31" t="s" s="15">
-        <v>285</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" t="s" s="15">
-        <v>286</v>
-      </c>
-      <c r="I31" t="s" s="15">
-        <v>287</v>
-      </c>
-      <c r="J31" t="s" s="15">
-        <v>288</v>
-      </c>
-      <c r="K31" t="s" s="15">
-        <v>289</v>
-      </c>
-      <c r="L31" t="s" s="15">
-        <v>290</v>
-      </c>
-      <c r="M31" t="s" s="15">
-        <v>291</v>
-      </c>
-      <c r="N31" t="s" s="15">
-        <v>292</v>
-      </c>
-      <c r="O31" t="s" s="15">
-        <v>293</v>
-      </c>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" t="s" s="15">
+      <c r="A31" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" t="s" s="20">
+        <v>326</v>
+      </c>
+      <c r="R31" t="s" s="20">
         <f>CONCATENATE(""",D31,""",", ",""",E31,""",", ",""",F31,""",", ",""",G31,""",", ",""",H31,""",", ",""",I31,""",", ",""",J31,""",", ",""",K31,""",", ",""",L31,""",", ",""",M31,""",", ",""",N31,""",", ",""",O31,""",", ",""",P31,""",", ")</f>
-        <v>294</v>
-      </c>
-      <c r="S31" t="s" s="15">
+        <v>322</v>
+      </c>
+      <c r="S31" t="s" s="20">
         <f>CONCATENATE(D31,E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31,P31)</f>
-        <v>295</v>
-      </c>
-      <c r="T31" s="16"/>
-      <c r="U31" t="b" s="17">
+      </c>
+      <c r="T31" s="21"/>
+      <c r="U31" t="b" s="22">
         <f>EXACT(S31,T31)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" ht="18.3" customHeight="1">
-      <c r="A32" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="B32" t="s" s="12">
-        <v>268</v>
-      </c>
-      <c r="C32" s="13">
-        <v>3</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" t="s" s="15">
-        <v>296</v>
-      </c>
-      <c r="G32" t="s" s="15">
-        <v>297</v>
-      </c>
-      <c r="H32" t="s" s="15">
-        <v>298</v>
-      </c>
-      <c r="I32" t="s" s="15">
-        <v>299</v>
-      </c>
-      <c r="J32" t="s" s="15">
-        <v>300</v>
-      </c>
-      <c r="K32" t="s" s="15">
-        <v>301</v>
-      </c>
-      <c r="L32" t="s" s="15">
-        <v>302</v>
-      </c>
-      <c r="M32" t="s" s="15">
-        <v>303</v>
-      </c>
-      <c r="N32" t="s" s="15">
-        <v>304</v>
-      </c>
-      <c r="O32" t="s" s="15">
-        <v>305</v>
-      </c>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" t="s" s="15">
+      <c r="A32" t="s" s="17">
+        <v>320</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" t="s" s="20">
+        <v>327</v>
+      </c>
+      <c r="R32" t="s" s="20">
         <f>CONCATENATE(""",D32,""",", ",""",E32,""",", ",""",F32,""",", ",""",G32,""",", ",""",H32,""",", ",""",I32,""",", ",""",J32,""",", ",""",K32,""",", ",""",L32,""",", ",""",M32,""",", ",""",N32,""",", ",""",O32,""",", ",""",P32,""",", ")</f>
-        <v>306</v>
-      </c>
-      <c r="S32" t="s" s="15">
+        <v>322</v>
+      </c>
+      <c r="S32" t="s" s="20">
         <f>CONCATENATE(D32,E32,F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32)</f>
-        <v>307</v>
-      </c>
-      <c r="T32" s="16"/>
-      <c r="U32" t="b" s="17">
+      </c>
+      <c r="T32" s="21"/>
+      <c r="U32" t="b" s="22">
         <f>EXACT(S32,T32)</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="33" ht="18.3" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="B33" t="s" s="12">
-        <v>268</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" t="s" s="15">
-        <v>308</v>
-      </c>
-      <c r="H33" t="s" s="15">
-        <v>309</v>
-      </c>
-      <c r="I33" t="s" s="15">
-        <v>310</v>
-      </c>
-      <c r="J33" t="s" s="15">
-        <v>311</v>
-      </c>
-      <c r="K33" t="s" s="15">
-        <v>312</v>
-      </c>
-      <c r="L33" t="s" s="15">
-        <v>313</v>
-      </c>
-      <c r="M33" t="s" s="15">
-        <v>314</v>
-      </c>
-      <c r="N33" t="s" s="15">
-        <v>315</v>
-      </c>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" t="s" s="15">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" t="s" s="20">
         <f>CONCATENATE(""",D33,""",", ",""",E33,""",", ",""",F33,""",", ",""",G33,""",", ",""",H33,""",", ",""",I33,""",", ",""",J33,""",", ",""",K33,""",", ",""",L33,""",", ",""",M33,""",", ",""",N33,""",", ",""",O33,""",", ",""",P33,""",", ")</f>
-        <v>316</v>
-      </c>
-      <c r="S33" t="s" s="15">
+        <v>322</v>
+      </c>
+      <c r="S33" t="s" s="20">
         <f>CONCATENATE(D33,E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33)</f>
-        <v>317</v>
-      </c>
-      <c r="T33" s="16"/>
-      <c r="U33" t="b" s="17">
+      </c>
+      <c r="T33" s="21"/>
+      <c r="U33" t="b" s="22">
         <f>EXACT(S33,T33)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" ht="18.3" customHeight="1">
-      <c r="A34" t="s" s="12">
-        <v>318</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" t="s" s="15">
-        <v>319</v>
-      </c>
-      <c r="R34" t="s" s="15">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" t="s" s="20">
         <f>CONCATENATE(""",D34,""",", ",""",E34,""",", ",""",F34,""",", ",""",G34,""",", ",""",H34,""",", ",""",I34,""",", ",""",J34,""",", ",""",K34,""",", ",""",L34,""",", ",""",M34,""",", ",""",N34,""",", ",""",O34,""",", ",""",P34,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S34" t="s" s="15">
+        <v>322</v>
+      </c>
+      <c r="S34" t="s" s="20">
         <f>CONCATENATE(D34,E34,F34,G34,H34,I34,J34,K34,L34,M34,N34,O34,P34)</f>
       </c>
-      <c r="T34" s="16"/>
-      <c r="U34" t="b" s="17">
+      <c r="T34" s="21"/>
+      <c r="U34" t="b" s="22">
         <f>EXACT(S34,T34)</f>
         <v>1</v>
       </c>
-      <c r="V34" s="16"/>
-    </row>
-    <row r="35" ht="18.3" customHeight="1">
-      <c r="A35" t="s" s="12">
-        <v>318</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" t="s" s="15">
-        <v>320</v>
-      </c>
-      <c r="R35" t="s" s="15">
-        <f>CONCATENATE(""",D35,""",", ",""",E35,""",", ",""",F35,""",", ",""",G35,""",", ",""",H35,""",", ",""",I35,""",", ",""",J35,""",", ",""",K35,""",", ",""",L35,""",", ",""",M35,""",", ",""",N35,""",", ",""",O35,""",", ",""",P35,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S35" t="s" s="15">
-        <f>CONCATENATE(D35,E35,F35,G35,H35,I35,J35,K35,L35,M35,N35,O35,P35)</f>
-      </c>
-      <c r="T35" s="16"/>
-      <c r="U35" t="b" s="17">
-        <f>EXACT(S35,T35)</f>
-        <v>1</v>
-      </c>
-      <c r="V35" s="16"/>
-    </row>
-    <row r="36" ht="18.3" customHeight="1">
-      <c r="A36" t="s" s="12">
-        <v>318</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" t="s" s="15">
-        <v>321</v>
-      </c>
-      <c r="R36" t="s" s="15">
-        <f>CONCATENATE(""",D36,""",", ",""",E36,""",", ",""",F36,""",", ",""",G36,""",", ",""",H36,""",", ",""",I36,""",", ",""",J36,""",", ",""",K36,""",", ",""",L36,""",", ",""",M36,""",", ",""",N36,""",", ",""",O36,""",", ",""",P36,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S36" t="s" s="15">
-        <f>CONCATENATE(D36,E36,F36,G36,H36,I36,J36,K36,L36,M36,N36,O36,P36)</f>
-      </c>
-      <c r="T36" s="16"/>
-      <c r="U36" t="b" s="17">
-        <f>EXACT(S36,T36)</f>
-        <v>1</v>
-      </c>
-      <c r="V36" s="16"/>
-    </row>
-    <row r="37" ht="18.3" customHeight="1">
-      <c r="A37" t="s" s="12">
-        <v>318</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" t="s" s="15">
-        <v>322</v>
-      </c>
-      <c r="R37" t="s" s="15">
-        <f>CONCATENATE(""",D37,""",", ",""",E37,""",", ",""",F37,""",", ",""",G37,""",", ",""",H37,""",", ",""",I37,""",", ",""",J37,""",", ",""",K37,""",", ",""",L37,""",", ",""",M37,""",", ",""",N37,""",", ",""",O37,""",", ",""",P37,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S37" t="s" s="15">
-        <f>CONCATENATE(D37,E37,F37,G37,H37,I37,J37,K37,L37,M37,N37,O37,P37)</f>
-      </c>
-      <c r="T37" s="16"/>
-      <c r="U37" t="b" s="17">
-        <f>EXACT(S37,T37)</f>
-        <v>1</v>
-      </c>
-      <c r="V37" s="16"/>
-    </row>
-    <row r="38" ht="18.3" customHeight="1">
-      <c r="A38" t="s" s="12">
-        <v>318</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" t="s" s="15">
-        <v>323</v>
-      </c>
-      <c r="R38" t="s" s="15">
-        <f>CONCATENATE(""",D38,""",", ",""",E38,""",", ",""",F38,""",", ",""",G38,""",", ",""",H38,""",", ",""",I38,""",", ",""",J38,""",", ",""",K38,""",", ",""",L38,""",", ",""",M38,""",", ",""",N38,""",", ",""",O38,""",", ",""",P38,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S38" t="s" s="15">
-        <f>CONCATENATE(D38,E38,F38,G38,H38,I38,J38,K38,L38,M38,N38,O38,P38)</f>
-      </c>
-      <c r="T38" s="16"/>
-      <c r="U38" t="b" s="17">
-        <f>EXACT(S38,T38)</f>
-        <v>1</v>
-      </c>
-      <c r="V38" s="16"/>
-    </row>
-    <row r="39" ht="18.3" customHeight="1">
-      <c r="A39" t="s" s="12">
-        <v>318</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" t="s" s="15">
-        <v>324</v>
-      </c>
-      <c r="R39" t="s" s="15">
-        <f>CONCATENATE(""",D39,""",", ",""",E39,""",", ",""",F39,""",", ",""",G39,""",", ",""",H39,""",", ",""",I39,""",", ",""",J39,""",", ",""",K39,""",", ",""",L39,""",", ",""",M39,""",", ",""",N39,""",", ",""",O39,""",", ",""",P39,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S39" t="s" s="15">
-        <f>CONCATENATE(D39,E39,F39,G39,H39,I39,J39,K39,L39,M39,N39,O39,P39)</f>
-      </c>
-      <c r="T39" s="16"/>
-      <c r="U39" t="b" s="17">
-        <f>EXACT(S39,T39)</f>
-        <v>1</v>
-      </c>
-      <c r="V39" s="16"/>
-    </row>
-    <row r="40" ht="18.3" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" t="s" s="15">
-        <f>CONCATENATE(""",D40,""",", ",""",E40,""",", ",""",F40,""",", ",""",G40,""",", ",""",H40,""",", ",""",I40,""",", ",""",J40,""",", ",""",K40,""",", ",""",L40,""",", ",""",M40,""",", ",""",N40,""",", ",""",O40,""",", ",""",P40,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S40" t="s" s="15">
-        <f>CONCATENATE(D40,E40,F40,G40,H40,I40,J40,K40,L40,M40,N40,O40,P40)</f>
-      </c>
-      <c r="T40" s="16"/>
-      <c r="U40" t="b" s="17">
-        <f>EXACT(S40,T40)</f>
-        <v>1</v>
-      </c>
-      <c r="V40" s="16"/>
-    </row>
-    <row r="41" ht="18.3" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" t="s" s="15">
-        <f>CONCATENATE(""",D41,""",", ",""",E41,""",", ",""",F41,""",", ",""",G41,""",", ",""",H41,""",", ",""",I41,""",", ",""",J41,""",", ",""",K41,""",", ",""",L41,""",", ",""",M41,""",", ",""",N41,""",", ",""",O41,""",", ",""",P41,""",", ")</f>
-        <v>109</v>
-      </c>
-      <c r="S41" t="s" s="15">
-        <f>CONCATENATE(D41,E41,F41,G41,H41,I41,J41,K41,L41,M41,N41,O41,P41)</f>
-      </c>
-      <c r="T41" s="16"/>
-      <c r="U41" t="b" s="17">
-        <f>EXACT(S41,T41)</f>
-        <v>1</v>
-      </c>
-      <c r="V41" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:V1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:U1"/>
     <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q17:Q25"/>
+    <mergeCell ref="Q10:Q18"/>
     <mergeCell ref="Q3:Q8"/>
-    <mergeCell ref="Q9:Q16"/>
-    <mergeCell ref="Q26:Q33"/>
+    <mergeCell ref="Q19:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/Karabiner/新JIS配列.xlsx
+++ b/Karabiner/新JIS配列.xlsx
@@ -5,35 +5,16 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="書き出しの概要" sheetId="1" r:id="rId4"/>
-    <sheet name="JIS - 新JIS配列用Complex Modificati" sheetId="2" r:id="rId5"/>
-    <sheet name="ANSI - 新JIS配列用Complex Modificat" sheetId="3" r:id="rId6"/>
+    <sheet name="JIS" sheetId="1" r:id="rId4"/>
+    <sheet name="ANSI" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
-  <si>
-    <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
-  </si>
-  <si>
-    <t>Numbersシート名</t>
-  </si>
-  <si>
-    <t>Numbers表名</t>
-  </si>
-  <si>
-    <t>Excelワークシート名</t>
-  </si>
-  <si>
-    <t>JIS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t>新JIS配列用Complex Modifications（for JIS keyboard）の仕様（と検査結果）</t>
-  </si>
-  <si>
-    <t>JIS - 新JIS配列用Complex Modificati</t>
   </si>
   <si>
     <t>Modifiers</t>
@@ -388,175 +369,178 @@
     <t>u</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"q", "w", "e", "r", "t", "y", "u", "i", "o", "p", "@", "[", "", </t>
+  </si>
+  <si>
+    <t>qwertyuiop@[</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"a", "s", "d", "f", "g", "h", "j", "k", "l", ";", ":", "]", "", </t>
+  </si>
+  <si>
+    <t>asdfghjkl;:]</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"z", "x", "c", "v", "b", "n", "m", ",", ".", "/", "", "", "", </t>
+  </si>
+  <si>
+    <t>zxcvbnm,./</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">" ", "", "", "", "", "", "", "", "", "", "", "", "", </t>
+  </si>
+  <si>
+    <t>Sft-Spc-</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"!", """, "#", "$", "%", "&amp;", "'", "(", ")", "=", "~", "|", "", </t>
+  </si>
+  <si>
+    <t>!"#$%&amp;'()=~|</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"q", "w", "e", "r", "t", "y", "u", "I", "o", "p", "@", "[", "", </t>
-  </si>
-  <si>
-    <t>qwertyuIop@[</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"a", "s", "d", "f", "g", "h", "j", "k", "l", ";", ":", "]", "", </t>
-  </si>
-  <si>
-    <t>asdfghjkl;:]</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"z", "x", "c", "v", "b", "n", "m", ",", ".", "/", "", "", "", </t>
-  </si>
-  <si>
-    <t>zxcvbnm,./</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">" ", "", "", "", "", "", "", "", "", "", "", "", "", </t>
-  </si>
-  <si>
-    <t>Sft-Spc-</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>‘</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"!", "“", "#", "$", "%", "&amp;", "‘", "(", ")", "=", "~", "|", "", </t>
-  </si>
-  <si>
-    <t>!“#$%&amp;‘()=~|</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>U</t>
   </si>
   <si>
     <t>O</t>
@@ -998,19 +982,13 @@
     <t>JISキーボードにおける、”゜むろ”の抑止</t>
   </si>
   <si>
-    <t>“grave_accent_and_tilde”（半/全キー）</t>
+    <t>JISキーボードにおける、“grave_accent_and_tilde”（半/全キー）</t>
   </si>
   <si>
     <t>Opt-Sft-0で”（）”</t>
   </si>
   <si>
     <t>全角ACRSXZは辞書に登録して変換するしかない</t>
-  </si>
-  <si>
-    <t>ANSI</t>
-  </si>
-  <si>
-    <t>ANSI - 新JIS配列用Complex Modificat</t>
   </si>
   <si>
     <t xml:space="preserve">ANSIキーボードのキートップに書かれている文字を半角で入力する
@@ -1023,9 +1001,6 @@
     <t>`1234567890-=</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>\</t>
   </si>
   <si>
@@ -1035,9 +1010,6 @@
     <t>qwertyuiop[]\</t>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
     <t xml:space="preserve">"a", "s", "d", "f", "g", "h", "j", "k", "l", ";", "'", "", "", </t>
   </si>
   <si>
@@ -1054,9 +1026,6 @@
   </si>
   <si>
     <t>QWERTYUIOP{}|</t>
-  </si>
-  <si>
-    <t>"</t>
   </si>
   <si>
     <t xml:space="preserve">"A", "S", "D", "F", "G", "H", "J", "K", "L", ":", """, "", "", </t>
@@ -1119,6 +1088,9 @@
   </si>
   <si>
     <t>テストしない</t>
+  </si>
+  <si>
+    <t>“grave_accent_and_tilde”（半/全キー）</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1137,17 +1109,6 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
@@ -1162,11 +1123,11 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="17"/>
+      <color indexed="14"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,25 +1142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1214,106 +1163,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,24 +1272,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1348,19 +1282,19 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1369,16 +1303,13 @@
     <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1393,16 +1324,16 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1425,9 +1356,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -3300,78 +3228,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>328</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'JIS - 新JIS配列用Complex Modificati'!R2C1" tooltip="" display="JIS - 新JIS配列用Complex Modificati"/>
-    <hyperlink ref="D12" location="'ANSI - 新JIS配列用Complex Modificat'!R2C1" tooltip="" display="ANSI - 新JIS配列用Complex Modificat"/>
-  </hyperlinks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
@@ -3380,1781 +3236,1829 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.8125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.25781" style="6" customWidth="1"/>
-    <col min="5" max="16" width="3.8125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="52" style="6" customWidth="1"/>
-    <col min="18" max="18" width="61.4297" style="6" customWidth="1"/>
-    <col min="19" max="19" width="28.0781" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.4375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="7.60156" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="19.6016" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.1875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.25781" style="1" customWidth="1"/>
+    <col min="5" max="16" width="3.8125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="52" style="1" customWidth="1"/>
+    <col min="18" max="18" width="61.4297" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.8906" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.7344" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.60156" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s" s="9">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="U2" t="s" s="4">
         <v>8</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s" s="9">
-        <v>14</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" t="s" s="11">
+      <c r="A3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="11">
+      <c r="I3" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s" s="13">
+      <c r="J3" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="K3" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="L3" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="M3" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="N3" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="14">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="J3" t="s" s="14">
+      <c r="R3" t="s" s="9">
+        <f>CONCATENATE(""",D3,""",", ",""",E3,""",", ",""",F3,""",", ",""",G3,""",", ",""",H3,""",", ",""",I3,""",", ",""",J3,""",", ",""",K3,""",", ",""",L3,""",", ",""",M3,""",", ",""",N3,""",", ",""",O3,""",", ",""",P3,""",", ")</f>
         <v>23</v>
       </c>
-      <c r="K3" t="s" s="14">
+      <c r="S3" t="s" s="9">
+        <f>CONCATENATE(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3)</f>
         <v>24</v>
       </c>
-      <c r="L3" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s" s="14">
-        <f>CONCATENATE(""",D3,""",", ",""",E3,""",", ",""",F3,""",", ",""",G3,""",", ",""",H3,""",", ",""",I3,""",", ",""",J3,""",", ",""",K3,""",", ",""",L3,""",", ",""",M3,""",", ",""",N3,""",", ",""",O3,""",", ",""",P3,""",", ")</f>
-        <v>29</v>
-      </c>
-      <c r="S3" t="s" s="14">
-        <f>CONCATENATE(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3)</f>
-        <v>30</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" t="b" s="16">
+      <c r="T3" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="U3" t="b" s="10">
         <f>EXACT(S3,T3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="A4" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="D4" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="K4" t="s" s="14">
         <v>32</v>
       </c>
-      <c r="F4" t="s" s="20">
+      <c r="L4" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="G4" t="s" s="20">
+      <c r="M4" t="s" s="14">
         <v>34</v>
       </c>
-      <c r="H4" t="s" s="20">
+      <c r="N4" t="s" s="14">
         <v>35</v>
       </c>
-      <c r="I4" t="s" s="20">
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" t="s" s="14">
+        <f>CONCATENATE(""",D4,""",", ",""",E4,""",", ",""",F4,""",", ",""",G4,""",", ",""",H4,""",", ",""",I4,""",", ",""",J4,""",", ",""",K4,""",", ",""",L4,""",", ",""",M4,""",", ",""",N4,""",", ",""",O4,""",", ",""",P4,""",", ")</f>
         <v>36</v>
       </c>
-      <c r="J4" t="s" s="20">
+      <c r="S4" t="s" s="14">
+        <f>CONCATENATE(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4)</f>
         <v>37</v>
       </c>
-      <c r="K4" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s" s="20">
-        <v>41</v>
-      </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" t="s" s="20">
-        <f>CONCATENATE(""",D4,""",", ",""",E4,""",", ",""",F4,""",", ",""",G4,""",", ",""",H4,""",", ",""",I4,""",", ",""",J4,""",", ",""",K4,""",", ",""",L4,""",", ",""",M4,""",", ",""",N4,""",", ",""",O4,""",", ",""",P4,""",", ")</f>
-        <v>42</v>
-      </c>
-      <c r="S4" t="s" s="20">
-        <f>CONCATENATE(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4)</f>
-        <v>43</v>
-      </c>
-      <c r="T4" s="21"/>
-      <c r="U4" t="b" s="22">
+      <c r="T4" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="U4" t="b" s="16">
         <f>EXACT(S4,T4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="A5" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" t="s" s="19">
+      <c r="D5" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s" s="14">
         <v>44</v>
       </c>
-      <c r="E5" t="s" s="20">
+      <c r="K5" t="s" s="14">
         <v>45</v>
       </c>
-      <c r="F5" t="s" s="20">
+      <c r="L5" t="s" s="14">
         <v>46</v>
       </c>
-      <c r="G5" t="s" s="20">
+      <c r="M5" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="H5" t="s" s="20">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" t="s" s="14">
+        <f>CONCATENATE(""",D5,""",", ",""",E5,""",", ",""",F5,""",", ",""",G5,""",", ",""",H5,""",", ",""",I5,""",", ",""",J5,""",", ",""",K5,""",", ",""",L5,""",", ",""",M5,""",", ",""",N5,""",", ",""",O5,""",", ",""",P5,""",", ")</f>
         <v>48</v>
       </c>
-      <c r="I5" t="s" s="20">
+      <c r="S5" t="s" s="14">
+        <f>CONCATENATE(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5)</f>
         <v>49</v>
       </c>
-      <c r="J5" t="s" s="20">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s" s="20">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s" s="20">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s" s="20">
-        <v>53</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" t="s" s="20">
-        <f>CONCATENATE(""",D5,""",", ",""",E5,""",", ",""",F5,""",", ",""",G5,""",", ",""",H5,""",", ",""",I5,""",", ",""",J5,""",", ",""",K5,""",", ",""",L5,""",", ",""",M5,""",", ",""",N5,""",", ",""",O5,""",", ",""",P5,""",", ")</f>
-        <v>54</v>
-      </c>
-      <c r="S5" t="s" s="20">
-        <f>CONCATENATE(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5)</f>
-        <v>55</v>
-      </c>
-      <c r="T5" s="21"/>
-      <c r="U5" t="b" s="22">
+      <c r="T5" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="U5" t="b" s="16">
         <f>EXACT(S5,T5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="17">
+      <c r="A6" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s" s="14">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s" s="14">
         <v>56</v>
       </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="19">
+      <c r="J6" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="E6" t="s" s="20">
+      <c r="K6" t="s" s="14">
         <v>58</v>
       </c>
-      <c r="F6" t="s" s="20">
+      <c r="L6" t="s" s="14">
         <v>59</v>
       </c>
-      <c r="G6" t="s" s="20">
+      <c r="M6" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="H6" t="s" s="20">
+      <c r="N6" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="I6" t="s" s="20">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" t="s" s="14">
+        <f>CONCATENATE(""",D6,""",", ",""",E6,""",", ",""",F6,""",", ",""",G6,""",", ",""",H6,""",", ",""",I6,""",", ",""",J6,""",", ",""",K6,""",", ",""",L6,""",", ",""",M6,""",", ",""",N6,""",", ",""",O6,""",", ",""",P6,""",", ")</f>
         <v>62</v>
       </c>
-      <c r="J6" t="s" s="20">
+      <c r="S6" t="s" s="14">
+        <f>CONCATENATE(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
         <v>63</v>
       </c>
-      <c r="K6" t="s" s="20">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s" s="20">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s" s="20">
-        <v>66</v>
-      </c>
-      <c r="N6" t="s" s="20">
-        <v>67</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" t="s" s="20">
-        <f>CONCATENATE(""",D6,""",", ",""",E6,""",", ",""",F6,""",", ",""",G6,""",", ",""",H6,""",", ",""",I6,""",", ",""",J6,""",", ",""",K6,""",", ",""",L6,""",", ",""",M6,""",", ",""",N6,""",", ",""",O6,""",", ",""",P6,""",", ")</f>
-        <v>68</v>
-      </c>
-      <c r="S6" t="s" s="20">
-        <f>CONCATENATE(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
-        <v>69</v>
-      </c>
-      <c r="T6" s="21"/>
-      <c r="U6" t="b" s="22">
+      <c r="T6" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="U6" t="b" s="16">
         <f>EXACT(S6,T6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="A7" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="19">
+      <c r="D7" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s" s="14">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s" s="14">
         <v>70</v>
       </c>
-      <c r="E7" t="s" s="20">
+      <c r="K7" t="s" s="14">
         <v>71</v>
       </c>
-      <c r="F7" t="s" s="20">
+      <c r="L7" t="s" s="14">
         <v>72</v>
       </c>
-      <c r="G7" t="s" s="20">
+      <c r="M7" t="s" s="14">
         <v>73</v>
       </c>
-      <c r="H7" t="s" s="20">
+      <c r="N7" t="s" s="14">
         <v>74</v>
       </c>
-      <c r="I7" t="s" s="20">
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" t="s" s="14">
+        <f>CONCATENATE(""",D7,""",", ",""",E7,""",", ",""",F7,""",", ",""",G7,""",", ",""",H7,""",", ",""",I7,""",", ",""",J7,""",", ",""",K7,""",", ",""",L7,""",", ",""",M7,""",", ",""",N7,""",", ",""",O7,""",", ",""",P7,""",", ")</f>
         <v>75</v>
       </c>
-      <c r="J7" t="s" s="20">
+      <c r="S7" t="s" s="14">
+        <f>CONCATENATE(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
         <v>76</v>
       </c>
-      <c r="K7" t="s" s="20">
-        <v>77</v>
-      </c>
-      <c r="L7" t="s" s="20">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s" s="20">
-        <v>79</v>
-      </c>
-      <c r="N7" t="s" s="20">
-        <v>80</v>
-      </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" t="s" s="20">
-        <f>CONCATENATE(""",D7,""",", ",""",E7,""",", ",""",F7,""",", ",""",G7,""",", ",""",H7,""",", ",""",I7,""",", ",""",J7,""",", ",""",K7,""",", ",""",L7,""",", ",""",M7,""",", ",""",N7,""",", ",""",O7,""",", ",""",P7,""",", ")</f>
-        <v>81</v>
-      </c>
-      <c r="S7" t="s" s="20">
-        <f>CONCATENATE(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
-        <v>82</v>
-      </c>
-      <c r="T7" s="21"/>
-      <c r="U7" t="b" s="22">
+      <c r="T7" t="s" s="14">
+        <v>76</v>
+      </c>
+      <c r="U7" t="b" s="16">
         <f>EXACT(S7,T7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="A8" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="19">
+      <c r="D8" t="s" s="13">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s" s="14">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="14">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s" s="14">
         <v>83</v>
       </c>
-      <c r="E8" t="s" s="20">
+      <c r="K8" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="F8" t="s" s="20">
+      <c r="L8" t="s" s="14">
         <v>85</v>
       </c>
-      <c r="G8" t="s" s="20">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" t="s" s="14">
+        <f>CONCATENATE(""",D8,""",", ",""",E8,""",", ",""",F8,""",", ",""",G8,""",", ",""",H8,""",", ",""",I8,""",", ",""",J8,""",", ",""",K8,""",", ",""",L8,""",", ",""",M8,""",", ",""",N8,""",", ",""",O8,""",", ",""",P8,""",", ")</f>
         <v>86</v>
       </c>
-      <c r="H8" t="s" s="20">
+      <c r="S8" t="s" s="14">
+        <f>CONCATENATE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8)</f>
         <v>87</v>
       </c>
-      <c r="I8" t="s" s="20">
-        <v>88</v>
-      </c>
-      <c r="J8" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="K8" t="s" s="20">
-        <v>90</v>
-      </c>
-      <c r="L8" t="s" s="20">
-        <v>91</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" t="s" s="20">
-        <f>CONCATENATE(""",D8,""",", ",""",E8,""",", ",""",F8,""",", ",""",G8,""",", ",""",H8,""",", ",""",I8,""",", ",""",J8,""",", ",""",K8,""",", ",""",L8,""",", ",""",M8,""",", ",""",N8,""",", ",""",O8,""",", ",""",P8,""",", ")</f>
-        <v>92</v>
-      </c>
-      <c r="S8" t="s" s="20">
-        <f>CONCATENATE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8)</f>
-        <v>93</v>
-      </c>
-      <c r="T8" s="21"/>
-      <c r="U8" t="b" s="22">
+      <c r="T8" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="U8" t="b" s="16">
         <f>EXACT(S8,T8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" t="s" s="17">
+      <c r="A9" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="13">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s" s="14">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s" s="14">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s" s="14">
         <v>94</v>
       </c>
-      <c r="B9" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="19">
+      <c r="J9" t="s" s="14">
         <v>95</v>
       </c>
-      <c r="E9" t="s" s="20">
+      <c r="K9" t="s" s="14">
         <v>96</v>
       </c>
-      <c r="F9" t="s" s="20">
+      <c r="L9" t="s" s="14">
         <v>97</v>
       </c>
-      <c r="G9" t="s" s="20">
+      <c r="M9" t="s" s="14">
         <v>98</v>
       </c>
-      <c r="H9" t="s" s="20">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" t="s" s="14">
         <v>99</v>
       </c>
-      <c r="I9" t="s" s="20">
+      <c r="R9" t="s" s="14">
+        <f>CONCATENATE(""",D9,""",", ",""",E9,""",", ",""",F9,""",", ",""",G9,""",", ",""",H9,""",", ",""",I9,""",", ",""",J9,""",", ",""",K9,""",", ",""",L9,""",", ",""",M9,""",", ",""",N9,""",", ",""",O9,""",", ",""",P9,""",", ")</f>
         <v>100</v>
       </c>
-      <c r="J9" t="s" s="20">
+      <c r="S9" t="s" s="14">
+        <f>CONCATENATE(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9)</f>
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="M9" t="s" s="20">
-        <v>104</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" t="s" s="20">
-        <v>105</v>
-      </c>
-      <c r="R9" t="s" s="20">
-        <f>CONCATENATE(""",D9,""",", ",""",E9,""",", ",""",F9,""",", ",""",G9,""",", ",""",H9,""",", ",""",I9,""",", ",""",J9,""",", ",""",K9,""",", ",""",L9,""",", ",""",M9,""",", ",""",N9,""",", ",""",O9,""",", ",""",P9,""",", ")</f>
-        <v>106</v>
-      </c>
-      <c r="S9" t="s" s="20">
-        <f>CONCATENATE(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9)</f>
-        <v>107</v>
-      </c>
-      <c r="T9" s="21"/>
-      <c r="U9" t="b" s="22">
+      <c r="T9" s="16">
+        <v>1234567890</v>
+      </c>
+      <c r="U9" t="b" s="16">
         <f>EXACT(S9,T9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" t="s" s="17">
+      <c r="A10" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="13">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s" s="14">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s" s="14">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s" s="14">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s" s="14">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s" s="14">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s" s="14">
+        <v>98</v>
+      </c>
+      <c r="N10" t="s" s="14">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s" s="14">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s" s="14">
+        <v>106</v>
+      </c>
+      <c r="Q10" t="s" s="14">
+        <v>107</v>
+      </c>
+      <c r="R10" t="s" s="14">
+        <f>CONCATENATE(""",D10,""",", ",""",E10,""",", ",""",F10,""",", ",""",G10,""",", ",""",H10,""",", ",""",I10,""",", ",""",J10,""",", ",""",K10,""",", ",""",L10,""",", ",""",M10,""",", ",""",N10,""",", ",""",O10,""",", ",""",P10,""",", ")</f>
         <v>108</v>
       </c>
-      <c r="B10" t="s" s="17">
+      <c r="S10" t="s" s="14">
+        <f>CONCATENATE(D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10)</f>
         <v>109</v>
       </c>
-      <c r="C10" s="18">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="19">
-        <v>95</v>
-      </c>
-      <c r="E10" t="s" s="20">
-        <v>96</v>
-      </c>
-      <c r="F10" t="s" s="20">
-        <v>97</v>
-      </c>
-      <c r="G10" t="s" s="20">
-        <v>98</v>
-      </c>
-      <c r="H10" t="s" s="20">
-        <v>99</v>
-      </c>
-      <c r="I10" t="s" s="20">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s" s="20">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s" s="20">
-        <v>104</v>
-      </c>
-      <c r="N10" t="s" s="20">
-        <v>110</v>
-      </c>
-      <c r="O10" t="s" s="20">
-        <v>111</v>
-      </c>
-      <c r="P10" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="Q10" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="R10" t="s" s="20">
-        <f>CONCATENATE(""",D10,""",", ",""",E10,""",", ",""",F10,""",", ",""",G10,""",", ",""",H10,""",", ",""",I10,""",", ",""",J10,""",", ",""",K10,""",", ",""",L10,""",", ",""",M10,""",", ",""",N10,""",", ",""",O10,""",", ",""",P10,""",", ")</f>
-        <v>114</v>
-      </c>
-      <c r="S10" t="s" s="20">
-        <f>CONCATENATE(D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10)</f>
-        <v>115</v>
-      </c>
-      <c r="T10" s="21"/>
-      <c r="U10" t="b" s="22">
+      <c r="T10" t="s" s="14">
+        <v>109</v>
+      </c>
+      <c r="U10" t="b" s="16">
         <f>EXACT(S10,T10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="A11" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C11" s="12">
         <v>2</v>
       </c>
-      <c r="D11" t="s" s="19">
+      <c r="D11" t="s" s="13">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s" s="14">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s" s="14">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s" s="14">
+        <v>113</v>
+      </c>
+      <c r="H11" t="s" s="14">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s" s="14">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s" s="14">
         <v>116</v>
       </c>
-      <c r="E11" t="s" s="20">
+      <c r="K11" t="s" s="14">
         <v>117</v>
       </c>
-      <c r="F11" t="s" s="20">
+      <c r="L11" t="s" s="14">
         <v>118</v>
       </c>
-      <c r="G11" t="s" s="20">
+      <c r="M11" t="s" s="14">
         <v>119</v>
       </c>
-      <c r="H11" t="s" s="20">
+      <c r="N11" t="s" s="14">
         <v>120</v>
       </c>
-      <c r="I11" t="s" s="20">
+      <c r="O11" t="s" s="14">
         <v>121</v>
       </c>
-      <c r="J11" t="s" s="20">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" t="s" s="14">
+        <f>CONCATENATE(""",D11,""",", ",""",E11,""",", ",""",F11,""",", ",""",G11,""",", ",""",H11,""",", ",""",I11,""",", ",""",J11,""",", ",""",K11,""",", ",""",L11,""",", ",""",M11,""",", ",""",N11,""",", ",""",O11,""",", ",""",P11,""",", ")</f>
         <v>122</v>
       </c>
-      <c r="K11" t="s" s="20">
+      <c r="S11" t="s" s="14">
+        <f>CONCATENATE(D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11)</f>
         <v>123</v>
       </c>
-      <c r="L11" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="M11" t="s" s="20">
-        <v>125</v>
-      </c>
-      <c r="N11" t="s" s="20">
-        <v>126</v>
-      </c>
-      <c r="O11" t="s" s="20">
-        <v>127</v>
-      </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" t="s" s="20">
-        <f>CONCATENATE(""",D11,""",", ",""",E11,""",", ",""",F11,""",", ",""",G11,""",", ",""",H11,""",", ",""",I11,""",", ",""",J11,""",", ",""",K11,""",", ",""",L11,""",", ",""",M11,""",", ",""",N11,""",", ",""",O11,""",", ",""",P11,""",", ")</f>
-        <v>128</v>
-      </c>
-      <c r="S11" t="s" s="20">
-        <f>CONCATENATE(D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11)</f>
-        <v>129</v>
-      </c>
-      <c r="T11" s="21"/>
-      <c r="U11" t="b" s="22">
+      <c r="T11" t="s" s="14">
+        <v>123</v>
+      </c>
+      <c r="U11" t="b" s="16">
         <f>EXACT(S11,T11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B12" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="A12" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C12" s="12">
         <v>3</v>
       </c>
-      <c r="D12" t="s" s="19">
+      <c r="D12" t="s" s="13">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s" s="14">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s" s="14">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s" s="14">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s" s="14">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s" s="14">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s" s="14">
         <v>130</v>
       </c>
-      <c r="E12" t="s" s="20">
+      <c r="K12" t="s" s="14">
         <v>131</v>
       </c>
-      <c r="F12" t="s" s="20">
+      <c r="L12" t="s" s="14">
         <v>132</v>
       </c>
-      <c r="G12" t="s" s="20">
+      <c r="M12" t="s" s="14">
         <v>133</v>
       </c>
-      <c r="H12" t="s" s="20">
+      <c r="N12" t="s" s="14">
         <v>134</v>
       </c>
-      <c r="I12" t="s" s="20">
+      <c r="O12" t="s" s="14">
         <v>135</v>
       </c>
-      <c r="J12" t="s" s="20">
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" t="s" s="14">
+        <f>CONCATENATE(""",D12,""",", ",""",E12,""",", ",""",F12,""",", ",""",G12,""",", ",""",H12,""",", ",""",I12,""",", ",""",J12,""",", ",""",K12,""",", ",""",L12,""",", ",""",M12,""",", ",""",N12,""",", ",""",O12,""",", ",""",P12,""",", ")</f>
         <v>136</v>
       </c>
-      <c r="K12" t="s" s="20">
+      <c r="S12" t="s" s="14">
+        <f>CONCATENATE(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12)</f>
         <v>137</v>
       </c>
-      <c r="L12" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M12" t="s" s="20">
-        <v>139</v>
-      </c>
-      <c r="N12" t="s" s="20">
-        <v>140</v>
-      </c>
-      <c r="O12" t="s" s="20">
-        <v>141</v>
-      </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" t="s" s="20">
-        <f>CONCATENATE(""",D12,""",", ",""",E12,""",", ",""",F12,""",", ",""",G12,""",", ",""",H12,""",", ",""",I12,""",", ",""",J12,""",", ",""",K12,""",", ",""",L12,""",", ",""",M12,""",", ",""",N12,""",", ",""",O12,""",", ",""",P12,""",", ")</f>
-        <v>142</v>
-      </c>
-      <c r="S12" t="s" s="20">
-        <f>CONCATENATE(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12)</f>
-        <v>143</v>
-      </c>
-      <c r="T12" s="21"/>
-      <c r="U12" t="b" s="22">
+      <c r="T12" t="s" s="14">
+        <v>137</v>
+      </c>
+      <c r="U12" t="b" s="16">
         <f>EXACT(S12,T12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="A13" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C13" s="12">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="19">
+      <c r="D13" t="s" s="13">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s" s="14">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s" s="14">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s" s="14">
+        <v>141</v>
+      </c>
+      <c r="H13" t="s" s="14">
+        <v>142</v>
+      </c>
+      <c r="I13" t="s" s="14">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s" s="14">
         <v>144</v>
       </c>
-      <c r="E13" t="s" s="20">
+      <c r="K13" t="s" s="14">
         <v>145</v>
       </c>
-      <c r="F13" t="s" s="20">
+      <c r="L13" t="s" s="14">
         <v>146</v>
       </c>
-      <c r="G13" t="s" s="20">
+      <c r="M13" t="s" s="14">
         <v>147</v>
       </c>
-      <c r="H13" t="s" s="20">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" t="s" s="14">
+        <f>CONCATENATE(""",D13,""",", ",""",E13,""",", ",""",F13,""",", ",""",G13,""",", ",""",H13,""",", ",""",I13,""",", ",""",J13,""",", ",""",K13,""",", ",""",L13,""",", ",""",M13,""",", ",""",N13,""",", ",""",O13,""",", ",""",P13,""",", ")</f>
         <v>148</v>
       </c>
-      <c r="I13" t="s" s="20">
+      <c r="S13" t="s" s="14">
+        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
         <v>149</v>
       </c>
-      <c r="J13" t="s" s="20">
-        <v>150</v>
-      </c>
-      <c r="K13" t="s" s="20">
-        <v>151</v>
-      </c>
-      <c r="L13" t="s" s="20">
-        <v>152</v>
-      </c>
-      <c r="M13" t="s" s="20">
-        <v>153</v>
-      </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" t="s" s="20">
-        <f>CONCATENATE(""",D13,""",", ",""",E13,""",", ",""",F13,""",", ",""",G13,""",", ",""",H13,""",", ",""",I13,""",", ",""",J13,""",", ",""",K13,""",", ",""",L13,""",", ",""",M13,""",", ",""",N13,""",", ",""",O13,""",", ",""",P13,""",", ")</f>
-        <v>154</v>
-      </c>
-      <c r="S13" t="s" s="20">
-        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
-        <v>155</v>
-      </c>
-      <c r="T13" s="21"/>
-      <c r="U13" t="b" s="22">
+      <c r="T13" t="s" s="14">
+        <v>149</v>
+      </c>
+      <c r="U13" t="b" s="16">
         <f>EXACT(S13,T13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="A14" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C14" s="12">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" t="s" s="20">
+      <c r="D14" t="s" s="13">
+        <v>150</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" t="s" s="14">
         <f>CONCATENATE(""",D14,""",", ",""",E14,""",", ",""",F14,""",", ",""",G14,""",", ",""",H14,""",", ",""",I14,""",", ",""",J14,""",", ",""",K14,""",", ",""",L14,""",", ",""",M14,""",", ",""",N14,""",", ",""",O14,""",", ",""",P14,""",", ")</f>
-        <v>157</v>
-      </c>
-      <c r="S14" t="s" s="20">
+        <v>151</v>
+      </c>
+      <c r="S14" t="s" s="14">
         <f>CONCATENATE(D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14)</f>
-        <v>156</v>
-      </c>
-      <c r="T14" s="21"/>
-      <c r="U14" t="b" s="22">
+        <v>150</v>
+      </c>
+      <c r="T14" t="s" s="14">
+        <v>150</v>
+      </c>
+      <c r="U14" t="b" s="16">
         <f>EXACT(S14,T14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s" s="17">
+      <c r="A15" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="13">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s" s="14">
+        <v>154</v>
+      </c>
+      <c r="F15" t="s" s="14">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s" s="14">
+        <v>156</v>
+      </c>
+      <c r="H15" t="s" s="14">
+        <v>157</v>
+      </c>
+      <c r="I15" t="s" s="14">
         <v>158</v>
       </c>
-      <c r="C15" s="18">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="19">
+      <c r="J15" t="s" s="14">
         <v>159</v>
       </c>
-      <c r="E15" t="s" s="20">
+      <c r="K15" t="s" s="14">
         <v>160</v>
       </c>
-      <c r="F15" t="s" s="20">
+      <c r="L15" t="s" s="14">
         <v>161</v>
       </c>
-      <c r="G15" t="s" s="20">
+      <c r="M15" t="s" s="14">
         <v>162</v>
       </c>
-      <c r="H15" t="s" s="20">
+      <c r="N15" t="s" s="14">
         <v>163</v>
       </c>
-      <c r="I15" t="s" s="20">
+      <c r="O15" t="s" s="14">
         <v>164</v>
       </c>
-      <c r="J15" t="s" s="20">
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" t="s" s="14">
+        <f>CONCATENATE(""",D15,""",", ",""",E15,""",", ",""",F15,""",", ",""",G15,""",", ",""",H15,""",", ",""",I15,""",", ",""",J15,""",", ",""",K15,""",", ",""",L15,""",", ",""",M15,""",", ",""",N15,""",", ",""",O15,""",", ",""",P15,""",", ")</f>
         <v>165</v>
       </c>
-      <c r="K15" t="s" s="20">
+      <c r="S15" t="s" s="14">
+        <f>CONCATENATE(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15)</f>
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="20">
-        <v>167</v>
-      </c>
-      <c r="M15" t="s" s="20">
-        <v>168</v>
-      </c>
-      <c r="N15" t="s" s="20">
-        <v>169</v>
-      </c>
-      <c r="O15" t="s" s="20">
-        <v>170</v>
-      </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" t="s" s="20">
-        <f>CONCATENATE(""",D15,""",", ",""",E15,""",", ",""",F15,""",", ",""",G15,""",", ",""",H15,""",", ",""",I15,""",", ",""",J15,""",", ",""",K15,""",", ",""",L15,""",", ",""",M15,""",", ",""",N15,""",", ",""",O15,""",", ",""",P15,""",", ")</f>
-        <v>171</v>
-      </c>
-      <c r="S15" t="s" s="20">
-        <f>CONCATENATE(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15)</f>
-        <v>172</v>
-      </c>
-      <c r="T15" s="21"/>
-      <c r="U15" t="b" s="22">
+      <c r="T15" t="s" s="14">
+        <v>166</v>
+      </c>
+      <c r="U15" t="b" s="16">
         <f>EXACT(S15,T15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s" s="17">
-        <v>158</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="A16" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="D16" t="s" s="19">
+      <c r="D16" t="s" s="13">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s" s="14">
+        <v>168</v>
+      </c>
+      <c r="F16" t="s" s="14">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s" s="14">
+        <v>170</v>
+      </c>
+      <c r="H16" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="I16" t="s" s="14">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s" s="14">
         <v>173</v>
       </c>
-      <c r="E16" t="s" s="20">
+      <c r="K16" t="s" s="14">
         <v>174</v>
       </c>
-      <c r="F16" t="s" s="20">
+      <c r="L16" t="s" s="14">
         <v>175</v>
       </c>
-      <c r="G16" t="s" s="20">
+      <c r="M16" t="s" s="14">
         <v>176</v>
       </c>
-      <c r="H16" t="s" s="20">
+      <c r="N16" t="s" s="14">
         <v>177</v>
       </c>
-      <c r="I16" t="s" s="20">
+      <c r="O16" t="s" s="14">
         <v>178</v>
       </c>
-      <c r="J16" t="s" s="20">
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" t="s" s="14">
+        <f>CONCATENATE(""",D16,""",", ",""",E16,""",", ",""",F16,""",", ",""",G16,""",", ",""",H16,""",", ",""",I16,""",", ",""",J16,""",", ",""",K16,""",", ",""",L16,""",", ",""",M16,""",", ",""",N16,""",", ",""",O16,""",", ",""",P16,""",", ")</f>
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="20">
-        <v>123</v>
-      </c>
-      <c r="L16" t="s" s="20">
+      <c r="S16" t="s" s="14">
+        <f>CONCATENATE(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16)</f>
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="20">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="20">
-        <v>182</v>
-      </c>
-      <c r="O16" t="s" s="20">
-        <v>183</v>
-      </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" t="s" s="20">
-        <f>CONCATENATE(""",D16,""",", ",""",E16,""",", ",""",F16,""",", ",""",G16,""",", ",""",H16,""",", ",""",I16,""",", ",""",J16,""",", ",""",K16,""",", ",""",L16,""",", ",""",M16,""",", ",""",N16,""",", ",""",O16,""",", ",""",P16,""",", ")</f>
-        <v>184</v>
-      </c>
-      <c r="S16" t="s" s="20">
-        <f>CONCATENATE(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16)</f>
-        <v>185</v>
-      </c>
-      <c r="T16" s="21"/>
-      <c r="U16" t="b" s="22">
+      <c r="T16" t="s" s="14">
+        <v>180</v>
+      </c>
+      <c r="U16" t="b" s="16">
         <f>EXACT(S16,T16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B17" t="s" s="17">
-        <v>158</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="C17" s="12">
         <v>3</v>
       </c>
-      <c r="D17" t="s" s="19">
+      <c r="D17" t="s" s="13">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s" s="14">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s" s="14">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="H17" t="s" s="14">
+        <v>185</v>
+      </c>
+      <c r="I17" t="s" s="14">
         <v>186</v>
       </c>
-      <c r="E17" t="s" s="20">
+      <c r="J17" t="s" s="14">
         <v>187</v>
       </c>
-      <c r="F17" t="s" s="20">
+      <c r="K17" t="s" s="14">
         <v>188</v>
       </c>
-      <c r="G17" t="s" s="20">
+      <c r="L17" t="s" s="14">
         <v>189</v>
       </c>
-      <c r="H17" t="s" s="20">
+      <c r="M17" t="s" s="14">
         <v>190</v>
       </c>
-      <c r="I17" t="s" s="20">
+      <c r="N17" t="s" s="14">
         <v>191</v>
       </c>
-      <c r="J17" t="s" s="20">
+      <c r="O17" t="s" s="14">
         <v>192</v>
       </c>
-      <c r="K17" t="s" s="20">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" t="s" s="14">
+        <f>CONCATENATE(""",D17,""",", ",""",E17,""",", ",""",F17,""",", ",""",G17,""",", ",""",H17,""",", ",""",I17,""",", ",""",J17,""",", ",""",K17,""",", ",""",L17,""",", ",""",M17,""",", ",""",N17,""",", ",""",O17,""",", ",""",P17,""",", ")</f>
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="20">
+      <c r="S17" t="s" s="14">
+        <f>CONCATENATE(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17)</f>
         <v>194</v>
       </c>
-      <c r="M17" t="s" s="20">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="20">
-        <v>196</v>
-      </c>
-      <c r="O17" t="s" s="20">
-        <v>197</v>
-      </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" t="s" s="20">
-        <f>CONCATENATE(""",D17,""",", ",""",E17,""",", ",""",F17,""",", ",""",G17,""",", ",""",H17,""",", ",""",I17,""",", ",""",J17,""",", ",""",K17,""",", ",""",L17,""",", ",""",M17,""",", ",""",N17,""",", ",""",O17,""",", ",""",P17,""",", ")</f>
-        <v>198</v>
-      </c>
-      <c r="S17" t="s" s="20">
-        <f>CONCATENATE(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17)</f>
-        <v>199</v>
-      </c>
-      <c r="T17" s="21"/>
-      <c r="U17" t="b" s="22">
+      <c r="T17" t="s" s="14">
+        <v>194</v>
+      </c>
+      <c r="U17" t="b" s="16">
         <f>EXACT(S17,T17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B18" t="s" s="17">
-        <v>158</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="A18" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="C18" s="12">
         <v>4</v>
       </c>
-      <c r="D18" t="s" s="19">
+      <c r="D18" t="s" s="13">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s" s="14">
+        <v>196</v>
+      </c>
+      <c r="F18" t="s" s="14">
+        <v>197</v>
+      </c>
+      <c r="G18" t="s" s="14">
+        <v>198</v>
+      </c>
+      <c r="H18" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="I18" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="E18" t="s" s="20">
+      <c r="J18" t="s" s="14">
         <v>201</v>
       </c>
-      <c r="F18" t="s" s="20">
+      <c r="K18" t="s" s="14">
         <v>202</v>
       </c>
-      <c r="G18" t="s" s="20">
+      <c r="L18" t="s" s="14">
         <v>203</v>
       </c>
-      <c r="H18" t="s" s="20">
+      <c r="M18" t="s" s="14">
         <v>204</v>
       </c>
-      <c r="I18" t="s" s="20">
+      <c r="N18" t="s" s="14">
         <v>205</v>
       </c>
-      <c r="J18" t="s" s="20">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" t="s" s="14">
+        <f>CONCATENATE(""",D18,""",", ",""",E18,""",", ",""",F18,""",", ",""",G18,""",", ",""",H18,""",", ",""",I18,""",", ",""",J18,""",", ",""",K18,""",", ",""",L18,""",", ",""",M18,""",", ",""",N18,""",", ",""",O18,""",", ",""",P18,""",", ")</f>
         <v>206</v>
       </c>
-      <c r="K18" t="s" s="20">
+      <c r="S18" t="s" s="14">
+        <f>CONCATENATE(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18)</f>
         <v>207</v>
       </c>
-      <c r="L18" t="s" s="20">
-        <v>208</v>
-      </c>
-      <c r="M18" t="s" s="20">
-        <v>209</v>
-      </c>
-      <c r="N18" t="s" s="20">
-        <v>210</v>
-      </c>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" t="s" s="20">
-        <f>CONCATENATE(""",D18,""",", ",""",E18,""",", ",""",F18,""",", ",""",G18,""",", ",""",H18,""",", ",""",I18,""",", ",""",J18,""",", ",""",K18,""",", ",""",L18,""",", ",""",M18,""",", ",""",N18,""",", ",""",O18,""",", ",""",P18,""",", ")</f>
-        <v>211</v>
-      </c>
-      <c r="S18" t="s" s="20">
-        <f>CONCATENATE(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18)</f>
-        <v>212</v>
-      </c>
-      <c r="T18" s="21"/>
-      <c r="U18" t="b" s="22">
+      <c r="T18" t="s" s="14">
+        <v>207</v>
+      </c>
+      <c r="U18" t="b" s="16">
         <f>EXACT(S18,T18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" t="s" s="17">
+      <c r="A19" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="13">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s" s="14">
+        <v>211</v>
+      </c>
+      <c r="F19" t="s" s="14">
+        <v>212</v>
+      </c>
+      <c r="G19" t="s" s="14">
         <v>213</v>
       </c>
-      <c r="B19" t="s" s="17">
+      <c r="H19" t="s" s="14">
         <v>214</v>
       </c>
-      <c r="C19" s="18">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s" s="19">
+      <c r="I19" t="s" s="14">
         <v>215</v>
       </c>
-      <c r="E19" t="s" s="20">
+      <c r="J19" t="s" s="14">
         <v>216</v>
       </c>
-      <c r="F19" t="s" s="20">
+      <c r="K19" t="s" s="14">
         <v>217</v>
       </c>
-      <c r="G19" t="s" s="20">
+      <c r="L19" t="s" s="14">
         <v>218</v>
       </c>
-      <c r="H19" t="s" s="20">
+      <c r="M19" t="s" s="14">
         <v>219</v>
       </c>
-      <c r="I19" t="s" s="20">
+      <c r="N19" t="s" s="14">
+        <v>85</v>
+      </c>
+      <c r="O19" t="s" s="14">
         <v>220</v>
       </c>
-      <c r="J19" t="s" s="20">
+      <c r="P19" t="s" s="14">
         <v>221</v>
       </c>
-      <c r="K19" t="s" s="20">
+      <c r="Q19" t="s" s="14">
         <v>222</v>
       </c>
-      <c r="L19" t="s" s="20">
+      <c r="R19" t="s" s="14">
+        <f>CONCATENATE(""",D19,""",", ",""",E19,""",", ",""",F19,""",", ",""",G19,""",", ",""",H19,""",", ",""",I19,""",", ",""",J19,""",", ",""",K19,""",", ",""",L19,""",", ",""",M19,""",", ",""",N19,""",", ",""",O19,""",", ",""",P19,""",", ")</f>
         <v>223</v>
       </c>
-      <c r="M19" t="s" s="20">
+      <c r="S19" t="s" s="14">
+        <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19)</f>
         <v>224</v>
       </c>
-      <c r="N19" t="s" s="20">
-        <v>91</v>
-      </c>
-      <c r="O19" t="s" s="20">
-        <v>225</v>
-      </c>
-      <c r="P19" t="s" s="20">
-        <v>226</v>
-      </c>
-      <c r="Q19" t="s" s="20">
-        <v>227</v>
-      </c>
-      <c r="R19" t="s" s="20">
-        <f>CONCATENATE(""",D19,""",", ",""",E19,""",", ",""",F19,""",", ",""",G19,""",", ",""",H19,""",", ",""",I19,""",", ",""",J19,""",", ",""",K19,""",", ",""",L19,""",", ",""",M19,""",", ",""",N19,""",", ",""",O19,""",", ",""",P19,""",", ")</f>
-        <v>228</v>
-      </c>
-      <c r="S19" t="s" s="20">
-        <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19)</f>
-        <v>229</v>
-      </c>
-      <c r="T19" s="21"/>
-      <c r="U19" t="b" s="22">
+      <c r="T19" t="s" s="14">
+        <v>224</v>
+      </c>
+      <c r="U19" t="b" s="16">
         <f>EXACT(S19,T19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B20" t="s" s="17">
-        <v>214</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="C20" s="12">
         <v>2</v>
       </c>
-      <c r="D20" t="s" s="19">
+      <c r="D20" t="s" s="13">
+        <v>225</v>
+      </c>
+      <c r="E20" t="s" s="14">
+        <v>226</v>
+      </c>
+      <c r="F20" t="s" s="14">
+        <v>227</v>
+      </c>
+      <c r="G20" t="s" s="14">
+        <v>228</v>
+      </c>
+      <c r="H20" t="s" s="14">
+        <v>229</v>
+      </c>
+      <c r="I20" t="s" s="14">
         <v>230</v>
       </c>
-      <c r="E20" t="s" s="20">
+      <c r="J20" t="s" s="14">
         <v>231</v>
       </c>
-      <c r="F20" t="s" s="20">
+      <c r="K20" t="s" s="14">
         <v>232</v>
       </c>
-      <c r="G20" t="s" s="20">
+      <c r="L20" t="s" s="14">
         <v>233</v>
       </c>
-      <c r="H20" t="s" s="20">
+      <c r="M20" t="s" s="14">
         <v>234</v>
       </c>
-      <c r="I20" t="s" s="20">
+      <c r="N20" t="s" s="14">
         <v>235</v>
       </c>
-      <c r="J20" t="s" s="20">
+      <c r="O20" t="s" s="14">
         <v>236</v>
       </c>
-      <c r="K20" t="s" s="20">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" t="s" s="14">
+        <f>CONCATENATE(""",D20,""",", ",""",E20,""",", ",""",F20,""",", ",""",G20,""",", ",""",H20,""",", ",""",I20,""",", ",""",J20,""",", ",""",K20,""",", ",""",L20,""",", ",""",M20,""",", ",""",N20,""",", ",""",O20,""",", ",""",P20,""",", ")</f>
         <v>237</v>
       </c>
-      <c r="L20" t="s" s="20">
+      <c r="S20" t="s" s="14">
+        <f>CONCATENATE(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20)</f>
         <v>238</v>
       </c>
-      <c r="M20" t="s" s="20">
-        <v>239</v>
-      </c>
-      <c r="N20" t="s" s="20">
-        <v>240</v>
-      </c>
-      <c r="O20" t="s" s="20">
-        <v>241</v>
-      </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" t="s" s="20">
-        <f>CONCATENATE(""",D20,""",", ",""",E20,""",", ",""",F20,""",", ",""",G20,""",", ",""",H20,""",", ",""",I20,""",", ",""",J20,""",", ",""",K20,""",", ",""",L20,""",", ",""",M20,""",", ",""",N20,""",", ",""",O20,""",", ",""",P20,""",", ")</f>
-        <v>242</v>
-      </c>
-      <c r="S20" t="s" s="20">
-        <f>CONCATENATE(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20)</f>
-        <v>243</v>
-      </c>
-      <c r="T20" s="21"/>
-      <c r="U20" t="b" s="22">
+      <c r="T20" t="s" s="14">
+        <v>238</v>
+      </c>
+      <c r="U20" t="b" s="16">
         <f>EXACT(S20,T20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B21" t="s" s="17">
-        <v>214</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="A21" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="D21" t="s" s="19">
+      <c r="D21" t="s" s="13">
+        <v>239</v>
+      </c>
+      <c r="E21" t="s" s="14">
+        <v>240</v>
+      </c>
+      <c r="F21" t="s" s="14">
+        <v>241</v>
+      </c>
+      <c r="G21" t="s" s="14">
+        <v>242</v>
+      </c>
+      <c r="H21" t="s" s="14">
+        <v>243</v>
+      </c>
+      <c r="I21" t="s" s="14">
         <v>244</v>
       </c>
-      <c r="E21" t="s" s="20">
+      <c r="J21" t="s" s="14">
         <v>245</v>
       </c>
-      <c r="F21" t="s" s="20">
+      <c r="K21" t="s" s="14">
         <v>246</v>
       </c>
-      <c r="G21" t="s" s="20">
+      <c r="L21" t="s" s="14">
         <v>247</v>
       </c>
-      <c r="H21" t="s" s="20">
+      <c r="M21" t="s" s="14">
         <v>248</v>
       </c>
-      <c r="I21" t="s" s="20">
+      <c r="N21" t="s" s="14">
         <v>249</v>
       </c>
-      <c r="J21" t="s" s="20">
+      <c r="O21" t="s" s="14">
         <v>250</v>
       </c>
-      <c r="K21" t="s" s="20">
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" t="s" s="14">
+        <f>CONCATENATE(""",D21,""",", ",""",E21,""",", ",""",F21,""",", ",""",G21,""",", ",""",H21,""",", ",""",I21,""",", ",""",J21,""",", ",""",K21,""",", ",""",L21,""",", ",""",M21,""",", ",""",N21,""",", ",""",O21,""",", ",""",P21,""",", ")</f>
         <v>251</v>
       </c>
-      <c r="L21" t="s" s="20">
+      <c r="S21" t="s" s="14">
+        <f>CONCATENATE(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21)</f>
         <v>252</v>
       </c>
-      <c r="M21" t="s" s="20">
-        <v>253</v>
-      </c>
-      <c r="N21" t="s" s="20">
-        <v>254</v>
-      </c>
-      <c r="O21" t="s" s="20">
-        <v>255</v>
-      </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" t="s" s="20">
-        <f>CONCATENATE(""",D21,""",", ",""",E21,""",", ",""",F21,""",", ",""",G21,""",", ",""",H21,""",", ",""",I21,""",", ",""",J21,""",", ",""",K21,""",", ",""",L21,""",", ",""",M21,""",", ",""",N21,""",", ",""",O21,""",", ",""",P21,""",", ")</f>
-        <v>256</v>
-      </c>
-      <c r="S21" t="s" s="20">
-        <f>CONCATENATE(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21)</f>
-        <v>257</v>
-      </c>
-      <c r="T21" s="21"/>
-      <c r="U21" t="b" s="22">
+      <c r="T21" t="s" s="14">
+        <v>252</v>
+      </c>
+      <c r="U21" t="b" s="16">
         <f>EXACT(S21,T21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B22" t="s" s="17">
-        <v>214</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="A22" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="C22" s="12">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="19">
+      <c r="D22" t="s" s="13">
+        <v>253</v>
+      </c>
+      <c r="E22" t="s" s="14">
+        <v>254</v>
+      </c>
+      <c r="F22" t="s" s="14">
+        <v>255</v>
+      </c>
+      <c r="G22" t="s" s="14">
+        <v>256</v>
+      </c>
+      <c r="H22" t="s" s="14">
+        <v>257</v>
+      </c>
+      <c r="I22" t="s" s="14">
         <v>258</v>
       </c>
-      <c r="E22" t="s" s="20">
+      <c r="J22" t="s" s="14">
         <v>259</v>
       </c>
-      <c r="F22" t="s" s="20">
+      <c r="K22" t="s" s="14">
         <v>260</v>
       </c>
-      <c r="G22" t="s" s="20">
+      <c r="L22" t="s" s="14">
         <v>261</v>
       </c>
-      <c r="H22" t="s" s="20">
+      <c r="M22" t="s" s="14">
         <v>262</v>
       </c>
-      <c r="I22" t="s" s="20">
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" t="s" s="14">
+        <f>CONCATENATE(""",D22,""",", ",""",E22,""",", ",""",F22,""",", ",""",G22,""",", ",""",H22,""",", ",""",I22,""",", ",""",J22,""",", ",""",K22,""",", ",""",L22,""",", ",""",M22,""",", ",""",N22,""",", ",""",O22,""",", ",""",P22,""",", ")</f>
         <v>263</v>
       </c>
-      <c r="J22" t="s" s="20">
+      <c r="S22" t="s" s="14">
+        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22)</f>
         <v>264</v>
       </c>
-      <c r="K22" t="s" s="20">
-        <v>265</v>
-      </c>
-      <c r="L22" t="s" s="20">
-        <v>266</v>
-      </c>
-      <c r="M22" t="s" s="20">
-        <v>267</v>
-      </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" t="s" s="20">
-        <f>CONCATENATE(""",D22,""",", ",""",E22,""",", ",""",F22,""",", ",""",G22,""",", ",""",H22,""",", ",""",I22,""",", ",""",J22,""",", ",""",K22,""",", ",""",L22,""",", ",""",M22,""",", ",""",N22,""",", ",""",O22,""",", ",""",P22,""",", ")</f>
-        <v>268</v>
-      </c>
-      <c r="S22" t="s" s="20">
-        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22)</f>
-        <v>269</v>
-      </c>
-      <c r="T22" s="21"/>
-      <c r="U22" t="b" s="22">
+      <c r="T22" t="s" s="14">
+        <v>264</v>
+      </c>
+      <c r="U22" t="b" s="16">
         <f>EXACT(S22,T22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s" s="17">
+      <c r="A23" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s" s="13">
+        <v>266</v>
+      </c>
+      <c r="E23" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="F23" t="s" s="14">
+        <v>268</v>
+      </c>
+      <c r="G23" t="s" s="14">
+        <v>269</v>
+      </c>
+      <c r="H23" t="s" s="14">
         <v>270</v>
       </c>
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s" s="19">
+      <c r="I23" t="s" s="14">
         <v>271</v>
       </c>
-      <c r="E23" t="s" s="20">
+      <c r="J23" t="s" s="14">
         <v>272</v>
       </c>
-      <c r="F23" t="s" s="20">
+      <c r="K23" t="s" s="14">
         <v>273</v>
       </c>
-      <c r="G23" t="s" s="20">
+      <c r="L23" t="s" s="14">
         <v>274</v>
       </c>
-      <c r="H23" t="s" s="20">
+      <c r="M23" t="s" s="14">
         <v>275</v>
       </c>
-      <c r="I23" t="s" s="20">
+      <c r="N23" t="s" s="14">
         <v>276</v>
       </c>
-      <c r="J23" t="s" s="20">
+      <c r="O23" t="s" s="14">
         <v>277</v>
       </c>
-      <c r="K23" t="s" s="20">
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" t="s" s="14">
+        <f>CONCATENATE(""",D23,""",", ",""",E23,""",", ",""",F23,""",", ",""",G23,""",", ",""",H23,""",", ",""",I23,""",", ",""",J23,""",", ",""",K23,""",", ",""",L23,""",", ",""",M23,""",", ",""",N23,""",", ",""",O23,""",", ",""",P23,""",", ")</f>
         <v>278</v>
       </c>
-      <c r="L23" t="s" s="20">
+      <c r="S23" t="s" s="14">
+        <f>CONCATENATE(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23)</f>
         <v>279</v>
       </c>
-      <c r="M23" t="s" s="20">
-        <v>280</v>
-      </c>
-      <c r="N23" t="s" s="20">
-        <v>281</v>
-      </c>
-      <c r="O23" t="s" s="20">
-        <v>282</v>
-      </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" t="s" s="20">
-        <f>CONCATENATE(""",D23,""",", ",""",E23,""",", ",""",F23,""",", ",""",G23,""",", ",""",H23,""",", ",""",I23,""",", ",""",J23,""",", ",""",K23,""",", ",""",L23,""",", ",""",M23,""",", ",""",N23,""",", ",""",O23,""",", ",""",P23,""",", ")</f>
-        <v>283</v>
-      </c>
-      <c r="S23" t="s" s="20">
-        <f>CONCATENATE(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23)</f>
-        <v>284</v>
-      </c>
-      <c r="T23" s="21"/>
-      <c r="U23" t="b" s="22">
+      <c r="T23" t="s" s="14">
+        <v>279</v>
+      </c>
+      <c r="U23" t="b" s="16">
         <f>EXACT(S23,T23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="18.3" customHeight="1">
-      <c r="A24" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B24" t="s" s="17">
-        <v>270</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="A24" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C24" s="12">
         <v>2</v>
       </c>
-      <c r="D24" t="s" s="19">
+      <c r="D24" t="s" s="13">
+        <v>280</v>
+      </c>
+      <c r="E24" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="F24" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" t="s" s="14">
+        <v>283</v>
+      </c>
+      <c r="I24" t="s" s="14">
+        <v>284</v>
+      </c>
+      <c r="J24" t="s" s="14">
         <v>285</v>
       </c>
-      <c r="E24" t="s" s="20">
+      <c r="K24" t="s" s="14">
         <v>286</v>
       </c>
-      <c r="F24" t="s" s="20">
+      <c r="L24" t="s" s="14">
         <v>287</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" t="s" s="20">
+      <c r="M24" t="s" s="14">
         <v>288</v>
       </c>
-      <c r="I24" t="s" s="20">
+      <c r="N24" t="s" s="14">
         <v>289</v>
       </c>
-      <c r="J24" t="s" s="20">
+      <c r="O24" t="s" s="14">
         <v>290</v>
       </c>
-      <c r="K24" t="s" s="20">
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" t="s" s="14">
+        <f>CONCATENATE(""",D24,""",", ",""",E24,""",", ",""",F24,""",", ",""",G24,""",", ",""",H24,""",", ",""",I24,""",", ",""",J24,""",", ",""",K24,""",", ",""",L24,""",", ",""",M24,""",", ",""",N24,""",", ",""",O24,""",", ",""",P24,""",", ")</f>
         <v>291</v>
       </c>
-      <c r="L24" t="s" s="20">
+      <c r="S24" t="s" s="14">
+        <f>CONCATENATE(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24,P24)</f>
         <v>292</v>
       </c>
-      <c r="M24" t="s" s="20">
-        <v>293</v>
-      </c>
-      <c r="N24" t="s" s="20">
-        <v>294</v>
-      </c>
-      <c r="O24" t="s" s="20">
-        <v>295</v>
-      </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" t="s" s="20">
-        <f>CONCATENATE(""",D24,""",", ",""",E24,""",", ",""",F24,""",", ",""",G24,""",", ",""",H24,""",", ",""",I24,""",", ",""",J24,""",", ",""",K24,""",", ",""",L24,""",", ",""",M24,""",", ",""",N24,""",", ",""",O24,""",", ",""",P24,""",", ")</f>
-        <v>296</v>
-      </c>
-      <c r="S24" t="s" s="20">
-        <f>CONCATENATE(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24,P24)</f>
-        <v>297</v>
-      </c>
-      <c r="T24" s="21"/>
-      <c r="U24" t="b" s="22">
+      <c r="T24" t="s" s="14">
+        <v>292</v>
+      </c>
+      <c r="U24" t="b" s="16">
         <f>EXACT(S24,T24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="18.3" customHeight="1">
-      <c r="A25" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B25" t="s" s="17">
-        <v>270</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="A25" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C25" s="12">
         <v>3</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23"/>
-      <c r="F25" t="s" s="20">
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" t="s" s="14">
+        <v>293</v>
+      </c>
+      <c r="G25" t="s" s="14">
+        <v>294</v>
+      </c>
+      <c r="H25" t="s" s="14">
+        <v>295</v>
+      </c>
+      <c r="I25" t="s" s="14">
+        <v>296</v>
+      </c>
+      <c r="J25" t="s" s="14">
+        <v>297</v>
+      </c>
+      <c r="K25" t="s" s="14">
         <v>298</v>
       </c>
-      <c r="G25" t="s" s="20">
+      <c r="L25" t="s" s="14">
         <v>299</v>
       </c>
-      <c r="H25" t="s" s="20">
+      <c r="M25" t="s" s="14">
         <v>300</v>
       </c>
-      <c r="I25" t="s" s="20">
+      <c r="N25" t="s" s="14">
         <v>301</v>
       </c>
-      <c r="J25" t="s" s="20">
+      <c r="O25" t="s" s="14">
         <v>302</v>
       </c>
-      <c r="K25" t="s" s="20">
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" t="s" s="14">
+        <f>CONCATENATE(""",D25,""",", ",""",E25,""",", ",""",F25,""",", ",""",G25,""",", ",""",H25,""",", ",""",I25,""",", ",""",J25,""",", ",""",K25,""",", ",""",L25,""",", ",""",M25,""",", ",""",N25,""",", ",""",O25,""",", ",""",P25,""",", ")</f>
         <v>303</v>
       </c>
-      <c r="L25" t="s" s="20">
+      <c r="S25" t="s" s="14">
+        <f>CONCATENATE(D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25)</f>
         <v>304</v>
       </c>
-      <c r="M25" t="s" s="20">
-        <v>305</v>
-      </c>
-      <c r="N25" t="s" s="20">
-        <v>306</v>
-      </c>
-      <c r="O25" t="s" s="20">
-        <v>307</v>
-      </c>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" t="s" s="20">
-        <f>CONCATENATE(""",D25,""",", ",""",E25,""",", ",""",F25,""",", ",""",G25,""",", ",""",H25,""",", ",""",I25,""",", ",""",J25,""",", ",""",K25,""",", ",""",L25,""",", ",""",M25,""",", ",""",N25,""",", ",""",O25,""",", ",""",P25,""",", ")</f>
-        <v>308</v>
-      </c>
-      <c r="S25" t="s" s="20">
-        <f>CONCATENATE(D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25)</f>
-        <v>309</v>
-      </c>
-      <c r="T25" s="21"/>
-      <c r="U25" t="b" s="22">
+      <c r="T25" t="s" s="14">
+        <v>304</v>
+      </c>
+      <c r="U25" t="b" s="16">
         <f>EXACT(S25,T25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="18.3" customHeight="1">
-      <c r="A26" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B26" t="s" s="17">
-        <v>270</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C26" s="12">
         <v>4</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" t="s" s="20">
+      <c r="D26" s="18"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" t="s" s="14">
+        <v>305</v>
+      </c>
+      <c r="H26" t="s" s="14">
+        <v>306</v>
+      </c>
+      <c r="I26" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="J26" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="K26" t="s" s="14">
+        <v>309</v>
+      </c>
+      <c r="L26" t="s" s="14">
         <v>310</v>
       </c>
-      <c r="H26" t="s" s="20">
+      <c r="M26" t="s" s="14">
         <v>311</v>
       </c>
-      <c r="I26" t="s" s="20">
+      <c r="N26" t="s" s="14">
         <v>312</v>
       </c>
-      <c r="J26" t="s" s="20">
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" t="s" s="14">
+        <f>CONCATENATE(""",D26,""",", ",""",E26,""",", ",""",F26,""",", ",""",G26,""",", ",""",H26,""",", ",""",I26,""",", ",""",J26,""",", ",""",K26,""",", ",""",L26,""",", ",""",M26,""",", ",""",N26,""",", ",""",O26,""",", ",""",P26,""",", ")</f>
         <v>313</v>
       </c>
-      <c r="K26" t="s" s="20">
+      <c r="S26" t="s" s="14">
+        <f>CONCATENATE(D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26,P26)</f>
         <v>314</v>
       </c>
-      <c r="L26" t="s" s="20">
-        <v>315</v>
-      </c>
-      <c r="M26" t="s" s="20">
-        <v>316</v>
-      </c>
-      <c r="N26" t="s" s="20">
-        <v>317</v>
-      </c>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" t="s" s="20">
-        <f>CONCATENATE(""",D26,""",", ",""",E26,""",", ",""",F26,""",", ",""",G26,""",", ",""",H26,""",", ",""",I26,""",", ",""",J26,""",", ",""",K26,""",", ",""",L26,""",", ",""",M26,""",", ",""",N26,""",", ",""",O26,""",", ",""",P26,""",", ")</f>
-        <v>318</v>
-      </c>
-      <c r="S26" t="s" s="20">
-        <f>CONCATENATE(D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26,P26)</f>
-        <v>319</v>
-      </c>
-      <c r="T26" s="21"/>
-      <c r="U26" t="b" s="22">
+      <c r="T26" t="s" s="14">
+        <v>314</v>
+      </c>
+      <c r="U26" t="b" s="16">
         <f>EXACT(S26,T26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="18.3" customHeight="1">
-      <c r="A27" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" t="s" s="20">
-        <v>321</v>
-      </c>
-      <c r="R27" t="s" s="20">
+      <c r="A27" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" t="s" s="14">
+        <v>316</v>
+      </c>
+      <c r="R27" t="s" s="14">
         <f>CONCATENATE(""",D27,""",", ",""",E27,""",", ",""",F27,""",", ",""",G27,""",", ",""",H27,""",", ",""",I27,""",", ",""",J27,""",", ",""",K27,""",", ",""",L27,""",", ",""",M27,""",", ",""",N27,""",", ",""",O27,""",", ",""",P27,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S27" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S27" t="s" s="14">
         <f>CONCATENATE(D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27,P27)</f>
       </c>
-      <c r="T27" s="21"/>
-      <c r="U27" t="b" s="22">
+      <c r="T27" s="15"/>
+      <c r="U27" t="b" s="16">
         <f>EXACT(S27,T27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="18.3" customHeight="1">
-      <c r="A28" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" t="s" s="20">
-        <v>323</v>
-      </c>
-      <c r="R28" t="s" s="20">
+      <c r="A28" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" t="s" s="14">
+        <v>318</v>
+      </c>
+      <c r="R28" t="s" s="14">
         <f>CONCATENATE(""",D28,""",", ",""",E28,""",", ",""",F28,""",", ",""",G28,""",", ",""",H28,""",", ",""",I28,""",", ",""",J28,""",", ",""",K28,""",", ",""",L28,""",", ",""",M28,""",", ",""",N28,""",", ",""",O28,""",", ",""",P28,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S28" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S28" t="s" s="14">
         <f>CONCATENATE(D28,E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28,P28)</f>
       </c>
-      <c r="T28" s="21"/>
-      <c r="U28" t="b" s="22">
+      <c r="T28" s="15"/>
+      <c r="U28" t="b" s="16">
         <f>EXACT(S28,T28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.3" customHeight="1">
-      <c r="A29" t="s" s="17">
+      <c r="A29" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" t="s" s="14">
+        <v>319</v>
+      </c>
+      <c r="R29" t="s" s="14">
+        <f>CONCATENATE(""",D29,""",", ",""",E29,""",", ",""",F29,""",", ",""",G29,""",", ",""",H29,""",", ",""",I29,""",", ",""",J29,""",", ",""",K29,""",", ",""",L29,""",", ",""",M29,""",", ",""",N29,""",", ",""",O29,""",", ",""",P29,""",", ")</f>
+        <v>317</v>
+      </c>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" t="b" s="16">
+        <f>EXACT(S29,T29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="33.3" customHeight="1">
+      <c r="A30" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" t="s" s="14">
         <v>320</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" t="s" s="20">
-        <v>324</v>
-      </c>
-      <c r="R29" t="s" s="20">
-        <f>CONCATENATE(""",D29,""",", ",""",E29,""",", ",""",F29,""",", ",""",G29,""",", ",""",H29,""",", ",""",I29,""",", ",""",J29,""",", ",""",K29,""",", ",""",L29,""",", ",""",M29,""",", ",""",N29,""",", ",""",O29,""",", ",""",P29,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" t="b" s="22">
-        <f>EXACT(S29,T29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="18.3" customHeight="1">
-      <c r="A30" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" t="s" s="20">
-        <v>325</v>
-      </c>
-      <c r="R30" t="s" s="20">
+      <c r="R30" t="s" s="14">
         <f>CONCATENATE(""",D30,""",", ",""",E30,""",", ",""",F30,""",", ",""",G30,""",", ",""",H30,""",", ",""",I30,""",", ",""",J30,""",", ",""",K30,""",", ",""",L30,""",", ",""",M30,""",", ",""",N30,""",", ",""",O30,""",", ",""",P30,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S30" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S30" t="s" s="14">
         <f>CONCATENATE(D30,E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30,P30)</f>
       </c>
-      <c r="T30" s="21"/>
-      <c r="U30" t="b" s="22">
+      <c r="T30" s="15"/>
+      <c r="U30" t="b" s="16">
         <f>EXACT(S30,T30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" ht="18.3" customHeight="1">
-      <c r="A31" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" t="s" s="20">
-        <v>326</v>
-      </c>
-      <c r="R31" t="s" s="20">
+      <c r="A31" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" t="s" s="14">
+        <v>321</v>
+      </c>
+      <c r="R31" t="s" s="14">
         <f>CONCATENATE(""",D31,""",", ",""",E31,""",", ",""",F31,""",", ",""",G31,""",", ",""",H31,""",", ",""",I31,""",", ",""",J31,""",", ",""",K31,""",", ",""",L31,""",", ",""",M31,""",", ",""",N31,""",", ",""",O31,""",", ",""",P31,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S31" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S31" t="s" s="14">
         <f>CONCATENATE(D31,E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31,P31)</f>
       </c>
-      <c r="T31" s="21"/>
-      <c r="U31" t="b" s="22">
+      <c r="T31" s="15"/>
+      <c r="U31" t="b" s="16">
         <f>EXACT(S31,T31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" ht="18.3" customHeight="1">
-      <c r="A32" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" t="s" s="20">
-        <v>327</v>
-      </c>
-      <c r="R32" t="s" s="20">
+      <c r="A32" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="R32" t="s" s="14">
         <f>CONCATENATE(""",D32,""",", ",""",E32,""",", ",""",F32,""",", ",""",G32,""",", ",""",H32,""",", ",""",I32,""",", ",""",J32,""",", ",""",K32,""",", ",""",L32,""",", ",""",M32,""",", ",""",N32,""",", ",""",O32,""",", ",""",P32,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S32" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S32" t="s" s="14">
         <f>CONCATENATE(D32,E32,F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32)</f>
       </c>
-      <c r="T32" s="21"/>
-      <c r="U32" t="b" s="22">
+      <c r="T32" s="15"/>
+      <c r="U32" t="b" s="16">
         <f>EXACT(S32,T32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" ht="18.3" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" t="s" s="20">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" t="s" s="14">
         <f>CONCATENATE(""",D33,""",", ",""",E33,""",", ",""",F33,""",", ",""",G33,""",", ",""",H33,""",", ",""",I33,""",", ",""",J33,""",", ",""",K33,""",", ",""",L33,""",", ",""",M33,""",", ",""",N33,""",", ",""",O33,""",", ",""",P33,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S33" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S33" t="s" s="14">
         <f>CONCATENATE(D33,E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33)</f>
       </c>
-      <c r="T33" s="21"/>
-      <c r="U33" t="b" s="22">
+      <c r="T33" s="15"/>
+      <c r="U33" t="b" s="16">
         <f>EXACT(S33,T33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="18.3" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" t="s" s="20">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" t="s" s="14">
         <f>CONCATENATE(""",D34,""",", ",""",E34,""",", ",""",F34,""",", ",""",G34,""",", ",""",H34,""",", ",""",I34,""",", ",""",J34,""",", ",""",K34,""",", ",""",L34,""",", ",""",M34,""",", ",""",N34,""",", ",""",O34,""",", ",""",P34,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S34" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S34" t="s" s="14">
         <f>CONCATENATE(D34,E34,F34,G34,H34,I34,J34,K34,L34,M34,N34,O34,P34)</f>
       </c>
-      <c r="T34" s="21"/>
-      <c r="U34" t="b" s="22">
+      <c r="T34" s="15"/>
+      <c r="U34" t="b" s="16">
         <f>EXACT(S34,T34)</f>
         <v>1</v>
       </c>
@@ -5176,7 +5080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A2:U34"/>
   <sheetViews>
@@ -5186,1825 +5090,1825 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12" style="27" customWidth="1"/>
-    <col min="3" max="3" width="3.8125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="4.25781" style="27" customWidth="1"/>
-    <col min="5" max="16" width="3.8125" style="27" customWidth="1"/>
-    <col min="17" max="17" width="47.3906" style="27" customWidth="1"/>
-    <col min="18" max="18" width="61.4297" style="27" customWidth="1"/>
-    <col min="19" max="19" width="28.0781" style="27" customWidth="1"/>
-    <col min="20" max="20" width="26.5625" style="27" customWidth="1"/>
-    <col min="21" max="21" width="7.60156" style="27" customWidth="1"/>
-    <col min="22" max="16384" width="19.6016" style="27" customWidth="1"/>
+    <col min="1" max="1" width="12.1875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12" style="21" customWidth="1"/>
+    <col min="3" max="3" width="3.8125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="4.25781" style="21" customWidth="1"/>
+    <col min="5" max="16" width="3.8125" style="21" customWidth="1"/>
+    <col min="17" max="17" width="47.3906" style="21" customWidth="1"/>
+    <col min="18" max="18" width="61.4297" style="21" customWidth="1"/>
+    <col min="19" max="19" width="28.0781" style="21" customWidth="1"/>
+    <col min="20" max="20" width="26.5625" style="21" customWidth="1"/>
+    <col min="21" max="21" width="7.60156" style="21" customWidth="1"/>
+    <col min="22" max="16384" width="19.6016" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s" s="9">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="U2" t="s" s="4">
         <v>8</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s" s="9">
-        <v>14</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" t="s" s="11">
+      <c r="A3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="11">
+      <c r="I3" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s" s="13">
+      <c r="J3" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="K3" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="L3" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="M3" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="N3" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="14">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="J3" t="s" s="14">
+      <c r="R3" t="s" s="9">
+        <f>CONCATENATE(""",D3,""",", ",""",E3,""",", ",""",F3,""",", ",""",G3,""",", ",""",H3,""",", ",""",I3,""",", ",""",J3,""",", ",""",K3,""",", ",""",L3,""",", ",""",M3,""",", ",""",N3,""",", ",""",O3,""",", ",""",P3,""",", ")</f>
         <v>23</v>
       </c>
-      <c r="K3" t="s" s="14">
+      <c r="S3" t="s" s="9">
+        <f>CONCATENATE(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3)</f>
         <v>24</v>
       </c>
-      <c r="L3" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s" s="14">
-        <f>CONCATENATE(""",D3,""",", ",""",E3,""",", ",""",F3,""",", ",""",G3,""",", ",""",H3,""",", ",""",I3,""",", ",""",J3,""",", ",""",K3,""",", ",""",L3,""",", ",""",M3,""",", ",""",N3,""",", ",""",O3,""",", ",""",P3,""",", ")</f>
-        <v>29</v>
-      </c>
-      <c r="S3" t="s" s="14">
-        <f>CONCATENATE(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3)</f>
-        <v>30</v>
-      </c>
-      <c r="T3" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="U3" t="b" s="16">
+      <c r="T3" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="U3" t="b" s="10">
         <f>EXACT(S3,T3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="A4" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="D4" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="K4" t="s" s="14">
         <v>32</v>
       </c>
-      <c r="F4" t="s" s="20">
+      <c r="L4" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="G4" t="s" s="20">
+      <c r="M4" t="s" s="14">
         <v>34</v>
       </c>
-      <c r="H4" t="s" s="20">
+      <c r="N4" t="s" s="14">
         <v>35</v>
       </c>
-      <c r="I4" t="s" s="20">
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" t="s" s="14">
+        <f>CONCATENATE(""",D4,""",", ",""",E4,""",", ",""",F4,""",", ",""",G4,""",", ",""",H4,""",", ",""",I4,""",", ",""",J4,""",", ",""",K4,""",", ",""",L4,""",", ",""",M4,""",", ",""",N4,""",", ",""",O4,""",", ",""",P4,""",", ")</f>
         <v>36</v>
       </c>
-      <c r="J4" t="s" s="20">
+      <c r="S4" t="s" s="14">
+        <f>CONCATENATE(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4)</f>
         <v>37</v>
       </c>
-      <c r="K4" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s" s="20">
-        <v>41</v>
-      </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" t="s" s="20">
-        <f>CONCATENATE(""",D4,""",", ",""",E4,""",", ",""",F4,""",", ",""",G4,""",", ",""",H4,""",", ",""",I4,""",", ",""",J4,""",", ",""",K4,""",", ",""",L4,""",", ",""",M4,""",", ",""",N4,""",", ",""",O4,""",", ",""",P4,""",", ")</f>
-        <v>42</v>
-      </c>
-      <c r="S4" t="s" s="20">
-        <f>CONCATENATE(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4)</f>
-        <v>43</v>
-      </c>
-      <c r="T4" t="s" s="20">
-        <v>43</v>
-      </c>
-      <c r="U4" t="b" s="22">
+      <c r="T4" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="U4" t="b" s="16">
         <f>EXACT(S4,T4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="A5" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" t="s" s="19">
+      <c r="D5" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s" s="14">
         <v>44</v>
       </c>
-      <c r="E5" t="s" s="20">
+      <c r="K5" t="s" s="14">
         <v>45</v>
       </c>
-      <c r="F5" t="s" s="20">
+      <c r="L5" t="s" s="14">
         <v>46</v>
       </c>
-      <c r="G5" t="s" s="20">
+      <c r="M5" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="H5" t="s" s="20">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" t="s" s="14">
+        <f>CONCATENATE(""",D5,""",", ",""",E5,""",", ",""",F5,""",", ",""",G5,""",", ",""",H5,""",", ",""",I5,""",", ",""",J5,""",", ",""",K5,""",", ",""",L5,""",", ",""",M5,""",", ",""",N5,""",", ",""",O5,""",", ",""",P5,""",", ")</f>
         <v>48</v>
       </c>
-      <c r="I5" t="s" s="20">
+      <c r="S5" t="s" s="14">
+        <f>CONCATENATE(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5)</f>
         <v>49</v>
       </c>
-      <c r="J5" t="s" s="20">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s" s="20">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s" s="20">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s" s="20">
-        <v>53</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" t="s" s="20">
-        <f>CONCATENATE(""",D5,""",", ",""",E5,""",", ",""",F5,""",", ",""",G5,""",", ",""",H5,""",", ",""",I5,""",", ",""",J5,""",", ",""",K5,""",", ",""",L5,""",", ",""",M5,""",", ",""",N5,""",", ",""",O5,""",", ",""",P5,""",", ")</f>
-        <v>54</v>
-      </c>
-      <c r="S5" t="s" s="20">
-        <f>CONCATENATE(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5)</f>
-        <v>55</v>
-      </c>
-      <c r="T5" t="s" s="20">
-        <v>55</v>
-      </c>
-      <c r="U5" t="b" s="22">
+      <c r="T5" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="U5" t="b" s="16">
         <f>EXACT(S5,T5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="17">
+      <c r="A6" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s" s="14">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s" s="14">
         <v>56</v>
       </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="19">
+      <c r="J6" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="E6" t="s" s="20">
+      <c r="K6" t="s" s="14">
         <v>58</v>
       </c>
-      <c r="F6" t="s" s="20">
+      <c r="L6" t="s" s="14">
         <v>59</v>
       </c>
-      <c r="G6" t="s" s="20">
+      <c r="M6" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="H6" t="s" s="20">
+      <c r="N6" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="I6" t="s" s="20">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" t="s" s="14">
+        <f>CONCATENATE(""",D6,""",", ",""",E6,""",", ",""",F6,""",", ",""",G6,""",", ",""",H6,""",", ",""",I6,""",", ",""",J6,""",", ",""",K6,""",", ",""",L6,""",", ",""",M6,""",", ",""",N6,""",", ",""",O6,""",", ",""",P6,""",", ")</f>
         <v>62</v>
       </c>
-      <c r="J6" t="s" s="20">
+      <c r="S6" t="s" s="14">
+        <f>CONCATENATE(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
         <v>63</v>
       </c>
-      <c r="K6" t="s" s="20">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s" s="20">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s" s="20">
-        <v>66</v>
-      </c>
-      <c r="N6" t="s" s="20">
-        <v>67</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" t="s" s="20">
-        <f>CONCATENATE(""",D6,""",", ",""",E6,""",", ",""",F6,""",", ",""",G6,""",", ",""",H6,""",", ",""",I6,""",", ",""",J6,""",", ",""",K6,""",", ",""",L6,""",", ",""",M6,""",", ",""",N6,""",", ",""",O6,""",", ",""",P6,""",", ")</f>
-        <v>68</v>
-      </c>
-      <c r="S6" t="s" s="20">
-        <f>CONCATENATE(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
-        <v>69</v>
-      </c>
-      <c r="T6" t="s" s="20">
-        <v>69</v>
-      </c>
-      <c r="U6" t="b" s="22">
+      <c r="T6" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="U6" t="b" s="16">
         <f>EXACT(S6,T6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="A7" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="19">
+      <c r="D7" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s" s="14">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s" s="14">
         <v>70</v>
       </c>
-      <c r="E7" t="s" s="20">
+      <c r="K7" t="s" s="14">
         <v>71</v>
       </c>
-      <c r="F7" t="s" s="20">
+      <c r="L7" t="s" s="14">
         <v>72</v>
       </c>
-      <c r="G7" t="s" s="20">
+      <c r="M7" t="s" s="14">
         <v>73</v>
       </c>
-      <c r="H7" t="s" s="20">
+      <c r="N7" t="s" s="14">
         <v>74</v>
       </c>
-      <c r="I7" t="s" s="20">
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" t="s" s="14">
+        <f>CONCATENATE(""",D7,""",", ",""",E7,""",", ",""",F7,""",", ",""",G7,""",", ",""",H7,""",", ",""",I7,""",", ",""",J7,""",", ",""",K7,""",", ",""",L7,""",", ",""",M7,""",", ",""",N7,""",", ",""",O7,""",", ",""",P7,""",", ")</f>
         <v>75</v>
       </c>
-      <c r="J7" t="s" s="20">
+      <c r="S7" t="s" s="14">
+        <f>CONCATENATE(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
         <v>76</v>
       </c>
-      <c r="K7" t="s" s="20">
-        <v>77</v>
-      </c>
-      <c r="L7" t="s" s="20">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s" s="20">
-        <v>79</v>
-      </c>
-      <c r="N7" t="s" s="20">
-        <v>80</v>
-      </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" t="s" s="20">
-        <f>CONCATENATE(""",D7,""",", ",""",E7,""",", ",""",F7,""",", ",""",G7,""",", ",""",H7,""",", ",""",I7,""",", ",""",J7,""",", ",""",K7,""",", ",""",L7,""",", ",""",M7,""",", ",""",N7,""",", ",""",O7,""",", ",""",P7,""",", ")</f>
-        <v>81</v>
-      </c>
-      <c r="S7" t="s" s="20">
-        <f>CONCATENATE(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
-        <v>82</v>
-      </c>
-      <c r="T7" t="s" s="20">
-        <v>82</v>
-      </c>
-      <c r="U7" t="b" s="22">
+      <c r="T7" t="s" s="14">
+        <v>76</v>
+      </c>
+      <c r="U7" t="b" s="16">
         <f>EXACT(S7,T7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="A8" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="19">
+      <c r="D8" t="s" s="13">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s" s="14">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="14">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s" s="14">
         <v>83</v>
       </c>
-      <c r="E8" t="s" s="20">
+      <c r="K8" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="F8" t="s" s="20">
+      <c r="L8" t="s" s="14">
         <v>85</v>
       </c>
-      <c r="G8" t="s" s="20">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" t="s" s="14">
+        <f>CONCATENATE(""",D8,""",", ",""",E8,""",", ",""",F8,""",", ",""",G8,""",", ",""",H8,""",", ",""",I8,""",", ",""",J8,""",", ",""",K8,""",", ",""",L8,""",", ",""",M8,""",", ",""",N8,""",", ",""",O8,""",", ",""",P8,""",", ")</f>
         <v>86</v>
       </c>
-      <c r="H8" t="s" s="20">
+      <c r="S8" t="s" s="14">
+        <f>CONCATENATE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8)</f>
         <v>87</v>
       </c>
-      <c r="I8" t="s" s="20">
-        <v>88</v>
-      </c>
-      <c r="J8" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="K8" t="s" s="20">
-        <v>90</v>
-      </c>
-      <c r="L8" t="s" s="20">
-        <v>91</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" t="s" s="20">
-        <f>CONCATENATE(""",D8,""",", ",""",E8,""",", ",""",F8,""",", ",""",G8,""",", ",""",H8,""",", ",""",I8,""",", ",""",J8,""",", ",""",K8,""",", ",""",L8,""",", ",""",M8,""",", ",""",N8,""",", ",""",O8,""",", ",""",P8,""",", ")</f>
-        <v>92</v>
-      </c>
-      <c r="S8" t="s" s="20">
-        <f>CONCATENATE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8)</f>
-        <v>93</v>
-      </c>
-      <c r="T8" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="U8" t="b" s="22">
+      <c r="T8" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="U8" t="b" s="16">
         <f>EXACT(S8,T8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" t="s" s="17">
+      <c r="A9" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="13">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s" s="14">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s" s="14">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s" s="14">
         <v>94</v>
       </c>
-      <c r="B9" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="19">
+      <c r="J9" t="s" s="14">
         <v>95</v>
       </c>
-      <c r="E9" t="s" s="20">
+      <c r="K9" t="s" s="14">
         <v>96</v>
       </c>
-      <c r="F9" t="s" s="20">
+      <c r="L9" t="s" s="14">
         <v>97</v>
       </c>
-      <c r="G9" t="s" s="20">
+      <c r="M9" t="s" s="14">
         <v>98</v>
       </c>
-      <c r="H9" t="s" s="20">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" t="s" s="14">
         <v>99</v>
       </c>
-      <c r="I9" t="s" s="20">
+      <c r="R9" t="s" s="14">
+        <f>CONCATENATE(""",D9,""",", ",""",E9,""",", ",""",F9,""",", ",""",G9,""",", ",""",H9,""",", ",""",I9,""",", ",""",J9,""",", ",""",K9,""",", ",""",L9,""",", ",""",M9,""",", ",""",N9,""",", ",""",O9,""",", ",""",P9,""",", ")</f>
         <v>100</v>
       </c>
-      <c r="J9" t="s" s="20">
+      <c r="S9" t="s" s="14">
+        <f>CONCATENATE(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9)</f>
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="M9" t="s" s="20">
-        <v>104</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" t="s" s="20">
-        <v>105</v>
-      </c>
-      <c r="R9" t="s" s="20">
-        <f>CONCATENATE(""",D9,""",", ",""",E9,""",", ",""",F9,""",", ",""",G9,""",", ",""",H9,""",", ",""",I9,""",", ",""",J9,""",", ",""",K9,""",", ",""",L9,""",", ",""",M9,""",", ",""",N9,""",", ",""",O9,""",", ",""",P9,""",", ")</f>
-        <v>106</v>
-      </c>
-      <c r="S9" t="s" s="20">
-        <f>CONCATENATE(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9)</f>
-        <v>107</v>
-      </c>
-      <c r="T9" s="22">
+      <c r="T9" s="16">
         <v>1234567890</v>
       </c>
-      <c r="U9" t="b" s="22">
+      <c r="U9" t="b" s="16">
         <f>EXACT(S9,T9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C10" s="18">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="19">
-        <v>182</v>
-      </c>
-      <c r="E10" t="s" s="20">
+      <c r="A10" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="13">
+        <v>177</v>
+      </c>
+      <c r="E10" t="s" s="14">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s" s="14">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s" s="14">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s" s="14">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s" s="14">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s" s="14">
         <v>95</v>
       </c>
-      <c r="F10" t="s" s="20">
+      <c r="L10" t="s" s="14">
         <v>96</v>
       </c>
-      <c r="G10" t="s" s="20">
+      <c r="M10" t="s" s="14">
         <v>97</v>
       </c>
-      <c r="H10" t="s" s="20">
+      <c r="N10" t="s" s="14">
         <v>98</v>
       </c>
-      <c r="I10" t="s" s="20">
-        <v>99</v>
-      </c>
-      <c r="J10" t="s" s="20">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s" s="20">
-        <v>101</v>
-      </c>
-      <c r="L10" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="M10" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="N10" t="s" s="20">
+      <c r="O10" t="s" s="14">
         <v>104</v>
       </c>
-      <c r="O10" t="s" s="20">
-        <v>110</v>
-      </c>
-      <c r="P10" t="s" s="20">
-        <v>168</v>
-      </c>
-      <c r="Q10" t="s" s="20">
-        <v>330</v>
-      </c>
-      <c r="R10" t="s" s="20">
+      <c r="P10" t="s" s="14">
+        <v>162</v>
+      </c>
+      <c r="Q10" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="R10" t="s" s="14">
         <f>CONCATENATE(""",D10,""",", ",""",E10,""",", ",""",F10,""",", ",""",G10,""",", ",""",H10,""",", ",""",I10,""",", ",""",J10,""",", ",""",K10,""",", ",""",L10,""",", ",""",M10,""",", ",""",N10,""",", ",""",O10,""",", ",""",P10,""",", ")</f>
-        <v>331</v>
-      </c>
-      <c r="S10" t="s" s="20">
+        <v>324</v>
+      </c>
+      <c r="S10" t="s" s="14">
         <f>CONCATENATE(D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10)</f>
-        <v>332</v>
-      </c>
-      <c r="T10" t="s" s="20">
-        <v>332</v>
-      </c>
-      <c r="U10" t="b" s="22">
+        <v>325</v>
+      </c>
+      <c r="T10" t="s" s="14">
+        <v>325</v>
+      </c>
+      <c r="U10" t="b" s="16">
         <f>EXACT(S10,T10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="A11" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C11" s="12">
         <v>2</v>
       </c>
-      <c r="D11" t="s" s="19">
+      <c r="D11" t="s" s="13">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s" s="14">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s" s="14">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s" s="14">
+        <v>113</v>
+      </c>
+      <c r="H11" t="s" s="14">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s" s="14">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s" s="14">
         <v>116</v>
       </c>
-      <c r="E11" t="s" s="20">
+      <c r="K11" t="s" s="14">
         <v>117</v>
       </c>
-      <c r="F11" t="s" s="20">
+      <c r="L11" t="s" s="14">
         <v>118</v>
       </c>
-      <c r="G11" t="s" s="20">
+      <c r="M11" t="s" s="14">
         <v>119</v>
       </c>
-      <c r="H11" t="s" s="20">
-        <v>120</v>
-      </c>
-      <c r="I11" t="s" s="20">
+      <c r="N11" t="s" s="14">
         <v>121</v>
       </c>
-      <c r="J11" t="s" s="20">
-        <v>122</v>
-      </c>
-      <c r="K11" t="s" s="20">
-        <v>333</v>
-      </c>
-      <c r="L11" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="M11" t="s" s="20">
-        <v>125</v>
-      </c>
-      <c r="N11" t="s" s="20">
-        <v>127</v>
-      </c>
-      <c r="O11" t="s" s="20">
-        <v>141</v>
-      </c>
-      <c r="P11" t="s" s="20">
-        <v>334</v>
-      </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" t="s" s="20">
+      <c r="O11" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="P11" t="s" s="14">
+        <v>326</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" t="s" s="14">
         <f>CONCATENATE(""",D11,""",", ",""",E11,""",", ",""",F11,""",", ",""",G11,""",", ",""",H11,""",", ",""",I11,""",", ",""",J11,""",", ",""",K11,""",", ",""",L11,""",", ",""",M11,""",", ",""",N11,""",", ",""",O11,""",", ",""",P11,""",", ")</f>
-        <v>335</v>
-      </c>
-      <c r="S11" t="s" s="20">
+        <v>327</v>
+      </c>
+      <c r="S11" t="s" s="14">
         <f>CONCATENATE(D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11)</f>
-        <v>336</v>
-      </c>
-      <c r="T11" t="s" s="20">
-        <v>336</v>
-      </c>
-      <c r="U11" t="b" s="22">
+        <v>328</v>
+      </c>
+      <c r="T11" t="s" s="14">
+        <v>328</v>
+      </c>
+      <c r="U11" t="b" s="16">
         <f>EXACT(S11,T11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B12" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="A12" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C12" s="12">
         <v>3</v>
       </c>
-      <c r="D12" t="s" s="19">
+      <c r="D12" t="s" s="13">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s" s="14">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s" s="14">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s" s="14">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s" s="14">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s" s="14">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s" s="14">
         <v>130</v>
       </c>
-      <c r="E12" t="s" s="20">
+      <c r="K12" t="s" s="14">
         <v>131</v>
       </c>
-      <c r="F12" t="s" s="20">
+      <c r="L12" t="s" s="14">
         <v>132</v>
       </c>
-      <c r="G12" t="s" s="20">
+      <c r="M12" t="s" s="14">
         <v>133</v>
       </c>
-      <c r="H12" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="I12" t="s" s="20">
-        <v>135</v>
-      </c>
-      <c r="J12" t="s" s="20">
-        <v>136</v>
-      </c>
-      <c r="K12" t="s" s="20">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M12" t="s" s="20">
-        <v>139</v>
-      </c>
-      <c r="N12" t="s" s="20">
-        <v>337</v>
-      </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" t="s" s="20">
+      <c r="N12" t="s" s="14">
+        <v>159</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" t="s" s="14">
         <f>CONCATENATE(""",D12,""",", ",""",E12,""",", ",""",F12,""",", ",""",G12,""",", ",""",H12,""",", ",""",I12,""",", ",""",J12,""",", ",""",K12,""",", ",""",L12,""",", ",""",M12,""",", ",""",N12,""",", ",""",O12,""",", ",""",P12,""",", ")</f>
-        <v>338</v>
-      </c>
-      <c r="S12" t="s" s="20">
+        <v>329</v>
+      </c>
+      <c r="S12" t="s" s="14">
         <f>CONCATENATE(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12)</f>
-        <v>339</v>
-      </c>
-      <c r="T12" t="s" s="20">
-        <v>339</v>
-      </c>
-      <c r="U12" t="b" s="22">
+        <v>330</v>
+      </c>
+      <c r="T12" t="s" s="14">
+        <v>330</v>
+      </c>
+      <c r="U12" t="b" s="16">
         <f>EXACT(S12,T12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="A13" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C13" s="12">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="19">
+      <c r="D13" t="s" s="13">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s" s="14">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s" s="14">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s" s="14">
+        <v>141</v>
+      </c>
+      <c r="H13" t="s" s="14">
+        <v>142</v>
+      </c>
+      <c r="I13" t="s" s="14">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s" s="14">
         <v>144</v>
       </c>
-      <c r="E13" t="s" s="20">
+      <c r="K13" t="s" s="14">
         <v>145</v>
       </c>
-      <c r="F13" t="s" s="20">
+      <c r="L13" t="s" s="14">
         <v>146</v>
       </c>
-      <c r="G13" t="s" s="20">
+      <c r="M13" t="s" s="14">
         <v>147</v>
       </c>
-      <c r="H13" t="s" s="20">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" t="s" s="14">
+        <f>CONCATENATE(""",D13,""",", ",""",E13,""",", ",""",F13,""",", ",""",G13,""",", ",""",H13,""",", ",""",I13,""",", ",""",J13,""",", ",""",K13,""",", ",""",L13,""",", ",""",M13,""",", ",""",N13,""",", ",""",O13,""",", ",""",P13,""",", ")</f>
         <v>148</v>
       </c>
-      <c r="I13" t="s" s="20">
+      <c r="S13" t="s" s="14">
+        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
         <v>149</v>
       </c>
-      <c r="J13" t="s" s="20">
-        <v>150</v>
-      </c>
-      <c r="K13" t="s" s="20">
-        <v>151</v>
-      </c>
-      <c r="L13" t="s" s="20">
-        <v>152</v>
-      </c>
-      <c r="M13" t="s" s="20">
-        <v>153</v>
-      </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" t="s" s="20">
-        <f>CONCATENATE(""",D13,""",", ",""",E13,""",", ",""",F13,""",", ",""",G13,""",", ",""",H13,""",", ",""",I13,""",", ",""",J13,""",", ",""",K13,""",", ",""",L13,""",", ",""",M13,""",", ",""",N13,""",", ",""",O13,""",", ",""",P13,""",", ")</f>
-        <v>154</v>
-      </c>
-      <c r="S13" t="s" s="20">
-        <f>CONCATENATE(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
-        <v>155</v>
-      </c>
-      <c r="T13" t="s" s="20">
-        <v>155</v>
-      </c>
-      <c r="U13" t="b" s="22">
+      <c r="T13" t="s" s="14">
+        <v>149</v>
+      </c>
+      <c r="U13" t="b" s="16">
         <f>EXACT(S13,T13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="A14" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="C14" s="12">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" t="s" s="20">
+      <c r="D14" t="s" s="13">
+        <v>150</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" t="s" s="14">
         <f>CONCATENATE(""",D14,""",", ",""",E14,""",", ",""",F14,""",", ",""",G14,""",", ",""",H14,""",", ",""",I14,""",", ",""",J14,""",", ",""",K14,""",", ",""",L14,""",", ",""",M14,""",", ",""",N14,""",", ",""",O14,""",", ",""",P14,""",", ")</f>
-        <v>157</v>
-      </c>
-      <c r="S14" t="s" s="20">
+        <v>151</v>
+      </c>
+      <c r="S14" t="s" s="14">
         <f>CONCATENATE(D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14)</f>
-        <v>156</v>
-      </c>
-      <c r="T14" t="s" s="20">
-        <v>156</v>
-      </c>
-      <c r="U14" t="b" s="22">
+        <v>150</v>
+      </c>
+      <c r="T14" t="s" s="14">
+        <v>150</v>
+      </c>
+      <c r="U14" t="b" s="16">
         <f>EXACT(S14,T14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s" s="17">
+      <c r="A15" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="13">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s" s="14">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s" s="14">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s" s="14">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s" s="14">
+        <v>156</v>
+      </c>
+      <c r="I15" t="s" s="14">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s" s="14">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s" s="14">
         <v>158</v>
       </c>
-      <c r="C15" s="18">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="19">
-        <v>169</v>
-      </c>
-      <c r="E15" t="s" s="20">
-        <v>159</v>
-      </c>
-      <c r="F15" t="s" s="20">
-        <v>126</v>
-      </c>
-      <c r="G15" t="s" s="20">
+      <c r="L15" t="s" s="14">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="N15" t="s" s="14">
         <v>161</v>
       </c>
-      <c r="H15" t="s" s="20">
-        <v>162</v>
-      </c>
-      <c r="I15" t="s" s="20">
-        <v>163</v>
-      </c>
-      <c r="J15" t="s" s="20">
-        <v>111</v>
-      </c>
-      <c r="K15" t="s" s="20">
-        <v>164</v>
-      </c>
-      <c r="L15" t="s" s="20">
-        <v>196</v>
-      </c>
-      <c r="M15" t="s" s="20">
-        <v>166</v>
-      </c>
-      <c r="N15" t="s" s="20">
-        <v>167</v>
-      </c>
-      <c r="O15" t="s" s="20">
-        <v>210</v>
-      </c>
-      <c r="P15" t="s" s="20">
-        <v>195</v>
-      </c>
-      <c r="Q15" s="21"/>
-      <c r="R15" t="s" s="20">
+      <c r="O15" t="s" s="14">
+        <v>205</v>
+      </c>
+      <c r="P15" t="s" s="14">
+        <v>190</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" t="s" s="14">
         <f>CONCATENATE(""",D15,""",", ",""",E15,""",", ",""",F15,""",", ",""",G15,""",", ",""",H15,""",", ",""",I15,""",", ",""",J15,""",", ",""",K15,""",", ",""",L15,""",", ",""",M15,""",", ",""",N15,""",", ",""",O15,""",", ",""",P15,""",", ")</f>
-        <v>340</v>
-      </c>
-      <c r="S15" t="s" s="20">
+        <v>331</v>
+      </c>
+      <c r="S15" t="s" s="14">
         <f>CONCATENATE(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15)</f>
-        <v>341</v>
-      </c>
-      <c r="T15" t="s" s="20">
-        <v>341</v>
-      </c>
-      <c r="U15" t="b" s="22">
+        <v>332</v>
+      </c>
+      <c r="T15" t="s" s="14">
+        <v>332</v>
+      </c>
+      <c r="U15" t="b" s="16">
         <f>EXACT(S15,T15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s" s="17">
-        <v>158</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="A16" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="D16" t="s" s="19">
+      <c r="D16" t="s" s="13">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s" s="14">
+        <v>168</v>
+      </c>
+      <c r="F16" t="s" s="14">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s" s="14">
+        <v>170</v>
+      </c>
+      <c r="H16" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="I16" t="s" s="14">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s" s="14">
         <v>173</v>
       </c>
-      <c r="E16" t="s" s="20">
+      <c r="K16" t="s" s="14">
         <v>174</v>
       </c>
-      <c r="F16" t="s" s="20">
+      <c r="L16" t="s" s="14">
         <v>175</v>
       </c>
-      <c r="G16" t="s" s="20">
+      <c r="M16" t="s" s="14">
         <v>176</v>
       </c>
-      <c r="H16" t="s" s="20">
-        <v>177</v>
-      </c>
-      <c r="I16" t="s" s="20">
+      <c r="N16" t="s" s="14">
         <v>178</v>
       </c>
-      <c r="J16" t="s" s="20">
-        <v>179</v>
-      </c>
-      <c r="K16" t="s" s="20">
-        <v>123</v>
-      </c>
-      <c r="L16" t="s" s="20">
-        <v>180</v>
-      </c>
-      <c r="M16" t="s" s="20">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="20">
-        <v>183</v>
-      </c>
-      <c r="O16" t="s" s="20">
-        <v>197</v>
-      </c>
-      <c r="P16" t="s" s="20">
-        <v>170</v>
-      </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" t="s" s="20">
+      <c r="O16" t="s" s="14">
+        <v>192</v>
+      </c>
+      <c r="P16" t="s" s="14">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" t="s" s="14">
         <f>CONCATENATE(""",D16,""",", ",""",E16,""",", ",""",F16,""",", ",""",G16,""",", ",""",H16,""",", ",""",I16,""",", ",""",J16,""",", ",""",K16,""",", ",""",L16,""",", ",""",M16,""",", ",""",N16,""",", ",""",O16,""",", ",""",P16,""",", ")</f>
-        <v>342</v>
-      </c>
-      <c r="S16" t="s" s="20">
+        <v>333</v>
+      </c>
+      <c r="S16" t="s" s="14">
         <f>CONCATENATE(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16)</f>
-        <v>343</v>
-      </c>
-      <c r="T16" t="s" s="20">
-        <v>343</v>
-      </c>
-      <c r="U16" t="b" s="22">
+        <v>334</v>
+      </c>
+      <c r="T16" t="s" s="14">
+        <v>334</v>
+      </c>
+      <c r="U16" t="b" s="16">
         <f>EXACT(S16,T16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B17" t="s" s="17">
-        <v>158</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="C17" s="12">
         <v>3</v>
       </c>
-      <c r="D17" t="s" s="19">
+      <c r="D17" t="s" s="13">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s" s="14">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s" s="14">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="H17" t="s" s="14">
+        <v>185</v>
+      </c>
+      <c r="I17" t="s" s="14">
         <v>186</v>
       </c>
-      <c r="E17" t="s" s="20">
+      <c r="J17" t="s" s="14">
         <v>187</v>
       </c>
-      <c r="F17" t="s" s="20">
+      <c r="K17" t="s" s="14">
         <v>188</v>
       </c>
-      <c r="G17" t="s" s="20">
+      <c r="L17" t="s" s="14">
         <v>189</v>
       </c>
-      <c r="H17" t="s" s="20">
-        <v>190</v>
-      </c>
-      <c r="I17" t="s" s="20">
-        <v>191</v>
-      </c>
-      <c r="J17" t="s" s="20">
-        <v>192</v>
-      </c>
-      <c r="K17" t="s" s="20">
-        <v>193</v>
-      </c>
-      <c r="L17" t="s" s="20">
-        <v>194</v>
-      </c>
-      <c r="M17" t="s" s="20">
-        <v>140</v>
-      </c>
-      <c r="N17" t="s" s="20">
-        <v>344</v>
-      </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" t="s" s="20">
+      <c r="M17" t="s" s="14">
+        <v>134</v>
+      </c>
+      <c r="N17" t="s" s="14">
+        <v>154</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" t="s" s="14">
         <f>CONCATENATE(""",D17,""",", ",""",E17,""",", ",""",F17,""",", ",""",G17,""",", ",""",H17,""",", ",""",I17,""",", ",""",J17,""",", ",""",K17,""",", ",""",L17,""",", ",""",M17,""",", ",""",N17,""",", ",""",O17,""",", ",""",P17,""",", ")</f>
-        <v>345</v>
-      </c>
-      <c r="S17" t="s" s="20">
+        <v>335</v>
+      </c>
+      <c r="S17" t="s" s="14">
         <f>CONCATENATE(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17)</f>
-        <v>346</v>
-      </c>
-      <c r="T17" t="s" s="20">
-        <v>346</v>
-      </c>
-      <c r="U17" t="b" s="22">
+        <v>336</v>
+      </c>
+      <c r="T17" t="s" s="14">
+        <v>336</v>
+      </c>
+      <c r="U17" t="b" s="16">
         <f>EXACT(S17,T17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="B18" t="s" s="17">
-        <v>158</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="A18" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="C18" s="12">
         <v>4</v>
       </c>
-      <c r="D18" t="s" s="19">
+      <c r="D18" t="s" s="13">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s" s="14">
+        <v>196</v>
+      </c>
+      <c r="F18" t="s" s="14">
+        <v>197</v>
+      </c>
+      <c r="G18" t="s" s="14">
+        <v>198</v>
+      </c>
+      <c r="H18" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="I18" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="E18" t="s" s="20">
+      <c r="J18" t="s" s="14">
         <v>201</v>
       </c>
-      <c r="F18" t="s" s="20">
+      <c r="K18" t="s" s="14">
         <v>202</v>
       </c>
-      <c r="G18" t="s" s="20">
+      <c r="L18" t="s" s="14">
         <v>203</v>
       </c>
-      <c r="H18" t="s" s="20">
+      <c r="M18" t="s" s="14">
         <v>204</v>
       </c>
-      <c r="I18" t="s" s="20">
-        <v>205</v>
-      </c>
-      <c r="J18" t="s" s="20">
-        <v>206</v>
-      </c>
-      <c r="K18" t="s" s="20">
-        <v>207</v>
-      </c>
-      <c r="L18" t="s" s="20">
-        <v>208</v>
-      </c>
-      <c r="M18" t="s" s="20">
-        <v>209</v>
-      </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" t="s" s="20">
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" t="s" s="14">
         <f>CONCATENATE(""",D18,""",", ",""",E18,""",", ",""",F18,""",", ",""",G18,""",", ",""",H18,""",", ",""",I18,""",", ",""",J18,""",", ",""",K18,""",", ",""",L18,""",", ",""",M18,""",", ",""",N18,""",", ",""",O18,""",", ",""",P18,""",", ")</f>
-        <v>347</v>
-      </c>
-      <c r="S18" t="s" s="20">
+        <v>337</v>
+      </c>
+      <c r="S18" t="s" s="14">
         <f>CONCATENATE(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18)</f>
-        <v>348</v>
-      </c>
-      <c r="T18" t="s" s="20">
-        <v>348</v>
-      </c>
-      <c r="U18" t="b" s="22">
+        <v>338</v>
+      </c>
+      <c r="T18" t="s" s="14">
+        <v>338</v>
+      </c>
+      <c r="U18" t="b" s="16">
         <f>EXACT(S18,T18)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" t="s" s="17">
+      <c r="A19" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="13">
+        <v>289</v>
+      </c>
+      <c r="E19" t="s" s="14">
+        <v>210</v>
+      </c>
+      <c r="F19" t="s" s="14">
+        <v>211</v>
+      </c>
+      <c r="G19" t="s" s="14">
+        <v>212</v>
+      </c>
+      <c r="H19" t="s" s="14">
         <v>213</v>
       </c>
-      <c r="B19" t="s" s="17">
+      <c r="I19" t="s" s="14">
         <v>214</v>
       </c>
-      <c r="C19" s="18">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s" s="19">
-        <v>294</v>
-      </c>
-      <c r="E19" t="s" s="20">
+      <c r="J19" t="s" s="14">
         <v>215</v>
       </c>
-      <c r="F19" t="s" s="20">
+      <c r="K19" t="s" s="14">
         <v>216</v>
       </c>
-      <c r="G19" t="s" s="20">
+      <c r="L19" t="s" s="14">
         <v>217</v>
       </c>
-      <c r="H19" t="s" s="20">
+      <c r="M19" t="s" s="14">
         <v>218</v>
       </c>
-      <c r="I19" t="s" s="20">
+      <c r="N19" t="s" s="14">
         <v>219</v>
       </c>
-      <c r="J19" t="s" s="20">
-        <v>220</v>
-      </c>
-      <c r="K19" t="s" s="20">
-        <v>221</v>
-      </c>
-      <c r="L19" t="s" s="20">
-        <v>222</v>
-      </c>
-      <c r="M19" t="s" s="20">
-        <v>223</v>
-      </c>
-      <c r="N19" t="s" s="20">
-        <v>224</v>
-      </c>
-      <c r="O19" t="s" s="20">
-        <v>91</v>
-      </c>
-      <c r="P19" s="23"/>
-      <c r="Q19" t="s" s="20">
-        <v>349</v>
-      </c>
-      <c r="R19" t="s" s="20">
+      <c r="O19" t="s" s="14">
+        <v>85</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" t="s" s="14">
+        <v>339</v>
+      </c>
+      <c r="R19" t="s" s="14">
         <f>CONCATENATE(""",D19,""",", ",""",E19,""",", ",""",F19,""",", ",""",G19,""",", ",""",H19,""",", ",""",I19,""",", ",""",J19,""",", ",""",K19,""",", ",""",L19,""",", ",""",M19,""",", ",""",N19,""",", ",""",O19,""",", ",""",P19,""",", ")</f>
-        <v>350</v>
-      </c>
-      <c r="S19" t="s" s="20">
+        <v>340</v>
+      </c>
+      <c r="S19" t="s" s="14">
         <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19)</f>
-        <v>351</v>
-      </c>
-      <c r="T19" t="s" s="20">
-        <v>351</v>
-      </c>
-      <c r="U19" t="b" s="22">
+        <v>341</v>
+      </c>
+      <c r="T19" t="s" s="14">
+        <v>341</v>
+      </c>
+      <c r="U19" t="b" s="16">
         <f>EXACT(S19,T19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B20" t="s" s="17">
-        <v>214</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="C20" s="12">
         <v>2</v>
       </c>
-      <c r="D20" t="s" s="19">
+      <c r="D20" t="s" s="13">
+        <v>225</v>
+      </c>
+      <c r="E20" t="s" s="14">
+        <v>226</v>
+      </c>
+      <c r="F20" t="s" s="14">
+        <v>227</v>
+      </c>
+      <c r="G20" t="s" s="14">
+        <v>228</v>
+      </c>
+      <c r="H20" t="s" s="14">
+        <v>229</v>
+      </c>
+      <c r="I20" t="s" s="14">
         <v>230</v>
       </c>
-      <c r="E20" t="s" s="20">
+      <c r="J20" t="s" s="14">
         <v>231</v>
       </c>
-      <c r="F20" t="s" s="20">
+      <c r="K20" t="s" s="14">
         <v>232</v>
       </c>
-      <c r="G20" t="s" s="20">
+      <c r="L20" t="s" s="14">
         <v>233</v>
       </c>
-      <c r="H20" t="s" s="20">
+      <c r="M20" t="s" s="14">
         <v>234</v>
       </c>
-      <c r="I20" t="s" s="20">
-        <v>235</v>
-      </c>
-      <c r="J20" t="s" s="20">
-        <v>236</v>
-      </c>
-      <c r="K20" t="s" s="20">
-        <v>237</v>
-      </c>
-      <c r="L20" t="s" s="20">
-        <v>238</v>
-      </c>
-      <c r="M20" t="s" s="20">
-        <v>239</v>
-      </c>
-      <c r="N20" s="23"/>
-      <c r="O20" t="s" s="20">
-        <v>255</v>
-      </c>
-      <c r="P20" t="s" s="20">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" t="s" s="20">
+      <c r="N20" s="17"/>
+      <c r="O20" t="s" s="14">
+        <v>250</v>
+      </c>
+      <c r="P20" t="s" s="14">
+        <v>221</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" t="s" s="14">
         <f>CONCATENATE(""",D20,""",", ",""",E20,""",", ",""",F20,""",", ",""",G20,""",", ",""",H20,""",", ",""",I20,""",", ",""",J20,""",", ",""",K20,""",", ",""",L20,""",", ",""",M20,""",", ",""",N20,""",", ",""",O20,""",", ",""",P20,""",", ")</f>
-        <v>352</v>
-      </c>
-      <c r="S20" t="s" s="20">
+        <v>342</v>
+      </c>
+      <c r="S20" t="s" s="14">
         <f>CONCATENATE(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20)</f>
-        <v>353</v>
-      </c>
-      <c r="T20" t="s" s="20">
-        <v>353</v>
-      </c>
-      <c r="U20" t="b" s="22">
+        <v>343</v>
+      </c>
+      <c r="T20" t="s" s="14">
+        <v>343</v>
+      </c>
+      <c r="U20" t="b" s="16">
         <f>EXACT(S20,T20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B21" t="s" s="17">
-        <v>214</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="A21" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="D21" t="s" s="19">
+      <c r="D21" t="s" s="13">
+        <v>239</v>
+      </c>
+      <c r="E21" t="s" s="14">
+        <v>240</v>
+      </c>
+      <c r="F21" t="s" s="14">
+        <v>241</v>
+      </c>
+      <c r="G21" t="s" s="14">
+        <v>242</v>
+      </c>
+      <c r="H21" t="s" s="14">
+        <v>243</v>
+      </c>
+      <c r="I21" t="s" s="14">
         <v>244</v>
       </c>
-      <c r="E21" t="s" s="20">
+      <c r="J21" t="s" s="14">
         <v>245</v>
       </c>
-      <c r="F21" t="s" s="20">
+      <c r="K21" t="s" s="14">
         <v>246</v>
       </c>
-      <c r="G21" t="s" s="20">
+      <c r="L21" t="s" s="14">
         <v>247</v>
       </c>
-      <c r="H21" t="s" s="20">
+      <c r="M21" t="s" s="14">
         <v>248</v>
       </c>
-      <c r="I21" t="s" s="20">
-        <v>249</v>
-      </c>
-      <c r="J21" t="s" s="20">
-        <v>250</v>
-      </c>
-      <c r="K21" t="s" s="20">
-        <v>251</v>
-      </c>
-      <c r="L21" t="s" s="20">
-        <v>252</v>
-      </c>
-      <c r="M21" t="s" s="20">
-        <v>253</v>
-      </c>
-      <c r="N21" t="s" s="20">
-        <v>277</v>
-      </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" t="s" s="20">
+      <c r="N21" t="s" s="14">
+        <v>272</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" t="s" s="14">
         <f>CONCATENATE(""",D21,""",", ",""",E21,""",", ",""",F21,""",", ",""",G21,""",", ",""",H21,""",", ",""",I21,""",", ",""",J21,""",", ",""",K21,""",", ",""",L21,""",", ",""",M21,""",", ",""",N21,""",", ",""",O21,""",", ",""",P21,""",", ")</f>
-        <v>354</v>
-      </c>
-      <c r="S21" t="s" s="20">
+        <v>344</v>
+      </c>
+      <c r="S21" t="s" s="14">
         <f>CONCATENATE(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21)</f>
-        <v>355</v>
-      </c>
-      <c r="T21" t="s" s="20">
-        <v>355</v>
-      </c>
-      <c r="U21" t="b" s="22">
+        <v>345</v>
+      </c>
+      <c r="T21" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="U21" t="b" s="16">
         <f>EXACT(S21,T21)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B22" t="s" s="17">
-        <v>214</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="A22" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="C22" s="12">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="19">
+      <c r="D22" t="s" s="13">
+        <v>253</v>
+      </c>
+      <c r="E22" t="s" s="14">
+        <v>254</v>
+      </c>
+      <c r="F22" t="s" s="14">
+        <v>255</v>
+      </c>
+      <c r="G22" t="s" s="14">
+        <v>256</v>
+      </c>
+      <c r="H22" t="s" s="14">
+        <v>257</v>
+      </c>
+      <c r="I22" t="s" s="14">
         <v>258</v>
       </c>
-      <c r="E22" t="s" s="20">
+      <c r="J22" t="s" s="14">
         <v>259</v>
       </c>
-      <c r="F22" t="s" s="20">
+      <c r="K22" t="s" s="14">
         <v>260</v>
       </c>
-      <c r="G22" t="s" s="20">
+      <c r="L22" t="s" s="14">
         <v>261</v>
       </c>
-      <c r="H22" t="s" s="20">
+      <c r="M22" t="s" s="14">
         <v>262</v>
       </c>
-      <c r="I22" t="s" s="20">
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" t="s" s="14">
+        <f>CONCATENATE(""",D22,""",", ",""",E22,""",", ",""",F22,""",", ",""",G22,""",", ",""",H22,""",", ",""",I22,""",", ",""",J22,""",", ",""",K22,""",", ",""",L22,""",", ",""",M22,""",", ",""",N22,""",", ",""",O22,""",", ",""",P22,""",", ")</f>
         <v>263</v>
       </c>
-      <c r="J22" t="s" s="20">
+      <c r="S22" t="s" s="14">
+        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22)</f>
         <v>264</v>
       </c>
-      <c r="K22" t="s" s="20">
-        <v>265</v>
-      </c>
-      <c r="L22" t="s" s="20">
-        <v>266</v>
-      </c>
-      <c r="M22" t="s" s="20">
-        <v>267</v>
-      </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" t="s" s="20">
-        <f>CONCATENATE(""",D22,""",", ",""",E22,""",", ",""",F22,""",", ",""",G22,""",", ",""",H22,""",", ",""",I22,""",", ",""",J22,""",", ",""",K22,""",", ",""",L22,""",", ",""",M22,""",", ",""",N22,""",", ",""",O22,""",", ",""",P22,""",", ")</f>
-        <v>268</v>
-      </c>
-      <c r="S22" t="s" s="20">
-        <f>CONCATENATE(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22)</f>
-        <v>269</v>
-      </c>
-      <c r="T22" t="s" s="20">
-        <v>269</v>
-      </c>
-      <c r="U22" t="b" s="22">
+      <c r="T22" t="s" s="14">
+        <v>264</v>
+      </c>
+      <c r="U22" t="b" s="16">
         <f>EXACT(S22,T22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s" s="17">
+      <c r="A23" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s" s="13">
+        <v>276</v>
+      </c>
+      <c r="E23" t="s" s="14">
+        <v>266</v>
+      </c>
+      <c r="F23" t="s" s="14">
+        <v>235</v>
+      </c>
+      <c r="G23" t="s" s="14">
+        <v>268</v>
+      </c>
+      <c r="H23" t="s" s="14">
+        <v>269</v>
+      </c>
+      <c r="I23" t="s" s="14">
         <v>270</v>
       </c>
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s" s="19">
-        <v>281</v>
-      </c>
-      <c r="E23" t="s" s="20">
+      <c r="J23" t="s" s="14">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s" s="14">
         <v>271</v>
       </c>
-      <c r="F23" t="s" s="20">
-        <v>240</v>
-      </c>
-      <c r="G23" t="s" s="20">
+      <c r="L23" t="s" s="14">
+        <v>301</v>
+      </c>
+      <c r="M23" t="s" s="14">
         <v>273</v>
       </c>
-      <c r="H23" t="s" s="20">
+      <c r="N23" t="s" s="14">
         <v>274</v>
       </c>
-      <c r="I23" t="s" s="20">
-        <v>275</v>
-      </c>
-      <c r="J23" t="s" s="20">
-        <v>225</v>
-      </c>
-      <c r="K23" t="s" s="20">
-        <v>276</v>
-      </c>
-      <c r="L23" t="s" s="20">
-        <v>306</v>
-      </c>
-      <c r="M23" t="s" s="20">
-        <v>278</v>
-      </c>
-      <c r="N23" t="s" s="20">
-        <v>279</v>
-      </c>
-      <c r="O23" t="s" s="20">
-        <v>317</v>
-      </c>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" t="s" s="20">
+      <c r="O23" t="s" s="14">
+        <v>312</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" t="s" s="14">
         <f>CONCATENATE(""",D23,""",", ",""",E23,""",", ",""",F23,""",", ",""",G23,""",", ",""",H23,""",", ",""",I23,""",", ",""",J23,""",", ",""",K23,""",", ",""",L23,""",", ",""",M23,""",", ",""",N23,""",", ",""",O23,""",", ",""",P23,""",", ")</f>
-        <v>356</v>
-      </c>
-      <c r="S23" t="s" s="20">
+        <v>346</v>
+      </c>
+      <c r="S23" t="s" s="14">
         <f>CONCATENATE(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23)</f>
-        <v>357</v>
-      </c>
-      <c r="T23" t="s" s="20">
-        <v>357</v>
-      </c>
-      <c r="U23" t="b" s="22">
+        <v>347</v>
+      </c>
+      <c r="T23" t="s" s="14">
+        <v>347</v>
+      </c>
+      <c r="U23" t="b" s="16">
         <f>EXACT(S23,T23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="18.3" customHeight="1">
-      <c r="A24" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B24" t="s" s="17">
-        <v>270</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="A24" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C24" s="12">
         <v>2</v>
       </c>
-      <c r="D24" t="s" s="19">
+      <c r="D24" t="s" s="13">
+        <v>280</v>
+      </c>
+      <c r="E24" t="s" s="14">
+        <v>281</v>
+      </c>
+      <c r="F24" t="s" s="14">
+        <v>282</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" t="s" s="14">
+        <v>283</v>
+      </c>
+      <c r="I24" t="s" s="14">
+        <v>284</v>
+      </c>
+      <c r="J24" t="s" s="14">
         <v>285</v>
       </c>
-      <c r="E24" t="s" s="20">
+      <c r="K24" t="s" s="14">
         <v>286</v>
       </c>
-      <c r="F24" t="s" s="20">
+      <c r="L24" t="s" s="14">
         <v>287</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" t="s" s="20">
+      <c r="M24" t="s" s="14">
         <v>288</v>
       </c>
-      <c r="I24" t="s" s="20">
-        <v>289</v>
-      </c>
-      <c r="J24" t="s" s="20">
-        <v>290</v>
-      </c>
-      <c r="K24" t="s" s="20">
-        <v>291</v>
-      </c>
-      <c r="L24" t="s" s="20">
-        <v>292</v>
-      </c>
-      <c r="M24" t="s" s="20">
-        <v>293</v>
-      </c>
-      <c r="N24" s="23"/>
-      <c r="O24" t="s" s="20">
-        <v>307</v>
-      </c>
-      <c r="P24" t="s" s="20">
-        <v>282</v>
-      </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" t="s" s="20">
+      <c r="N24" s="17"/>
+      <c r="O24" t="s" s="14">
+        <v>302</v>
+      </c>
+      <c r="P24" t="s" s="14">
+        <v>277</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" t="s" s="14">
         <f>CONCATENATE(""",D24,""",", ",""",E24,""",", ",""",F24,""",", ",""",G24,""",", ",""",H24,""",", ",""",I24,""",", ",""",J24,""",", ",""",K24,""",", ",""",L24,""",", ",""",M24,""",", ",""",N24,""",", ",""",O24,""",", ",""",P24,""",", ")</f>
-        <v>358</v>
-      </c>
-      <c r="S24" t="s" s="20">
+        <v>348</v>
+      </c>
+      <c r="S24" t="s" s="14">
         <f>CONCATENATE(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24,P24)</f>
-        <v>359</v>
-      </c>
-      <c r="T24" t="s" s="20">
-        <v>359</v>
-      </c>
-      <c r="U24" t="b" s="22">
+        <v>349</v>
+      </c>
+      <c r="T24" t="s" s="14">
+        <v>349</v>
+      </c>
+      <c r="U24" t="b" s="16">
         <f>EXACT(S24,T24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" ht="18.3" customHeight="1">
-      <c r="A25" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B25" t="s" s="17">
-        <v>270</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="A25" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C25" s="12">
         <v>3</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23"/>
-      <c r="F25" t="s" s="20">
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" t="s" s="14">
+        <v>293</v>
+      </c>
+      <c r="G25" t="s" s="14">
+        <v>294</v>
+      </c>
+      <c r="H25" t="s" s="14">
+        <v>295</v>
+      </c>
+      <c r="I25" t="s" s="14">
+        <v>296</v>
+      </c>
+      <c r="J25" t="s" s="14">
+        <v>297</v>
+      </c>
+      <c r="K25" t="s" s="14">
         <v>298</v>
       </c>
-      <c r="G25" t="s" s="20">
+      <c r="L25" t="s" s="14">
         <v>299</v>
       </c>
-      <c r="H25" t="s" s="20">
-        <v>300</v>
-      </c>
-      <c r="I25" t="s" s="20">
-        <v>301</v>
-      </c>
-      <c r="J25" t="s" s="20">
-        <v>302</v>
-      </c>
-      <c r="K25" t="s" s="20">
-        <v>303</v>
-      </c>
-      <c r="L25" t="s" s="20">
-        <v>304</v>
-      </c>
-      <c r="M25" t="s" s="20">
-        <v>254</v>
-      </c>
-      <c r="N25" t="s" s="20">
-        <v>272</v>
-      </c>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" t="s" s="20">
+      <c r="M25" t="s" s="14">
+        <v>249</v>
+      </c>
+      <c r="N25" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" t="s" s="14">
         <f>CONCATENATE(""",D25,""",", ",""",E25,""",", ",""",F25,""",", ",""",G25,""",", ",""",H25,""",", ",""",I25,""",", ",""",J25,""",", ",""",K25,""",", ",""",L25,""",", ",""",M25,""",", ",""",N25,""",", ",""",O25,""",", ",""",P25,""",", ")</f>
-        <v>360</v>
-      </c>
-      <c r="S25" t="s" s="20">
+        <v>350</v>
+      </c>
+      <c r="S25" t="s" s="14">
         <f>CONCATENATE(D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25)</f>
-        <v>361</v>
-      </c>
-      <c r="T25" t="s" s="20">
-        <v>361</v>
-      </c>
-      <c r="U25" t="b" s="22">
+        <v>351</v>
+      </c>
+      <c r="T25" t="s" s="14">
+        <v>351</v>
+      </c>
+      <c r="U25" t="b" s="16">
         <f>EXACT(S25,T25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="18.3" customHeight="1">
-      <c r="A26" t="s" s="17">
-        <v>213</v>
-      </c>
-      <c r="B26" t="s" s="17">
-        <v>270</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C26" s="12">
         <v>4</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" t="s" s="20">
+      <c r="D26" s="18"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" t="s" s="14">
+        <v>305</v>
+      </c>
+      <c r="H26" t="s" s="14">
+        <v>306</v>
+      </c>
+      <c r="I26" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="J26" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="K26" t="s" s="14">
+        <v>309</v>
+      </c>
+      <c r="L26" t="s" s="14">
         <v>310</v>
       </c>
-      <c r="H26" t="s" s="20">
+      <c r="M26" t="s" s="14">
         <v>311</v>
       </c>
-      <c r="I26" t="s" s="20">
-        <v>312</v>
-      </c>
-      <c r="J26" t="s" s="20">
-        <v>313</v>
-      </c>
-      <c r="K26" t="s" s="20">
-        <v>314</v>
-      </c>
-      <c r="L26" t="s" s="20">
-        <v>315</v>
-      </c>
-      <c r="M26" t="s" s="20">
-        <v>316</v>
-      </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" t="s" s="20">
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" t="s" s="14">
         <f>CONCATENATE(""",D26,""",", ",""",E26,""",", ",""",F26,""",", ",""",G26,""",", ",""",H26,""",", ",""",I26,""",", ",""",J26,""",", ",""",K26,""",", ",""",L26,""",", ",""",M26,""",", ",""",N26,""",", ",""",O26,""",", ",""",P26,""",", ")</f>
-        <v>362</v>
-      </c>
-      <c r="S26" t="s" s="20">
+        <v>352</v>
+      </c>
+      <c r="S26" t="s" s="14">
         <f>CONCATENATE(D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26,P26)</f>
-        <v>363</v>
-      </c>
-      <c r="T26" t="s" s="20">
-        <v>363</v>
-      </c>
-      <c r="U26" t="b" s="22">
+        <v>353</v>
+      </c>
+      <c r="T26" t="s" s="14">
+        <v>353</v>
+      </c>
+      <c r="U26" t="b" s="16">
         <f>EXACT(S26,T26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="18.3" customHeight="1">
-      <c r="A27" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" t="s" s="20">
-        <v>321</v>
-      </c>
-      <c r="R27" t="s" s="20">
+      <c r="A27" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" t="s" s="14">
+        <v>316</v>
+      </c>
+      <c r="R27" t="s" s="14">
         <f>CONCATENATE(""",D27,""",", ",""",E27,""",", ",""",F27,""",", ",""",G27,""",", ",""",H27,""",", ",""",I27,""",", ",""",J27,""",", ",""",K27,""",", ",""",L27,""",", ",""",M27,""",", ",""",N27,""",", ",""",O27,""",", ",""",P27,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S27" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S27" t="s" s="14">
         <f>CONCATENATE(D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27,P27)</f>
       </c>
-      <c r="T27" s="21"/>
-      <c r="U27" t="b" s="22">
+      <c r="T27" s="15"/>
+      <c r="U27" t="b" s="16">
         <f>EXACT(S27,T27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="18.3" customHeight="1">
-      <c r="A28" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" t="s" s="20">
-        <v>323</v>
-      </c>
-      <c r="R28" t="s" s="20">
+      <c r="A28" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" t="s" s="14">
+        <v>318</v>
+      </c>
+      <c r="R28" t="s" s="14">
         <f>CONCATENATE(""",D28,""",", ",""",E28,""",", ",""",F28,""",", ",""",G28,""",", ",""",H28,""",", ",""",I28,""",", ",""",J28,""",", ",""",K28,""",", ",""",L28,""",", ",""",M28,""",", ",""",N28,""",", ",""",O28,""",", ",""",P28,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S28" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S28" t="s" s="14">
         <f>CONCATENATE(D28,E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28,P28)</f>
       </c>
-      <c r="T28" s="21"/>
-      <c r="U28" t="b" s="22">
+      <c r="T28" s="15"/>
+      <c r="U28" t="b" s="16">
         <f>EXACT(S28,T28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.3" customHeight="1">
-      <c r="A29" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" t="s" s="20">
-        <v>324</v>
-      </c>
-      <c r="R29" t="s" s="20">
+      <c r="A29" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" t="s" s="14">
+        <v>319</v>
+      </c>
+      <c r="R29" t="s" s="14">
         <f>CONCATENATE(""",D29,""",", ",""",E29,""",", ",""",F29,""",", ",""",G29,""",", ",""",H29,""",", ",""",I29,""",", ",""",J29,""",", ",""",K29,""",", ",""",L29,""",", ",""",M29,""",", ",""",N29,""",", ",""",O29,""",", ",""",P29,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S29" t="s" s="20">
-        <v>364</v>
-      </c>
-      <c r="T29" t="s" s="20">
-        <v>364</v>
-      </c>
-      <c r="U29" t="b" s="22">
+        <v>317</v>
+      </c>
+      <c r="S29" t="s" s="14">
+        <v>354</v>
+      </c>
+      <c r="T29" t="s" s="14">
+        <v>354</v>
+      </c>
+      <c r="U29" t="b" s="16">
         <f>EXACT(S29,T29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="18.3" customHeight="1">
-      <c r="A30" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" t="s" s="20">
-        <v>325</v>
-      </c>
-      <c r="R30" t="s" s="20">
+      <c r="A30" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" t="s" s="14">
+        <v>355</v>
+      </c>
+      <c r="R30" t="s" s="14">
         <f>CONCATENATE(""",D30,""",", ",""",E30,""",", ",""",F30,""",", ",""",G30,""",", ",""",H30,""",", ",""",I30,""",", ",""",J30,""",", ",""",K30,""",", ",""",L30,""",", ",""",M30,""",", ",""",N30,""",", ",""",O30,""",", ",""",P30,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S30" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S30" t="s" s="14">
         <f>CONCATENATE(D30,E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30,P30)</f>
       </c>
-      <c r="T30" s="21"/>
-      <c r="U30" t="b" s="22">
+      <c r="T30" s="15"/>
+      <c r="U30" t="b" s="16">
         <f>EXACT(S30,T30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" ht="18.3" customHeight="1">
-      <c r="A31" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" t="s" s="20">
-        <v>326</v>
-      </c>
-      <c r="R31" t="s" s="20">
+      <c r="A31" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" t="s" s="14">
+        <v>321</v>
+      </c>
+      <c r="R31" t="s" s="14">
         <f>CONCATENATE(""",D31,""",", ",""",E31,""",", ",""",F31,""",", ",""",G31,""",", ",""",H31,""",", ",""",I31,""",", ",""",J31,""",", ",""",K31,""",", ",""",L31,""",", ",""",M31,""",", ",""",N31,""",", ",""",O31,""",", ",""",P31,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S31" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S31" t="s" s="14">
         <f>CONCATENATE(D31,E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31,P31)</f>
       </c>
-      <c r="T31" s="21"/>
-      <c r="U31" t="b" s="22">
+      <c r="T31" s="15"/>
+      <c r="U31" t="b" s="16">
         <f>EXACT(S31,T31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" ht="18.3" customHeight="1">
-      <c r="A32" t="s" s="17">
-        <v>320</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" t="s" s="20">
-        <v>327</v>
-      </c>
-      <c r="R32" t="s" s="20">
+      <c r="A32" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="R32" t="s" s="14">
         <f>CONCATENATE(""",D32,""",", ",""",E32,""",", ",""",F32,""",", ",""",G32,""",", ",""",H32,""",", ",""",I32,""",", ",""",J32,""",", ",""",K32,""",", ",""",L32,""",", ",""",M32,""",", ",""",N32,""",", ",""",O32,""",", ",""",P32,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S32" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S32" t="s" s="14">
         <f>CONCATENATE(D32,E32,F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32)</f>
       </c>
-      <c r="T32" s="21"/>
-      <c r="U32" t="b" s="22">
+      <c r="T32" s="15"/>
+      <c r="U32" t="b" s="16">
         <f>EXACT(S32,T32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" ht="18.3" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" t="s" s="20">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" t="s" s="14">
         <f>CONCATENATE(""",D33,""",", ",""",E33,""",", ",""",F33,""",", ",""",G33,""",", ",""",H33,""",", ",""",I33,""",", ",""",J33,""",", ",""",K33,""",", ",""",L33,""",", ",""",M33,""",", ",""",N33,""",", ",""",O33,""",", ",""",P33,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S33" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S33" t="s" s="14">
         <f>CONCATENATE(D33,E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33)</f>
       </c>
-      <c r="T33" s="21"/>
-      <c r="U33" t="b" s="22">
+      <c r="T33" s="15"/>
+      <c r="U33" t="b" s="16">
         <f>EXACT(S33,T33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="18.3" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" t="s" s="20">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" t="s" s="14">
         <f>CONCATENATE(""",D34,""",", ",""",E34,""",", ",""",F34,""",", ",""",G34,""",", ",""",H34,""",", ",""",I34,""",", ",""",J34,""",", ",""",K34,""",", ",""",L34,""",", ",""",M34,""",", ",""",N34,""",", ",""",O34,""",", ",""",P34,""",", ")</f>
-        <v>322</v>
-      </c>
-      <c r="S34" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="S34" t="s" s="14">
         <f>CONCATENATE(D34,E34,F34,G34,H34,I34,J34,K34,L34,M34,N34,O34,P34)</f>
       </c>
-      <c r="T34" s="21"/>
-      <c r="U34" t="b" s="22">
+      <c r="T34" s="15"/>
+      <c r="U34" t="b" s="16">
         <f>EXACT(S34,T34)</f>
         <v>1</v>
       </c>
